--- a/stadia/seed/computer_and_acc.xlsx
+++ b/stadia/seed/computer_and_acc.xlsx
@@ -29,10 +29,8 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
@@ -56,10 +54,8 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
@@ -83,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="466">
   <si>
     <t xml:space="preserve">Date of Purchase</t>
   </si>
@@ -91,7 +87,7 @@
     <t xml:space="preserve">Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference no </t>
+    <t xml:space="preserve">Reference no</t>
   </si>
   <si>
     <t xml:space="preserve">Supplier Name</t>
@@ -100,13 +96,16 @@
     <t xml:space="preserve">Accounts Ref</t>
   </si>
   <si>
-    <t xml:space="preserve">Location </t>
+    <t xml:space="preserve">Location</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
     <t xml:space="preserve">ID.T.No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifrs_rate</t>
   </si>
   <si>
     <t xml:space="preserve">Cost</t>
@@ -1496,11 +1495,12 @@
     <numFmt numFmtId="171" formatCode="0.0%"/>
     <numFmt numFmtId="172" formatCode="@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1592,14 +1592,6 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1765,13 +1757,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="95">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2020,10 +2016,6 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="10" fillId="0" borderId="9" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2153,10 +2145,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2177,37 +2165,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ178"/>
+  <dimension ref="A1:AMJ161"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="59" zoomScaleNormal="100" zoomScalePageLayoutView="59" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F108" activeCellId="0" sqref="F108"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="33.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="24.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="20.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="6" width="18.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="6" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="6" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="6" width="21.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="7" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="7" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="8" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="8" width="59.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="true" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="17" customFormat="true" ht="49.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2232,50 +2220,52 @@
       <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11"/>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="n">
         <v>42216</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="22" t="n">
         <v>0.143</v>
@@ -2299,30 +2289,30 @@
       <c r="P2" s="26"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="n">
         <v>43928</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="34" t="n">
         <v>0.143</v>
@@ -2347,30 +2337,30 @@
       <c r="P3" s="26"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="39" t="n">
         <v>42647</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" s="34" t="n">
         <v>0.143</v>
@@ -2401,25 +2391,25 @@
         <v>43162</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5" s="34" t="n">
         <v>0.143</v>
@@ -2443,28 +2433,28 @@
       <c r="P5" s="26"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="39" t="n">
         <v>42686</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="40"/>
       <c r="D6" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I6" s="34" t="n">
         <v>0.143</v>
@@ -2488,30 +2478,30 @@
       <c r="P6" s="26"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44" t="n">
         <v>42572</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I7" s="34" t="n">
         <v>0.143</v>
@@ -2535,30 +2525,30 @@
       <c r="P7" s="26"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="46" t="n">
         <v>44270</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" s="49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I8" s="34" t="n">
         <v>0.143</v>
@@ -2582,30 +2572,30 @@
       <c r="P8" s="26"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44" t="n">
         <v>44270</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I9" s="34" t="n">
         <v>0.143</v>
@@ -2634,25 +2624,25 @@
         <v>42985</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I10" s="34" t="n">
         <v>0.143</v>
@@ -2678,24 +2668,24 @@
       <c r="P10" s="26"/>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="46" t="n">
         <v>44083</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" s="41"/>
       <c r="H11" s="31"/>
@@ -2721,30 +2711,30 @@
       <c r="P11" s="26"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="39" t="n">
         <v>42878</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I12" s="34" t="n">
         <v>0.143</v>
@@ -2768,30 +2758,30 @@
       <c r="P12" s="26"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="44" t="n">
         <v>44270</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I13" s="34" t="n">
         <v>0.143</v>
@@ -2820,25 +2810,25 @@
         <v>43928</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I14" s="34" t="n">
         <v>0.143</v>
@@ -2863,24 +2853,24 @@
       <c r="P14" s="26"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="46" t="n">
         <v>44202</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E15" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G15" s="41"/>
       <c r="H15" s="33"/>
@@ -2906,30 +2896,30 @@
       <c r="P15" s="26"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="39" t="n">
         <v>42244</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I16" s="34" t="n">
         <v>0.143</v>
@@ -2953,30 +2943,30 @@
       <c r="P16" s="26"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" s="27" customFormat="true" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="27" customFormat="true" ht="49.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="39" t="n">
         <v>42746</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C17" s="40" t="n">
         <v>9333</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I17" s="34" t="n">
         <v>0.143</v>
@@ -3002,30 +2992,30 @@
       <c r="P17" s="26"/>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="39" t="n">
         <v>43104</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I18" s="34" t="n">
         <v>0.143</v>
@@ -3051,30 +3041,30 @@
       <c r="P18" s="26"/>
       <c r="AMJ18" s="0"/>
     </row>
-    <row r="19" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="39" t="n">
         <v>43007</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I19" s="34" t="n">
         <v>0.143</v>
@@ -3100,30 +3090,30 @@
       <c r="P19" s="26"/>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="39" t="n">
         <v>42681</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I20" s="34" t="n">
         <v>0.143</v>
@@ -3149,30 +3139,30 @@
       <c r="P20" s="26"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="39" t="n">
         <v>41384</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I21" s="34" t="n">
         <v>0.143</v>
@@ -3195,30 +3185,30 @@
       <c r="P21" s="26"/>
       <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="39" t="n">
         <v>42143</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C22" s="40" t="n">
         <v>8955</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G22" s="41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I22" s="34" t="n">
         <v>0.143</v>
@@ -3244,30 +3234,30 @@
       <c r="P22" s="26"/>
       <c r="AMJ22" s="0"/>
     </row>
-    <row r="23" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="44" t="n">
         <v>44130</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G23" s="41" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I23" s="34" t="n">
         <v>0.143</v>
@@ -3292,30 +3282,30 @@
       <c r="P23" s="26"/>
       <c r="AMJ23" s="0"/>
     </row>
-    <row r="24" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="39" t="n">
         <v>42681</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G24" s="41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I24" s="34" t="n">
         <v>0.143</v>
@@ -3341,30 +3331,30 @@
       <c r="P24" s="26"/>
       <c r="AMJ24" s="0"/>
     </row>
-    <row r="25" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="39" t="n">
         <v>42522</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I25" s="34" t="n">
         <v>0.143</v>
@@ -3388,30 +3378,30 @@
       <c r="P25" s="26"/>
       <c r="AMJ25" s="0"/>
     </row>
-    <row r="26" s="27" customFormat="true" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="27" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="39" t="n">
         <v>43368</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G26" s="41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I26" s="34" t="n">
         <v>0.143</v>
@@ -3435,30 +3425,30 @@
       <c r="P26" s="26"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" s="27" customFormat="true" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="27" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="39" t="n">
         <v>43019</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I27" s="34" t="n">
         <v>0.143</v>
@@ -3482,30 +3472,30 @@
       <c r="P27" s="26"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" s="27" customFormat="true" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" s="27" customFormat="true" ht="49.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="39" t="n">
         <v>42746</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C28" s="40" t="n">
         <v>9333</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G28" s="41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I28" s="34" t="n">
         <v>0.143</v>
@@ -3531,30 +3521,30 @@
       <c r="P28" s="26"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" s="27" customFormat="true" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" s="27" customFormat="true" ht="49.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="39" t="n">
         <v>42216</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F29" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I29" s="34" t="n">
         <v>0.143</v>
@@ -3580,30 +3570,30 @@
       <c r="P29" s="26"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" s="27" customFormat="true" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="27" customFormat="true" ht="49.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="39" t="n">
         <v>42746</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C30" s="40" t="n">
         <v>9333</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F30" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H30" s="31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I30" s="34" t="n">
         <v>0.143</v>
@@ -3629,30 +3619,30 @@
       <c r="P30" s="26"/>
       <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" s="27" customFormat="true" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="27" customFormat="true" ht="49.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="39" t="n">
         <v>42746</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C31" s="40" t="n">
         <v>9333</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I31" s="34" t="n">
         <v>0.143</v>
@@ -3678,30 +3668,30 @@
       <c r="P31" s="26"/>
       <c r="AMJ31" s="0"/>
     </row>
-    <row r="32" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="28" t="n">
         <v>43928</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H32" s="33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I32" s="34" t="n">
         <v>0.143</v>
@@ -3725,30 +3715,30 @@
       <c r="P32" s="26"/>
       <c r="AMJ32" s="0"/>
     </row>
-    <row r="33" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="28" t="n">
         <v>43928</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H33" s="33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I33" s="34" t="n">
         <v>0.143</v>
@@ -3772,30 +3762,30 @@
       <c r="P33" s="26"/>
       <c r="AMJ33" s="0"/>
     </row>
-    <row r="34" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="39" t="n">
         <v>42014</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G34" s="41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H34" s="31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I34" s="34" t="n">
         <v>0.143</v>
@@ -3821,30 +3811,30 @@
       <c r="P34" s="26"/>
       <c r="AMJ34" s="0"/>
     </row>
-    <row r="35" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="39" t="n">
         <v>42457</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F35" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H35" s="31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I35" s="34" t="n">
         <v>0.143</v>
@@ -3870,30 +3860,30 @@
       <c r="P35" s="26"/>
       <c r="AMJ35" s="0"/>
     </row>
-    <row r="36" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="39" t="n">
         <v>42143</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C36" s="40" t="n">
         <v>8955</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H36" s="31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I36" s="34" t="n">
         <v>0.143</v>
@@ -3916,7 +3906,7 @@
       <c r="P36" s="26"/>
       <c r="AMJ36" s="0"/>
     </row>
-    <row r="37" s="59" customFormat="true" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" s="59" customFormat="true" ht="68.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="52" t="n">
         <v>44326</v>
       </c>
@@ -3924,22 +3914,22 @@
         <v>12565.22</v>
       </c>
       <c r="C37" s="54" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E37" s="56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F37" s="56" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G37" s="41" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H37" s="56" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I37" s="34" t="n">
         <v>0.143</v>
@@ -3963,30 +3953,30 @@
       <c r="P37" s="58"/>
       <c r="AMJ37" s="0"/>
     </row>
-    <row r="38" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="39" t="n">
         <v>41757</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F38" s="31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G38" s="41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H38" s="31" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I38" s="34" t="n">
         <v>0.143</v>
@@ -4007,30 +3997,30 @@
       <c r="P38" s="26"/>
       <c r="AMJ38" s="0"/>
     </row>
-    <row r="39" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="39" t="n">
         <v>42632</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F39" s="31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G39" s="41" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H39" s="31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I39" s="34" t="n">
         <v>0.143</v>
@@ -4061,25 +4051,25 @@
         <v>42878</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H40" s="31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I40" s="34" t="n">
         <v>0.143</v>
@@ -4105,24 +4095,24 @@
       <c r="P40" s="26"/>
       <c r="AMJ40" s="0"/>
     </row>
-    <row r="41" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="39" t="n">
         <v>44083</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F41" s="31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G41" s="41"/>
       <c r="H41" s="31"/>
@@ -4148,30 +4138,30 @@
       <c r="P41" s="26"/>
       <c r="AMJ41" s="0"/>
     </row>
-    <row r="42" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="39" t="n">
         <v>42879</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F42" s="31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G42" s="41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H42" s="31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I42" s="34" t="n">
         <v>0.143</v>
@@ -4197,30 +4187,30 @@
       <c r="P42" s="26"/>
       <c r="AMJ42" s="0"/>
     </row>
-    <row r="43" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="39" t="n">
         <v>43078</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F43" s="31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G43" s="41" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H43" s="31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I43" s="34" t="n">
         <v>0.143</v>
@@ -4248,28 +4238,28 @@
     </row>
     <row r="44" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F44" s="31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G44" s="41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H44" s="31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I44" s="34" t="n">
         <v>0.143</v>
@@ -4295,24 +4285,24 @@
       <c r="P44" s="26"/>
       <c r="AMJ44" s="0"/>
     </row>
-    <row r="45" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="46" t="n">
         <v>44234</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E45" s="48" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F45" s="31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G45" s="41"/>
       <c r="H45" s="31"/>
@@ -4338,30 +4328,30 @@
       <c r="P45" s="26"/>
       <c r="AMJ45" s="0"/>
     </row>
-    <row r="46" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="39" t="n">
         <v>43078</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F46" s="31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G46" s="41" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H46" s="31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I46" s="34" t="n">
         <v>0.143</v>
@@ -4387,30 +4377,30 @@
       <c r="P46" s="26"/>
       <c r="AMJ46" s="0"/>
     </row>
-    <row r="47" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="39" t="n">
         <v>42641</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F47" s="31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H47" s="31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I47" s="34" t="n">
         <v>0.143</v>
@@ -4434,30 +4424,30 @@
       <c r="P47" s="26"/>
       <c r="AMJ47" s="0"/>
     </row>
-    <row r="48" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="39" t="n">
         <v>43040</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F48" s="31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G48" s="41" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H48" s="31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I48" s="34" t="n">
         <v>0.143</v>
@@ -4483,30 +4473,30 @@
       <c r="P48" s="26"/>
       <c r="AMJ48" s="0"/>
     </row>
-    <row r="49" s="27" customFormat="true" ht="48.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" s="27" customFormat="true" ht="49.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="39" t="n">
         <v>42752</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C49" s="40" t="n">
         <v>9349</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F49" s="31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G49" s="41" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H49" s="31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I49" s="34" t="n">
         <v>0.143</v>
@@ -4532,30 +4522,30 @@
       <c r="P49" s="26"/>
       <c r="AMJ49" s="0"/>
     </row>
-    <row r="50" s="62" customFormat="true" ht="48.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" s="27" customFormat="true" ht="49.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="28" t="n">
         <v>43193</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C50" s="60" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D50" s="43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F50" s="31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G50" s="41" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H50" s="45" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I50" s="34" t="n">
         <v>0.143</v>
@@ -4579,30 +4569,30 @@
       <c r="P50" s="26"/>
       <c r="AMJ50" s="0"/>
     </row>
-    <row r="51" s="27" customFormat="true" ht="48.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" s="27" customFormat="true" ht="49.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="39" t="n">
         <v>42291</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F51" s="31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G51" s="41" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H51" s="31" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I51" s="34" t="n">
         <v>0.143</v>
@@ -4628,30 +4618,30 @@
       <c r="P51" s="26"/>
       <c r="AMJ51" s="0"/>
     </row>
-    <row r="52" s="27" customFormat="true" ht="48.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" s="27" customFormat="true" ht="49.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="39" t="n">
         <v>41181</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F52" s="31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G52" s="41" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H52" s="31" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I52" s="34" t="n">
         <v>0.143</v>
@@ -4677,30 +4667,30 @@
       <c r="P52" s="26"/>
       <c r="AMJ52" s="0"/>
     </row>
-    <row r="53" s="27" customFormat="true" ht="48.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" s="27" customFormat="true" ht="49.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="39" t="n">
         <v>42360</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F53" s="31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G53" s="41" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I53" s="34" t="n">
         <v>0.143</v>
@@ -4726,28 +4716,28 @@
     </row>
     <row r="54" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="28" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E54" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="F54" s="63" t="s">
         <v>244</v>
       </c>
+      <c r="F54" s="62" t="s">
+        <v>245</v>
+      </c>
       <c r="G54" s="32" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H54" s="33" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I54" s="34" t="n">
         <v>0.143</v>
@@ -4773,24 +4763,24 @@
       <c r="P54" s="26"/>
       <c r="AMJ54" s="0"/>
     </row>
-    <row r="55" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="46" t="n">
         <v>44202</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C55" s="47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D55" s="47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E55" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="F55" s="63" t="s">
-        <v>244</v>
+        <v>79</v>
+      </c>
+      <c r="F55" s="62" t="s">
+        <v>245</v>
       </c>
       <c r="G55" s="32"/>
       <c r="H55" s="33"/>
@@ -4816,24 +4806,24 @@
       <c r="P55" s="26"/>
       <c r="AMJ55" s="0"/>
     </row>
-    <row r="56" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="46" t="n">
         <v>44202</v>
       </c>
       <c r="B56" s="47" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C56" s="47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D56" s="47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E56" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="F56" s="63" t="s">
-        <v>244</v>
+        <v>79</v>
+      </c>
+      <c r="F56" s="62" t="s">
+        <v>245</v>
       </c>
       <c r="G56" s="32"/>
       <c r="H56" s="33"/>
@@ -4859,30 +4849,30 @@
       <c r="P56" s="26"/>
       <c r="AMJ56" s="0"/>
     </row>
-    <row r="57" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="39" t="n">
         <v>42457</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F57" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G57" s="41" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H57" s="31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I57" s="34" t="n">
         <v>0.143</v>
@@ -4908,30 +4898,30 @@
       <c r="P57" s="26"/>
       <c r="AMJ57" s="0"/>
     </row>
-    <row r="58" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="39" t="n">
         <v>42878</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F58" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G58" s="41" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H58" s="31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I58" s="34" t="n">
         <v>0.143</v>
@@ -4955,30 +4945,30 @@
       <c r="P58" s="26"/>
       <c r="AMJ58" s="0"/>
     </row>
-    <row r="59" s="27" customFormat="true" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" s="27" customFormat="true" ht="49.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="39" t="n">
         <v>42746</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C59" s="40" t="n">
         <v>9333</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F59" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G59" s="41" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H59" s="31" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I59" s="34" t="n">
         <v>0.143</v>
@@ -5009,25 +4999,25 @@
         <v>42681</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F60" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G60" s="41" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H60" s="31" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I60" s="34" t="n">
         <v>0.143</v>
@@ -5051,27 +5041,27 @@
       <c r="P60" s="26"/>
       <c r="AMJ60" s="0"/>
     </row>
-    <row r="61" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="46" t="n">
         <v>44202</v>
       </c>
       <c r="B61" s="47" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C61" s="47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D61" s="47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E61" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F61" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G61" s="41" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H61" s="31"/>
       <c r="I61" s="34" t="n">
@@ -5096,30 +5086,30 @@
       <c r="P61" s="26"/>
       <c r="AMJ61" s="0"/>
     </row>
-    <row r="62" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="39" t="n">
         <v>42964</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F62" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G62" s="41" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H62" s="31" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I62" s="34" t="n">
         <v>0.143</v>
@@ -5143,30 +5133,30 @@
       <c r="P62" s="26"/>
       <c r="AMJ62" s="0"/>
     </row>
-    <row r="63" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="39" t="n">
         <v>42952</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C63" s="40" t="n">
         <v>9418</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F63" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G63" s="41" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H63" s="31" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I63" s="34" t="n">
         <v>0.143</v>
@@ -5190,30 +5180,30 @@
       <c r="P63" s="26"/>
       <c r="AMJ63" s="0"/>
     </row>
-    <row r="64" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="39" t="n">
         <v>42149</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F64" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G64" s="41" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H64" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I64" s="34" t="n">
         <v>0.143</v>
@@ -5239,30 +5229,30 @@
       <c r="P64" s="26"/>
       <c r="AMJ64" s="0"/>
     </row>
-    <row r="65" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="64" t="n">
+    <row r="65" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="63" t="n">
         <v>40443</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F65" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G65" s="41" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H65" s="31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I65" s="34" t="n">
         <v>0.143</v>
@@ -5285,30 +5275,30 @@
       <c r="P65" s="26"/>
       <c r="AMJ65" s="0"/>
     </row>
-    <row r="66" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="39" t="n">
         <v>42632</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F66" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G66" s="41" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H66" s="31" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I66" s="34" t="n">
         <v>0.143</v>
@@ -5334,30 +5324,30 @@
       <c r="P66" s="26"/>
       <c r="AMJ66" s="0"/>
     </row>
-    <row r="67" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="39" t="n">
         <v>41367</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F67" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G67" s="41" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H67" s="31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I67" s="34" t="n">
         <v>0.143</v>
@@ -5380,30 +5370,30 @@
       <c r="P67" s="26"/>
       <c r="AMJ67" s="0"/>
     </row>
-    <row r="68" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="39" t="n">
         <v>42632</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F68" s="31" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G68" s="41" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H68" s="31" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I68" s="34" t="n">
         <v>0.143</v>
@@ -5427,30 +5417,30 @@
       <c r="P68" s="26"/>
       <c r="AMJ68" s="0"/>
     </row>
-    <row r="69" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="39" t="n">
         <v>42800</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F69" s="31" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G69" s="41" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H69" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I69" s="34" t="n">
         <v>0.143</v>
@@ -5474,30 +5464,30 @@
       <c r="P69" s="26"/>
       <c r="AMJ69" s="0"/>
     </row>
-    <row r="70" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="39" t="n">
         <v>42457</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F70" s="31" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G70" s="41" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H70" s="31" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I70" s="34" t="n">
         <v>0.143</v>
@@ -5523,30 +5513,30 @@
       <c r="P70" s="26"/>
       <c r="AMJ70" s="0"/>
     </row>
-    <row r="71" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="46" t="n">
         <v>44270</v>
       </c>
       <c r="B71" s="47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C71" s="47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D71" s="47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E71" s="45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F71" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="G71" s="65" t="s">
-        <v>300</v>
+        <v>298</v>
+      </c>
+      <c r="G71" s="64" t="s">
+        <v>301</v>
       </c>
       <c r="H71" s="48" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I71" s="34" t="n">
         <v>0.143</v>
@@ -5565,35 +5555,35 @@
         <f aca="false">J71-K71-L71</f>
         <v>29740.46733</v>
       </c>
-      <c r="N71" s="66"/>
+      <c r="N71" s="65"/>
       <c r="O71" s="26"/>
       <c r="P71" s="26"/>
       <c r="AMJ71" s="0"/>
     </row>
-    <row r="72" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="44" t="n">
         <v>44130</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E72" s="45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F72" s="31" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G72" s="41" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H72" s="45" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I72" s="34" t="n">
         <v>0.143</v>
@@ -5618,30 +5608,30 @@
       <c r="P72" s="26"/>
       <c r="AMJ72" s="0"/>
     </row>
-    <row r="73" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="39" t="n">
         <v>42964</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F73" s="31" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G73" s="41" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H73" s="31" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I73" s="34" t="n">
         <v>0.143</v>
@@ -5667,30 +5657,30 @@
       <c r="P73" s="26"/>
       <c r="AMJ73" s="0"/>
     </row>
-    <row r="74" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="46" t="n">
         <v>44272</v>
       </c>
       <c r="B74" s="47" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C74" s="47" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D74" s="47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E74" s="45" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F74" s="31" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G74" s="41" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H74" s="45" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I74" s="34" t="n">
         <v>0.143</v>
@@ -5714,30 +5704,30 @@
       <c r="P74" s="26"/>
       <c r="AMJ74" s="0"/>
     </row>
-    <row r="75" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="46" t="n">
         <v>44270</v>
       </c>
       <c r="B75" s="47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C75" s="47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D75" s="47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E75" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F75" s="67" t="s">
-        <v>311</v>
+        <v>50</v>
+      </c>
+      <c r="F75" s="66" t="s">
+        <v>312</v>
       </c>
       <c r="G75" s="49" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H75" s="48" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I75" s="34" t="n">
         <v>0.143</v>
@@ -5761,30 +5751,30 @@
       <c r="P75" s="26"/>
       <c r="AMJ75" s="0"/>
     </row>
-    <row r="76" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="46" t="n">
         <v>44130</v>
       </c>
       <c r="B76" s="47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C76" s="47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D76" s="47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E76" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="F76" s="67" t="s">
-        <v>311</v>
+        <v>116</v>
+      </c>
+      <c r="F76" s="66" t="s">
+        <v>312</v>
       </c>
       <c r="G76" s="49" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H76" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I76" s="34" t="n">
         <v>0.143</v>
@@ -5809,30 +5799,30 @@
       <c r="P76" s="26"/>
       <c r="AMJ76" s="0"/>
     </row>
-    <row r="77" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="44" t="n">
         <v>44130</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D77" s="29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E77" s="45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F77" s="31" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G77" s="41" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H77" s="45" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I77" s="34" t="n">
         <v>0.143</v>
@@ -5857,30 +5847,30 @@
       <c r="P77" s="26"/>
       <c r="AMJ77" s="0"/>
     </row>
-    <row r="78" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="44" t="n">
         <v>44270</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D78" s="29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E78" s="45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F78" s="31" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G78" s="41" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H78" s="45" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I78" s="34" t="n">
         <v>0.143</v>
@@ -5904,30 +5894,30 @@
       <c r="P78" s="26"/>
       <c r="AMJ78" s="0"/>
     </row>
-    <row r="79" s="62" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" s="27" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="28" t="n">
         <v>43165</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E79" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="F79" s="67" t="s">
         <v>324</v>
       </c>
+      <c r="F79" s="66" t="s">
+        <v>325</v>
+      </c>
       <c r="G79" s="41" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H79" s="31" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I79" s="34" t="n">
         <v>0.143</v>
@@ -5958,26 +5948,26 @@
         <v>43165</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D80" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E80" s="33" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F80" s="31" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G80" s="41" t="str">
         <f aca="false">G78</f>
         <v>Abebe Fulas</v>
       </c>
       <c r="H80" s="31" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I80" s="34" t="n">
         <v>0.143</v>
@@ -6003,30 +5993,30 @@
       <c r="P80" s="26"/>
       <c r="AMJ80" s="0"/>
     </row>
-    <row r="81" s="62" customFormat="true" ht="33.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="44" t="n">
         <v>43040</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E81" s="45" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F81" s="31" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G81" s="41" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H81" s="45" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I81" s="34" t="n">
         <v>0.143</v>
@@ -6052,30 +6042,30 @@
       <c r="P81" s="26"/>
       <c r="AMJ81" s="0"/>
     </row>
-    <row r="82" s="27" customFormat="true" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="68" t="n">
+    <row r="82" s="27" customFormat="true" ht="49.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="67" t="n">
         <v>42746</v>
       </c>
-      <c r="B82" s="69" t="s">
-        <v>330</v>
-      </c>
-      <c r="C82" s="69" t="n">
+      <c r="B82" s="68" t="s">
+        <v>331</v>
+      </c>
+      <c r="C82" s="68" t="n">
         <v>9333</v>
       </c>
-      <c r="D82" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="E82" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="F82" s="70" t="s">
-        <v>331</v>
-      </c>
-      <c r="G82" s="65" t="s">
+      <c r="D82" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="F82" s="69" t="s">
         <v>332</v>
       </c>
-      <c r="H82" s="70" t="s">
+      <c r="G82" s="64" t="s">
         <v>333</v>
+      </c>
+      <c r="H82" s="69" t="s">
+        <v>334</v>
       </c>
       <c r="I82" s="34" t="n">
         <v>0.143</v>
@@ -6096,35 +6086,35 @@
         <f aca="false">J82-K82-L82</f>
         <v>3544.02548142857</v>
       </c>
-      <c r="N82" s="66"/>
+      <c r="N82" s="65"/>
       <c r="O82" s="26"/>
       <c r="P82" s="26"/>
       <c r="AMJ82" s="0"/>
     </row>
-    <row r="83" s="27" customFormat="true" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" s="27" customFormat="true" ht="49.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="39" t="n">
         <v>42746</v>
       </c>
       <c r="B83" s="40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C83" s="40" t="n">
         <v>9333</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F83" s="31" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G83" s="41" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H83" s="31" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I83" s="34" t="n">
         <v>0.143</v>
@@ -6150,30 +6140,30 @@
       <c r="P83" s="26"/>
       <c r="AMJ83" s="0"/>
     </row>
-    <row r="84" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="39" t="n">
         <v>42964</v>
       </c>
       <c r="B84" s="40" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F84" s="31" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G84" s="41" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H84" s="31" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I84" s="34" t="n">
         <v>0.143</v>
@@ -6199,31 +6189,31 @@
       <c r="P84" s="26"/>
       <c r="AMJ84" s="0"/>
     </row>
-    <row r="85" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="71" t="n">
+    <row r="85" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="70" t="n">
         <v>42830</v>
       </c>
       <c r="B85" s="40" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F85" s="31" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G85" s="41" t="str">
         <f aca="false">G84</f>
         <v>Wondoson Tilahun</v>
       </c>
       <c r="H85" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I85" s="34" t="n">
         <v>0.143</v>
@@ -6247,30 +6237,30 @@
       <c r="P85" s="26"/>
       <c r="AMJ85" s="0"/>
     </row>
-    <row r="86" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="39" t="n">
         <v>42929</v>
       </c>
       <c r="B86" s="40" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F86" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G86" s="41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H86" s="31" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I86" s="34" t="n">
         <v>0.143</v>
@@ -6294,30 +6284,30 @@
       <c r="P86" s="26"/>
       <c r="AMJ86" s="0"/>
     </row>
-    <row r="87" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="39" t="n">
         <v>42244</v>
       </c>
       <c r="B87" s="40" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F87" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G87" s="41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H87" s="31" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I87" s="34" t="n">
         <v>0.143</v>
@@ -6341,30 +6331,30 @@
       <c r="P87" s="26"/>
       <c r="AMJ87" s="0"/>
     </row>
-    <row r="88" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="39" t="n">
         <v>42244</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D88" s="40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F88" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G88" s="41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H88" s="31" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I88" s="34" t="n">
         <v>0.143</v>
@@ -6393,25 +6383,25 @@
         <v>43048</v>
       </c>
       <c r="B89" s="40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C89" s="40" t="n">
         <v>10235</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F89" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G89" s="41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H89" s="31" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I89" s="34" t="n">
         <v>0.143</v>
@@ -6435,30 +6425,30 @@
       <c r="P89" s="26"/>
       <c r="AMJ89" s="0"/>
     </row>
-    <row r="90" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="39" t="n">
         <v>42674</v>
       </c>
       <c r="B90" s="40" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F90" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G90" s="41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H90" s="31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I90" s="34" t="n">
         <v>0.143</v>
@@ -6484,30 +6474,30 @@
       <c r="P90" s="26"/>
       <c r="AMJ90" s="0"/>
     </row>
-    <row r="91" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="39" t="n">
         <v>42656</v>
       </c>
       <c r="B91" s="40" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D91" s="40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F91" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G91" s="41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H91" s="31" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I91" s="34" t="n">
         <v>0.143</v>
@@ -6533,30 +6523,30 @@
       <c r="P91" s="26"/>
       <c r="AMJ91" s="0"/>
     </row>
-    <row r="92" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="39" t="n">
         <v>42244</v>
       </c>
       <c r="B92" s="40" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D92" s="40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F92" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G92" s="41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H92" s="31" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I92" s="34" t="n">
         <v>0.143</v>
@@ -6580,28 +6570,28 @@
       <c r="P92" s="26"/>
       <c r="AMJ92" s="0"/>
     </row>
-    <row r="93" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="39" t="n">
         <v>42831</v>
       </c>
       <c r="B93" s="40" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C93" s="40"/>
       <c r="D93" s="40" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F93" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G93" s="41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H93" s="31" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I93" s="34" t="n">
         <v>0.143</v>
@@ -6625,30 +6615,30 @@
       <c r="P93" s="26"/>
       <c r="AMJ93" s="0"/>
     </row>
-    <row r="94" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="39" t="n">
         <v>43019</v>
       </c>
       <c r="B94" s="40" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C94" s="40" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F94" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G94" s="41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H94" s="31" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I94" s="34" t="n">
         <v>0.143</v>
@@ -6672,30 +6662,30 @@
       <c r="P94" s="26"/>
       <c r="AMJ94" s="0"/>
     </row>
-    <row r="95" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="39" t="n">
         <v>42879</v>
       </c>
       <c r="B95" s="40" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C95" s="40" t="n">
         <v>362</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F95" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G95" s="41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H95" s="31" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I95" s="34" t="n">
         <v>0.143</v>
@@ -6724,25 +6714,25 @@
         <v>43165</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D96" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E96" s="33" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F96" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G96" s="41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H96" s="31" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I96" s="34" t="n">
         <v>0.143</v>
@@ -6768,30 +6758,30 @@
       <c r="P96" s="26"/>
       <c r="AMJ96" s="0"/>
     </row>
-    <row r="97" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="39" t="n">
         <v>42632</v>
       </c>
       <c r="B97" s="40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D97" s="40" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F97" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H97" s="31" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I97" s="34" t="n">
         <v>0.143</v>
@@ -6817,30 +6807,30 @@
       <c r="P97" s="26"/>
       <c r="AMJ97" s="0"/>
     </row>
-    <row r="98" s="62" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" s="27" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="44" t="n">
         <v>40690</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D98" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E98" s="45" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F98" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G98" s="41" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H98" s="45" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I98" s="34" t="n">
         <v>0.143</v>
@@ -6861,1881 +6851,1881 @@
       <c r="P98" s="26"/>
       <c r="AMJ98" s="0"/>
     </row>
-    <row r="99" s="62" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="72" t="n">
+    <row r="99" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="71" t="n">
         <v>44418</v>
       </c>
       <c r="B99" s="47" t="s">
-        <v>378</v>
-      </c>
-      <c r="C99" s="73" t="s">
         <v>379</v>
       </c>
-      <c r="D99" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="E99" s="75" t="s">
+      <c r="C99" s="72" t="s">
         <v>380</v>
       </c>
-      <c r="F99" s="67" t="s">
-        <v>244</v>
+      <c r="D99" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="E99" s="74" t="s">
+        <v>381</v>
+      </c>
+      <c r="F99" s="66" t="s">
+        <v>245</v>
       </c>
       <c r="G99" s="49" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H99" s="48" t="s">
-        <v>381</v>
-      </c>
-      <c r="I99" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J99" s="77" t="n">
+        <v>382</v>
+      </c>
+      <c r="I99" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J99" s="76" t="n">
         <v>14956.52</v>
       </c>
       <c r="K99" s="36" t="e">
         <f aca="false">#REF!*I99*J99</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L99" s="77"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L99" s="76"/>
       <c r="M99" s="37" t="e">
         <f aca="false">J99-K99-L99</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N99" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N99" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O99" s="26"/>
       <c r="P99" s="26"/>
       <c r="AMJ99" s="0"/>
     </row>
-    <row r="100" s="62" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="72" t="n">
+    <row r="100" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="71" t="n">
         <v>44425</v>
       </c>
       <c r="B100" s="47" t="s">
-        <v>383</v>
-      </c>
-      <c r="C100" s="73" t="s">
         <v>384</v>
       </c>
-      <c r="D100" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="E100" s="75" t="s">
+      <c r="C100" s="72" t="s">
         <v>385</v>
       </c>
-      <c r="F100" s="67" t="s">
-        <v>171</v>
+      <c r="D100" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="E100" s="74" t="s">
+        <v>386</v>
+      </c>
+      <c r="F100" s="66" t="s">
+        <v>172</v>
       </c>
       <c r="G100" s="49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H100" s="48" t="s">
-        <v>386</v>
-      </c>
-      <c r="I100" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J100" s="77" t="n">
+        <v>387</v>
+      </c>
+      <c r="I100" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J100" s="76" t="n">
         <v>35217.39</v>
       </c>
       <c r="K100" s="36" t="e">
         <f aca="false">#REF!*I100*J100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L100" s="77"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L100" s="76"/>
       <c r="M100" s="37" t="e">
         <f aca="false">J100-K100-L100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N100" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N100" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O100" s="26"/>
       <c r="P100" s="26"/>
       <c r="AMJ100" s="0"/>
     </row>
-    <row r="101" s="62" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="72" t="n">
+    <row r="101" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="71" t="n">
         <v>44425</v>
       </c>
       <c r="B101" s="47" t="s">
-        <v>383</v>
-      </c>
-      <c r="C101" s="73" t="s">
         <v>384</v>
       </c>
-      <c r="D101" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="E101" s="75" t="s">
+      <c r="C101" s="72" t="s">
         <v>385</v>
       </c>
-      <c r="F101" s="67" t="s">
-        <v>171</v>
+      <c r="D101" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="E101" s="74" t="s">
+        <v>386</v>
+      </c>
+      <c r="F101" s="66" t="s">
+        <v>172</v>
       </c>
       <c r="G101" s="49" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H101" s="48" t="s">
-        <v>388</v>
-      </c>
-      <c r="I101" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J101" s="77" t="n">
+        <v>389</v>
+      </c>
+      <c r="I101" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J101" s="76" t="n">
         <v>35217.39</v>
       </c>
       <c r="K101" s="36" t="e">
         <f aca="false">#REF!*I101*J101</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L101" s="77"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L101" s="76"/>
       <c r="M101" s="37" t="e">
         <f aca="false">J101-K101-L101</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N101" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N101" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O101" s="26"/>
       <c r="P101" s="26"/>
       <c r="AMJ101" s="0"/>
     </row>
-    <row r="102" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="79" t="n">
+    <row r="102" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="78" t="n">
         <v>44483</v>
       </c>
-      <c r="B102" s="80" t="s">
-        <v>389</v>
-      </c>
-      <c r="C102" s="80" t="s">
+      <c r="B102" s="79" t="s">
         <v>390</v>
       </c>
-      <c r="D102" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="E102" s="67" t="s">
+      <c r="C102" s="79" t="s">
         <v>391</v>
       </c>
-      <c r="F102" s="67" t="s">
-        <v>171</v>
+      <c r="D102" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="E102" s="66" t="s">
+        <v>392</v>
+      </c>
+      <c r="F102" s="66" t="s">
+        <v>172</v>
       </c>
       <c r="G102" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="H102" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="I102" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J102" s="81" t="n">
+      <c r="H102" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="I102" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J102" s="80" t="n">
         <v>6869.56</v>
       </c>
       <c r="K102" s="36" t="e">
         <f aca="false">#REF!*I102*J102</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L102" s="37"/>
       <c r="M102" s="37" t="e">
         <f aca="false">J102-K102-L102</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N102" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N102" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O102" s="26"/>
       <c r="P102" s="26"/>
       <c r="AMJ102" s="0"/>
     </row>
-    <row r="103" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="79" t="n">
+    <row r="103" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="78" t="n">
         <v>44624</v>
       </c>
-      <c r="B103" s="80" t="s">
-        <v>392</v>
-      </c>
-      <c r="C103" s="80" t="s">
+      <c r="B103" s="79" t="s">
         <v>393</v>
       </c>
-      <c r="D103" s="74" t="s">
+      <c r="C103" s="79" t="s">
         <v>394</v>
       </c>
-      <c r="E103" s="67" t="s">
+      <c r="D103" s="73" t="s">
         <v>395</v>
       </c>
-      <c r="F103" s="67"/>
+      <c r="E103" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="F103" s="66"/>
       <c r="G103" s="49"/>
-      <c r="H103" s="67"/>
-      <c r="I103" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J103" s="81" t="n">
+      <c r="H103" s="66"/>
+      <c r="I103" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J103" s="80" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
       <c r="K103" s="36" t="e">
         <f aca="false">#REF!*I103*J103</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L103" s="36"/>
       <c r="M103" s="37" t="e">
         <f aca="false">J103-K103-L103</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N103" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N103" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O103" s="26"/>
       <c r="P103" s="26"/>
       <c r="AMJ103" s="0"/>
     </row>
-    <row r="104" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="79" t="n">
+    <row r="104" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="78" t="n">
         <v>44624</v>
       </c>
-      <c r="B104" s="80" t="s">
-        <v>392</v>
-      </c>
-      <c r="C104" s="80" t="s">
+      <c r="B104" s="79" t="s">
         <v>393</v>
       </c>
-      <c r="D104" s="74" t="s">
+      <c r="C104" s="79" t="s">
         <v>394</v>
       </c>
-      <c r="E104" s="67" t="s">
+      <c r="D104" s="73" t="s">
         <v>395</v>
       </c>
-      <c r="F104" s="67"/>
+      <c r="E104" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="F104" s="66"/>
       <c r="G104" s="49"/>
-      <c r="H104" s="67"/>
-      <c r="I104" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J104" s="81" t="n">
+      <c r="H104" s="66"/>
+      <c r="I104" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J104" s="80" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
       <c r="K104" s="36" t="e">
         <f aca="false">#REF!*I104*J104</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L104" s="36"/>
       <c r="M104" s="37" t="e">
         <f aca="false">J104-K104-L104</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N104" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N104" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O104" s="26"/>
       <c r="P104" s="26"/>
       <c r="AMJ104" s="0"/>
     </row>
-    <row r="105" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="79" t="n">
+    <row r="105" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="78" t="n">
         <v>44624</v>
       </c>
-      <c r="B105" s="80" t="s">
-        <v>392</v>
-      </c>
-      <c r="C105" s="80" t="s">
+      <c r="B105" s="79" t="s">
         <v>393</v>
       </c>
-      <c r="D105" s="74" t="s">
+      <c r="C105" s="79" t="s">
         <v>394</v>
       </c>
-      <c r="E105" s="67" t="s">
+      <c r="D105" s="73" t="s">
         <v>395</v>
       </c>
-      <c r="F105" s="67"/>
+      <c r="E105" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="F105" s="66"/>
       <c r="G105" s="49"/>
-      <c r="H105" s="67"/>
-      <c r="I105" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J105" s="81" t="n">
+      <c r="H105" s="66"/>
+      <c r="I105" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J105" s="80" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
       <c r="K105" s="36" t="e">
         <f aca="false">#REF!*I105*J105</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L105" s="36"/>
       <c r="M105" s="37" t="e">
         <f aca="false">J105-K105-L105</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N105" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N105" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O105" s="26"/>
       <c r="P105" s="26"/>
       <c r="AMJ105" s="0"/>
     </row>
-    <row r="106" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="79" t="n">
+    <row r="106" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="78" t="n">
         <v>44624</v>
       </c>
-      <c r="B106" s="80" t="s">
-        <v>392</v>
-      </c>
-      <c r="C106" s="80" t="s">
+      <c r="B106" s="79" t="s">
         <v>393</v>
       </c>
-      <c r="D106" s="74" t="s">
+      <c r="C106" s="79" t="s">
         <v>394</v>
       </c>
-      <c r="E106" s="67" t="s">
+      <c r="D106" s="73" t="s">
         <v>395</v>
       </c>
-      <c r="F106" s="67"/>
+      <c r="E106" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="F106" s="66"/>
       <c r="G106" s="49"/>
-      <c r="H106" s="67"/>
-      <c r="I106" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J106" s="81" t="n">
+      <c r="H106" s="66"/>
+      <c r="I106" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J106" s="80" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
       <c r="K106" s="36" t="e">
         <f aca="false">#REF!*I106*J106</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L106" s="36"/>
       <c r="M106" s="37" t="e">
         <f aca="false">J106-K106-L106</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N106" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N106" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O106" s="26"/>
       <c r="P106" s="26"/>
       <c r="AMJ106" s="0"/>
     </row>
-    <row r="107" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="79" t="n">
+    <row r="107" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="78" t="n">
         <v>44624</v>
       </c>
-      <c r="B107" s="80" t="s">
-        <v>392</v>
-      </c>
-      <c r="C107" s="80" t="s">
+      <c r="B107" s="79" t="s">
         <v>393</v>
       </c>
-      <c r="D107" s="74" t="s">
+      <c r="C107" s="79" t="s">
         <v>394</v>
       </c>
-      <c r="E107" s="67" t="s">
+      <c r="D107" s="73" t="s">
         <v>395</v>
       </c>
-      <c r="F107" s="67"/>
+      <c r="E107" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="F107" s="66"/>
       <c r="G107" s="49"/>
-      <c r="H107" s="67"/>
-      <c r="I107" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J107" s="81" t="n">
+      <c r="H107" s="66"/>
+      <c r="I107" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J107" s="80" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
       <c r="K107" s="36" t="e">
         <f aca="false">#REF!*I107*J107</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L107" s="36"/>
       <c r="M107" s="37" t="e">
         <f aca="false">J107-K107-L107</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N107" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N107" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O107" s="26"/>
       <c r="P107" s="26"/>
       <c r="AMJ107" s="0"/>
     </row>
-    <row r="108" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="79" t="n">
+    <row r="108" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="78" t="n">
         <v>44624</v>
       </c>
-      <c r="B108" s="80" t="s">
-        <v>392</v>
-      </c>
-      <c r="C108" s="80" t="s">
+      <c r="B108" s="79" t="s">
         <v>393</v>
       </c>
-      <c r="D108" s="74" t="s">
+      <c r="C108" s="79" t="s">
         <v>394</v>
       </c>
-      <c r="E108" s="67" t="s">
+      <c r="D108" s="73" t="s">
         <v>395</v>
       </c>
-      <c r="F108" s="67"/>
+      <c r="E108" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="F108" s="66"/>
       <c r="G108" s="49"/>
-      <c r="H108" s="67"/>
-      <c r="I108" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J108" s="81" t="n">
+      <c r="H108" s="66"/>
+      <c r="I108" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J108" s="80" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
       <c r="K108" s="36" t="e">
         <f aca="false">#REF!*I108*J108</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L108" s="36"/>
       <c r="M108" s="37" t="e">
         <f aca="false">J108-K108-L108</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N108" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N108" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O108" s="26"/>
       <c r="P108" s="26"/>
       <c r="AMJ108" s="0"/>
     </row>
-    <row r="109" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="79" t="n">
+    <row r="109" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="78" t="n">
         <v>44624</v>
       </c>
-      <c r="B109" s="80" t="s">
-        <v>392</v>
-      </c>
-      <c r="C109" s="80" t="s">
+      <c r="B109" s="79" t="s">
         <v>393</v>
       </c>
-      <c r="D109" s="74" t="s">
+      <c r="C109" s="79" t="s">
         <v>394</v>
       </c>
-      <c r="E109" s="67" t="s">
+      <c r="D109" s="73" t="s">
         <v>395</v>
       </c>
-      <c r="F109" s="67"/>
+      <c r="E109" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="F109" s="66"/>
       <c r="G109" s="49"/>
-      <c r="H109" s="67"/>
-      <c r="I109" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J109" s="81" t="n">
+      <c r="H109" s="66"/>
+      <c r="I109" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J109" s="80" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
       <c r="K109" s="36" t="e">
         <f aca="false">#REF!*I109*J109</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L109" s="36"/>
       <c r="M109" s="37" t="e">
         <f aca="false">J109-K109-L109</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N109" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N109" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O109" s="26"/>
       <c r="P109" s="26"/>
       <c r="AMJ109" s="0"/>
     </row>
-    <row r="110" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="79" t="n">
+    <row r="110" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="78" t="n">
         <v>44624</v>
       </c>
-      <c r="B110" s="80" t="s">
-        <v>392</v>
-      </c>
-      <c r="C110" s="80" t="s">
+      <c r="B110" s="79" t="s">
         <v>393</v>
       </c>
-      <c r="D110" s="74" t="s">
+      <c r="C110" s="79" t="s">
         <v>394</v>
       </c>
-      <c r="E110" s="67" t="s">
+      <c r="D110" s="73" t="s">
         <v>395</v>
       </c>
-      <c r="F110" s="67"/>
+      <c r="E110" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="F110" s="66"/>
       <c r="G110" s="49"/>
-      <c r="H110" s="67"/>
-      <c r="I110" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J110" s="81" t="n">
+      <c r="H110" s="66"/>
+      <c r="I110" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J110" s="80" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
       <c r="K110" s="36" t="e">
         <f aca="false">#REF!*I110*J110</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L110" s="36"/>
       <c r="M110" s="37" t="e">
         <f aca="false">J110-K110-L110</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N110" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N110" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O110" s="26"/>
       <c r="P110" s="26"/>
       <c r="AMJ110" s="0"/>
     </row>
-    <row r="111" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="79" t="n">
+    <row r="111" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="78" t="n">
         <v>44624</v>
       </c>
-      <c r="B111" s="80" t="s">
-        <v>392</v>
-      </c>
-      <c r="C111" s="80" t="s">
+      <c r="B111" s="79" t="s">
         <v>393</v>
       </c>
-      <c r="D111" s="74" t="s">
+      <c r="C111" s="79" t="s">
         <v>394</v>
       </c>
-      <c r="E111" s="67" t="s">
+      <c r="D111" s="73" t="s">
         <v>395</v>
       </c>
-      <c r="F111" s="67"/>
+      <c r="E111" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="F111" s="66"/>
       <c r="G111" s="49"/>
-      <c r="H111" s="67"/>
-      <c r="I111" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J111" s="81" t="n">
+      <c r="H111" s="66"/>
+      <c r="I111" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J111" s="80" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
       <c r="K111" s="36" t="e">
         <f aca="false">#REF!*I111*J111</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L111" s="36"/>
       <c r="M111" s="37" t="e">
         <f aca="false">J111-K111-L111</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N111" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N111" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O111" s="26"/>
       <c r="P111" s="26"/>
       <c r="AMJ111" s="0"/>
     </row>
-    <row r="112" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="79" t="n">
+    <row r="112" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="78" t="n">
         <v>44624</v>
       </c>
-      <c r="B112" s="80" t="s">
-        <v>392</v>
-      </c>
-      <c r="C112" s="80" t="s">
+      <c r="B112" s="79" t="s">
         <v>393</v>
       </c>
-      <c r="D112" s="74" t="s">
+      <c r="C112" s="79" t="s">
         <v>394</v>
       </c>
-      <c r="E112" s="67" t="s">
+      <c r="D112" s="73" t="s">
         <v>395</v>
       </c>
-      <c r="F112" s="67"/>
+      <c r="E112" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="F112" s="66"/>
       <c r="G112" s="49"/>
-      <c r="H112" s="67"/>
-      <c r="I112" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J112" s="81" t="n">
+      <c r="H112" s="66"/>
+      <c r="I112" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J112" s="80" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
       <c r="K112" s="36" t="e">
         <f aca="false">#REF!*I112*J112</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L112" s="36"/>
       <c r="M112" s="37" t="e">
         <f aca="false">J112-K112-L112</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N112" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N112" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O112" s="26"/>
       <c r="P112" s="26"/>
       <c r="AMJ112" s="0"/>
     </row>
-    <row r="113" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="79" t="n">
+    <row r="113" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="78" t="n">
         <v>44624</v>
       </c>
-      <c r="B113" s="80" t="s">
+      <c r="B113" s="79" t="s">
+        <v>397</v>
+      </c>
+      <c r="C113" s="79" t="s">
+        <v>394</v>
+      </c>
+      <c r="D113" s="73" t="s">
+        <v>395</v>
+      </c>
+      <c r="E113" s="66" t="s">
         <v>396</v>
       </c>
-      <c r="C113" s="80" t="s">
-        <v>393</v>
-      </c>
-      <c r="D113" s="74" t="s">
-        <v>394</v>
-      </c>
-      <c r="E113" s="67" t="s">
-        <v>395</v>
-      </c>
-      <c r="F113" s="67"/>
+      <c r="F113" s="66"/>
       <c r="G113" s="49"/>
-      <c r="H113" s="67"/>
-      <c r="I113" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J113" s="81" t="n">
+      <c r="H113" s="66"/>
+      <c r="I113" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J113" s="80" t="n">
         <f aca="false">8500</f>
         <v>8500</v>
       </c>
       <c r="K113" s="36" t="e">
         <f aca="false">#REF!*I113*J113</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L113" s="36"/>
       <c r="M113" s="37" t="e">
         <f aca="false">J113-K113-L113</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N113" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N113" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O113" s="26"/>
       <c r="P113" s="26"/>
       <c r="AMJ113" s="0"/>
     </row>
-    <row r="114" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="79" t="n">
+    <row r="114" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="78" t="n">
         <v>44624</v>
       </c>
-      <c r="B114" s="80" t="s">
+      <c r="B114" s="79" t="s">
+        <v>397</v>
+      </c>
+      <c r="C114" s="79" t="s">
+        <v>394</v>
+      </c>
+      <c r="D114" s="73" t="s">
+        <v>395</v>
+      </c>
+      <c r="E114" s="66" t="s">
         <v>396</v>
       </c>
-      <c r="C114" s="80" t="s">
-        <v>393</v>
-      </c>
-      <c r="D114" s="74" t="s">
-        <v>394</v>
-      </c>
-      <c r="E114" s="67" t="s">
-        <v>395</v>
-      </c>
-      <c r="F114" s="67"/>
+      <c r="F114" s="66"/>
       <c r="G114" s="49"/>
-      <c r="H114" s="67"/>
-      <c r="I114" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J114" s="81" t="n">
+      <c r="H114" s="66"/>
+      <c r="I114" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J114" s="80" t="n">
         <f aca="false">8500</f>
         <v>8500</v>
       </c>
       <c r="K114" s="36" t="e">
         <f aca="false">#REF!*I114*J114</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L114" s="36"/>
       <c r="M114" s="37" t="e">
         <f aca="false">J114-K114-L114</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N114" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N114" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O114" s="26"/>
       <c r="P114" s="26"/>
       <c r="AMJ114" s="0"/>
     </row>
-    <row r="115" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="79" t="n">
+    <row r="115" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="78" t="n">
         <v>44624</v>
       </c>
-      <c r="B115" s="80" t="s">
+      <c r="B115" s="79" t="s">
+        <v>397</v>
+      </c>
+      <c r="C115" s="79" t="s">
+        <v>394</v>
+      </c>
+      <c r="D115" s="73" t="s">
+        <v>395</v>
+      </c>
+      <c r="E115" s="66" t="s">
         <v>396</v>
       </c>
-      <c r="C115" s="80" t="s">
-        <v>393</v>
-      </c>
-      <c r="D115" s="74" t="s">
-        <v>394</v>
-      </c>
-      <c r="E115" s="67" t="s">
-        <v>395</v>
-      </c>
-      <c r="F115" s="67"/>
+      <c r="F115" s="66"/>
       <c r="G115" s="49"/>
-      <c r="H115" s="67"/>
-      <c r="I115" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J115" s="81" t="n">
+      <c r="H115" s="66"/>
+      <c r="I115" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J115" s="80" t="n">
         <f aca="false">8500</f>
         <v>8500</v>
       </c>
       <c r="K115" s="36" t="e">
         <f aca="false">#REF!*I115*J115</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L115" s="36"/>
       <c r="M115" s="37" t="e">
         <f aca="false">J115-K115-L115</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N115" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N115" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O115" s="26"/>
       <c r="P115" s="26"/>
       <c r="AMJ115" s="0"/>
     </row>
-    <row r="116" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="79" t="n">
+    <row r="116" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="78" t="n">
         <v>44624</v>
       </c>
-      <c r="B116" s="80" t="s">
-        <v>397</v>
-      </c>
-      <c r="C116" s="80" t="s">
-        <v>393</v>
-      </c>
-      <c r="D116" s="74" t="s">
+      <c r="B116" s="79" t="s">
+        <v>398</v>
+      </c>
+      <c r="C116" s="79" t="s">
         <v>394</v>
       </c>
-      <c r="E116" s="67" t="s">
+      <c r="D116" s="73" t="s">
         <v>395</v>
       </c>
-      <c r="F116" s="67"/>
+      <c r="E116" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="F116" s="66"/>
       <c r="G116" s="49"/>
-      <c r="H116" s="67"/>
-      <c r="I116" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J116" s="81" t="n">
+      <c r="H116" s="66"/>
+      <c r="I116" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J116" s="80" t="n">
         <f aca="false">16000</f>
         <v>16000</v>
       </c>
       <c r="K116" s="36" t="e">
         <f aca="false">#REF!*I116*J116</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L116" s="36"/>
       <c r="M116" s="37" t="e">
         <f aca="false">J116-K116-L116</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N116" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N116" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O116" s="26"/>
       <c r="P116" s="26"/>
       <c r="AMJ116" s="0"/>
     </row>
-    <row r="117" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="79" t="n">
+    <row r="117" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="78" t="n">
         <v>44624</v>
       </c>
-      <c r="B117" s="80" t="s">
-        <v>397</v>
-      </c>
-      <c r="C117" s="80" t="s">
-        <v>393</v>
-      </c>
-      <c r="D117" s="74" t="s">
+      <c r="B117" s="79" t="s">
+        <v>398</v>
+      </c>
+      <c r="C117" s="79" t="s">
         <v>394</v>
       </c>
-      <c r="E117" s="67" t="s">
+      <c r="D117" s="73" t="s">
         <v>395</v>
       </c>
-      <c r="F117" s="67"/>
+      <c r="E117" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="F117" s="66"/>
       <c r="G117" s="49"/>
-      <c r="H117" s="67"/>
-      <c r="I117" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J117" s="81" t="n">
+      <c r="H117" s="66"/>
+      <c r="I117" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J117" s="80" t="n">
         <f aca="false">16000</f>
         <v>16000</v>
       </c>
       <c r="K117" s="36" t="e">
         <f aca="false">#REF!*I117*J117</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L117" s="36"/>
       <c r="M117" s="37" t="e">
         <f aca="false">J117-K117-L117</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N117" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N117" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O117" s="26"/>
       <c r="P117" s="26"/>
       <c r="AMJ117" s="0"/>
     </row>
-    <row r="118" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="79" t="n">
+    <row r="118" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="78" t="n">
         <v>44624</v>
       </c>
-      <c r="B118" s="80" t="s">
-        <v>398</v>
-      </c>
-      <c r="C118" s="80" t="s">
-        <v>393</v>
-      </c>
-      <c r="D118" s="74" t="s">
+      <c r="B118" s="79" t="s">
+        <v>399</v>
+      </c>
+      <c r="C118" s="79" t="s">
         <v>394</v>
       </c>
-      <c r="E118" s="67" t="s">
+      <c r="D118" s="73" t="s">
         <v>395</v>
       </c>
-      <c r="F118" s="67"/>
+      <c r="E118" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="F118" s="66"/>
       <c r="G118" s="49"/>
-      <c r="H118" s="67"/>
-      <c r="I118" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J118" s="81" t="n">
+      <c r="H118" s="66"/>
+      <c r="I118" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J118" s="80" t="n">
         <f aca="false">12000</f>
         <v>12000</v>
       </c>
       <c r="K118" s="36" t="e">
         <f aca="false">#REF!*I118*J118</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L118" s="36"/>
       <c r="M118" s="37" t="e">
         <f aca="false">J118-K118-L118</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N118" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N118" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O118" s="26"/>
       <c r="P118" s="26"/>
       <c r="AMJ118" s="0"/>
     </row>
-    <row r="119" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="79" t="n">
+    <row r="119" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="78" t="n">
         <v>44624</v>
       </c>
-      <c r="B119" s="80" t="s">
-        <v>398</v>
-      </c>
-      <c r="C119" s="80" t="s">
-        <v>393</v>
-      </c>
-      <c r="D119" s="74" t="s">
+      <c r="B119" s="79" t="s">
+        <v>399</v>
+      </c>
+      <c r="C119" s="79" t="s">
         <v>394</v>
       </c>
-      <c r="E119" s="67" t="s">
+      <c r="D119" s="73" t="s">
         <v>395</v>
       </c>
-      <c r="F119" s="67"/>
+      <c r="E119" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="F119" s="66"/>
       <c r="G119" s="49"/>
-      <c r="H119" s="67"/>
-      <c r="I119" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J119" s="81" t="n">
+      <c r="H119" s="66"/>
+      <c r="I119" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J119" s="80" t="n">
         <f aca="false">12000</f>
         <v>12000</v>
       </c>
       <c r="K119" s="36" t="e">
         <f aca="false">#REF!*I119*J119</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L119" s="36"/>
       <c r="M119" s="37" t="e">
         <f aca="false">J119-K119-L119</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N119" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N119" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O119" s="26"/>
       <c r="P119" s="26"/>
       <c r="AMJ119" s="0"/>
     </row>
-    <row r="120" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="79" t="n">
+    <row r="120" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="78" t="n">
         <v>44624</v>
       </c>
-      <c r="B120" s="80" t="s">
-        <v>399</v>
-      </c>
-      <c r="C120" s="80" t="s">
-        <v>393</v>
-      </c>
-      <c r="D120" s="74" t="s">
+      <c r="B120" s="79" t="s">
+        <v>400</v>
+      </c>
+      <c r="C120" s="79" t="s">
         <v>394</v>
       </c>
-      <c r="E120" s="67" t="s">
+      <c r="D120" s="73" t="s">
         <v>395</v>
       </c>
-      <c r="F120" s="67"/>
+      <c r="E120" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="F120" s="66"/>
       <c r="G120" s="49"/>
-      <c r="H120" s="67"/>
-      <c r="I120" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J120" s="81" t="n">
+      <c r="H120" s="66"/>
+      <c r="I120" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J120" s="80" t="n">
         <f aca="false">31304.35</f>
         <v>31304.35</v>
       </c>
       <c r="K120" s="36" t="e">
         <f aca="false">#REF!*I120*J120</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L120" s="36"/>
       <c r="M120" s="37" t="e">
         <f aca="false">J120-K120-L120</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N120" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N120" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O120" s="26"/>
       <c r="P120" s="26"/>
       <c r="AMJ120" s="0"/>
     </row>
-    <row r="121" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="79" t="n">
+    <row r="121" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="78" t="n">
         <v>44624</v>
       </c>
-      <c r="B121" s="80" t="s">
-        <v>399</v>
-      </c>
-      <c r="C121" s="80" t="s">
-        <v>393</v>
-      </c>
-      <c r="D121" s="74" t="s">
+      <c r="B121" s="79" t="s">
+        <v>400</v>
+      </c>
+      <c r="C121" s="79" t="s">
         <v>394</v>
       </c>
-      <c r="E121" s="67" t="s">
+      <c r="D121" s="73" t="s">
         <v>395</v>
       </c>
-      <c r="F121" s="67"/>
+      <c r="E121" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="F121" s="66"/>
       <c r="G121" s="49"/>
-      <c r="H121" s="67"/>
-      <c r="I121" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J121" s="81" t="n">
+      <c r="H121" s="66"/>
+      <c r="I121" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J121" s="80" t="n">
         <f aca="false">31304.35</f>
         <v>31304.35</v>
       </c>
       <c r="K121" s="36" t="e">
         <f aca="false">#REF!*I121*J121</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L121" s="36"/>
       <c r="M121" s="37" t="e">
         <f aca="false">J121-K121-L121</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N121" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N121" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O121" s="26"/>
       <c r="P121" s="26"/>
       <c r="AMJ121" s="0"/>
     </row>
-    <row r="122" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="79" t="n">
+    <row r="122" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="78" t="n">
         <v>44649</v>
       </c>
-      <c r="B122" s="80" t="s">
-        <v>400</v>
-      </c>
-      <c r="C122" s="80" t="s">
+      <c r="B122" s="79" t="s">
         <v>401</v>
       </c>
-      <c r="D122" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="E122" s="67" t="s">
+      <c r="C122" s="79" t="s">
         <v>402</v>
       </c>
-      <c r="F122" s="67"/>
+      <c r="D122" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E122" s="66" t="s">
+        <v>403</v>
+      </c>
+      <c r="F122" s="66"/>
       <c r="G122" s="49"/>
-      <c r="H122" s="67"/>
-      <c r="I122" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J122" s="81" t="n">
+      <c r="H122" s="66"/>
+      <c r="I122" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J122" s="80" t="n">
         <v>16500</v>
       </c>
       <c r="K122" s="36" t="e">
         <f aca="false">#REF!*I122*J122</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L122" s="36"/>
       <c r="M122" s="37" t="e">
         <f aca="false">J122-K122-L122</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N122" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N122" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O122" s="26"/>
       <c r="P122" s="26"/>
       <c r="AMJ122" s="0"/>
     </row>
-    <row r="123" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="79" t="n">
+    <row r="123" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="78" t="n">
         <v>44649</v>
       </c>
-      <c r="B123" s="80" t="s">
-        <v>400</v>
-      </c>
-      <c r="C123" s="80" t="s">
+      <c r="B123" s="79" t="s">
         <v>401</v>
       </c>
-      <c r="D123" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="E123" s="67" t="s">
+      <c r="C123" s="79" t="s">
         <v>402</v>
       </c>
-      <c r="F123" s="67"/>
+      <c r="D123" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E123" s="66" t="s">
+        <v>403</v>
+      </c>
+      <c r="F123" s="66"/>
       <c r="G123" s="49"/>
-      <c r="H123" s="67"/>
-      <c r="I123" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J123" s="81" t="n">
+      <c r="H123" s="66"/>
+      <c r="I123" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J123" s="80" t="n">
         <v>16500</v>
       </c>
       <c r="K123" s="36" t="e">
         <f aca="false">#REF!*I123*J123</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L123" s="36"/>
       <c r="M123" s="37" t="e">
         <f aca="false">J123-K123-L123</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N123" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N123" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O123" s="26"/>
       <c r="P123" s="26"/>
       <c r="AMJ123" s="0"/>
     </row>
-    <row r="124" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="79" t="n">
+    <row r="124" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="78" t="n">
         <v>44649</v>
       </c>
-      <c r="B124" s="80" t="s">
-        <v>400</v>
-      </c>
-      <c r="C124" s="80" t="s">
+      <c r="B124" s="79" t="s">
         <v>401</v>
       </c>
-      <c r="D124" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="E124" s="67" t="s">
+      <c r="C124" s="79" t="s">
         <v>402</v>
       </c>
-      <c r="F124" s="67"/>
+      <c r="D124" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E124" s="66" t="s">
+        <v>403</v>
+      </c>
+      <c r="F124" s="66"/>
       <c r="G124" s="49"/>
-      <c r="H124" s="67"/>
-      <c r="I124" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J124" s="81" t="n">
+      <c r="H124" s="66"/>
+      <c r="I124" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J124" s="80" t="n">
         <v>16500</v>
       </c>
       <c r="K124" s="36" t="e">
         <f aca="false">#REF!*I124*J124</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L124" s="36"/>
       <c r="M124" s="37" t="e">
         <f aca="false">J124-K124-L124</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N124" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N124" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O124" s="26"/>
       <c r="P124" s="26"/>
       <c r="AMJ124" s="0"/>
     </row>
-    <row r="125" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="79" t="n">
+    <row r="125" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="78" t="n">
         <v>44649</v>
       </c>
-      <c r="B125" s="80" t="s">
-        <v>400</v>
-      </c>
-      <c r="C125" s="80" t="s">
+      <c r="B125" s="79" t="s">
         <v>401</v>
       </c>
-      <c r="D125" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="E125" s="67" t="s">
+      <c r="C125" s="79" t="s">
         <v>402</v>
       </c>
-      <c r="F125" s="67"/>
+      <c r="D125" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E125" s="66" t="s">
+        <v>403</v>
+      </c>
+      <c r="F125" s="66"/>
       <c r="G125" s="49"/>
-      <c r="H125" s="67"/>
-      <c r="I125" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J125" s="81" t="n">
+      <c r="H125" s="66"/>
+      <c r="I125" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J125" s="80" t="n">
         <v>16500</v>
       </c>
       <c r="K125" s="36" t="e">
         <f aca="false">#REF!*I125*J125</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L125" s="36"/>
       <c r="M125" s="37" t="e">
         <f aca="false">J125-K125-L125</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N125" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N125" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O125" s="26"/>
       <c r="P125" s="26"/>
       <c r="AMJ125" s="0"/>
     </row>
-    <row r="126" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="79" t="n">
+    <row r="126" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="78" t="n">
         <v>44649</v>
       </c>
-      <c r="B126" s="80" t="s">
-        <v>400</v>
-      </c>
-      <c r="C126" s="80" t="s">
+      <c r="B126" s="79" t="s">
         <v>401</v>
       </c>
-      <c r="D126" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="E126" s="67" t="s">
+      <c r="C126" s="79" t="s">
         <v>402</v>
       </c>
-      <c r="F126" s="67"/>
+      <c r="D126" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E126" s="66" t="s">
+        <v>403</v>
+      </c>
+      <c r="F126" s="66"/>
       <c r="G126" s="49"/>
-      <c r="H126" s="67"/>
-      <c r="I126" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J126" s="81" t="n">
+      <c r="H126" s="66"/>
+      <c r="I126" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J126" s="80" t="n">
         <v>16500</v>
       </c>
       <c r="K126" s="36" t="e">
         <f aca="false">#REF!*I126*J126</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L126" s="36"/>
       <c r="M126" s="37" t="e">
         <f aca="false">J126-K126-L126</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N126" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N126" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O126" s="26"/>
       <c r="P126" s="26"/>
       <c r="AMJ126" s="0"/>
     </row>
-    <row r="127" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="79" t="n">
+    <row r="127" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="78" t="n">
         <v>44649</v>
       </c>
-      <c r="B127" s="80" t="s">
-        <v>400</v>
-      </c>
-      <c r="C127" s="80" t="s">
+      <c r="B127" s="79" t="s">
         <v>401</v>
       </c>
-      <c r="D127" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="E127" s="67" t="s">
+      <c r="C127" s="79" t="s">
         <v>402</v>
       </c>
-      <c r="F127" s="67"/>
+      <c r="D127" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E127" s="66" t="s">
+        <v>403</v>
+      </c>
+      <c r="F127" s="66"/>
       <c r="G127" s="49"/>
-      <c r="H127" s="67"/>
-      <c r="I127" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J127" s="81" t="n">
+      <c r="H127" s="66"/>
+      <c r="I127" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J127" s="80" t="n">
         <v>16500</v>
       </c>
       <c r="K127" s="36" t="e">
         <f aca="false">#REF!*I127*J127</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L127" s="36"/>
       <c r="M127" s="37" t="e">
         <f aca="false">J127-K127-L127</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N127" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N127" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O127" s="26"/>
       <c r="P127" s="26"/>
       <c r="AMJ127" s="0"/>
     </row>
-    <row r="128" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="79" t="n">
+    <row r="128" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="78" t="n">
         <v>44649</v>
       </c>
-      <c r="B128" s="80" t="s">
-        <v>400</v>
-      </c>
-      <c r="C128" s="80" t="s">
+      <c r="B128" s="79" t="s">
         <v>401</v>
       </c>
-      <c r="D128" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="E128" s="67" t="s">
+      <c r="C128" s="79" t="s">
         <v>402</v>
       </c>
-      <c r="F128" s="67"/>
+      <c r="D128" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E128" s="66" t="s">
+        <v>403</v>
+      </c>
+      <c r="F128" s="66"/>
       <c r="G128" s="49"/>
-      <c r="H128" s="67"/>
-      <c r="I128" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J128" s="81" t="n">
+      <c r="H128" s="66"/>
+      <c r="I128" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J128" s="80" t="n">
         <v>16500</v>
       </c>
       <c r="K128" s="36" t="e">
         <f aca="false">#REF!*I128*J128</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L128" s="36"/>
       <c r="M128" s="37" t="e">
         <f aca="false">J128-K128-L128</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N128" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N128" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O128" s="26"/>
       <c r="P128" s="26"/>
       <c r="AMJ128" s="0"/>
     </row>
-    <row r="129" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="79" t="n">
+    <row r="129" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="78" t="n">
         <v>44649</v>
       </c>
-      <c r="B129" s="80" t="s">
-        <v>400</v>
-      </c>
-      <c r="C129" s="80" t="s">
+      <c r="B129" s="79" t="s">
         <v>401</v>
       </c>
-      <c r="D129" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="E129" s="67" t="s">
+      <c r="C129" s="79" t="s">
         <v>402</v>
       </c>
-      <c r="F129" s="67"/>
+      <c r="D129" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E129" s="66" t="s">
+        <v>403</v>
+      </c>
+      <c r="F129" s="66"/>
       <c r="G129" s="49"/>
-      <c r="H129" s="67"/>
-      <c r="I129" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J129" s="81" t="n">
+      <c r="H129" s="66"/>
+      <c r="I129" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J129" s="80" t="n">
         <v>16500</v>
       </c>
       <c r="K129" s="36" t="e">
         <f aca="false">#REF!*I129*J129</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L129" s="36"/>
       <c r="M129" s="37" t="e">
         <f aca="false">J129-K129-L129</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N129" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N129" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O129" s="26"/>
       <c r="P129" s="26"/>
       <c r="AMJ129" s="0"/>
     </row>
-    <row r="130" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="79" t="n">
+    <row r="130" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="78" t="n">
         <v>44649</v>
       </c>
-      <c r="B130" s="80" t="s">
-        <v>400</v>
-      </c>
-      <c r="C130" s="80" t="s">
+      <c r="B130" s="79" t="s">
         <v>401</v>
       </c>
-      <c r="D130" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="E130" s="67" t="s">
+      <c r="C130" s="79" t="s">
         <v>402</v>
       </c>
-      <c r="F130" s="67"/>
+      <c r="D130" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E130" s="66" t="s">
+        <v>403</v>
+      </c>
+      <c r="F130" s="66"/>
       <c r="G130" s="49"/>
-      <c r="H130" s="67"/>
-      <c r="I130" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J130" s="81" t="n">
+      <c r="H130" s="66"/>
+      <c r="I130" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J130" s="80" t="n">
         <v>16500</v>
       </c>
       <c r="K130" s="36" t="e">
         <f aca="false">#REF!*I130*J130</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L130" s="36"/>
       <c r="M130" s="37" t="e">
         <f aca="false">J130-K130-L130</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N130" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N130" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O130" s="26"/>
       <c r="P130" s="26"/>
       <c r="AMJ130" s="0"/>
     </row>
-    <row r="131" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="79" t="n">
+    <row r="131" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="78" t="n">
         <v>44649</v>
       </c>
-      <c r="B131" s="80" t="s">
-        <v>400</v>
-      </c>
-      <c r="C131" s="80" t="s">
+      <c r="B131" s="79" t="s">
         <v>401</v>
       </c>
-      <c r="D131" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="E131" s="67" t="s">
+      <c r="C131" s="79" t="s">
         <v>402</v>
       </c>
-      <c r="F131" s="67"/>
+      <c r="D131" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E131" s="66" t="s">
+        <v>403</v>
+      </c>
+      <c r="F131" s="66"/>
       <c r="G131" s="49"/>
-      <c r="H131" s="67"/>
-      <c r="I131" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J131" s="81" t="n">
+      <c r="H131" s="66"/>
+      <c r="I131" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J131" s="80" t="n">
         <v>16500</v>
       </c>
       <c r="K131" s="36" t="e">
         <f aca="false">#REF!*I131*J131</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L131" s="36"/>
       <c r="M131" s="37" t="e">
         <f aca="false">J131-K131-L131</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N131" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N131" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O131" s="26"/>
       <c r="P131" s="26"/>
       <c r="AMJ131" s="0"/>
     </row>
-    <row r="132" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="79" t="n">
+    <row r="132" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="78" t="n">
         <v>44649</v>
       </c>
-      <c r="B132" s="80" t="s">
-        <v>400</v>
-      </c>
-      <c r="C132" s="80" t="s">
+      <c r="B132" s="79" t="s">
         <v>401</v>
       </c>
-      <c r="D132" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="E132" s="67" t="s">
+      <c r="C132" s="79" t="s">
         <v>402</v>
       </c>
-      <c r="F132" s="67"/>
+      <c r="D132" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E132" s="66" t="s">
+        <v>403</v>
+      </c>
+      <c r="F132" s="66"/>
       <c r="G132" s="49"/>
-      <c r="H132" s="67"/>
-      <c r="I132" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J132" s="81" t="n">
+      <c r="H132" s="66"/>
+      <c r="I132" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J132" s="80" t="n">
         <v>16500</v>
       </c>
       <c r="K132" s="36" t="e">
         <f aca="false">#REF!*I132*J132</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L132" s="36"/>
       <c r="M132" s="37" t="e">
         <f aca="false">J132-K132-L132</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N132" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N132" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O132" s="26"/>
       <c r="P132" s="26"/>
       <c r="AMJ132" s="0"/>
     </row>
-    <row r="133" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="79" t="n">
+    <row r="133" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="78" t="n">
         <v>44649</v>
       </c>
-      <c r="B133" s="80" t="s">
+      <c r="B133" s="79" t="s">
+        <v>404</v>
+      </c>
+      <c r="C133" s="79" t="s">
+        <v>402</v>
+      </c>
+      <c r="D133" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E133" s="66" t="s">
         <v>403</v>
       </c>
-      <c r="C133" s="80" t="s">
-        <v>401</v>
-      </c>
-      <c r="D133" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="E133" s="67" t="s">
-        <v>402</v>
-      </c>
-      <c r="F133" s="67"/>
+      <c r="F133" s="66"/>
       <c r="G133" s="49"/>
-      <c r="H133" s="67"/>
-      <c r="I133" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J133" s="81" t="n">
+      <c r="H133" s="66"/>
+      <c r="I133" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J133" s="80" t="n">
         <f aca="false">13000</f>
         <v>13000</v>
       </c>
       <c r="K133" s="36" t="e">
         <f aca="false">#REF!*I133*J133</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L133" s="36"/>
       <c r="M133" s="37" t="e">
         <f aca="false">J133-K133-L133</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N133" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N133" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O133" s="26"/>
       <c r="P133" s="26"/>
       <c r="AMJ133" s="0"/>
     </row>
-    <row r="134" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="79" t="n">
+    <row r="134" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="78" t="n">
         <v>44649</v>
       </c>
-      <c r="B134" s="80" t="s">
+      <c r="B134" s="79" t="s">
+        <v>404</v>
+      </c>
+      <c r="C134" s="79" t="s">
+        <v>402</v>
+      </c>
+      <c r="D134" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E134" s="66" t="s">
         <v>403</v>
       </c>
-      <c r="C134" s="80" t="s">
-        <v>401</v>
-      </c>
-      <c r="D134" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="E134" s="67" t="s">
-        <v>402</v>
-      </c>
-      <c r="F134" s="67"/>
+      <c r="F134" s="66"/>
       <c r="G134" s="49"/>
-      <c r="H134" s="67"/>
-      <c r="I134" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J134" s="81" t="n">
+      <c r="H134" s="66"/>
+      <c r="I134" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J134" s="80" t="n">
         <f aca="false">13000</f>
         <v>13000</v>
       </c>
       <c r="K134" s="36" t="e">
         <f aca="false">#REF!*I134*J134</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L134" s="36"/>
       <c r="M134" s="37" t="e">
         <f aca="false">J134-K134-L134</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N134" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N134" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O134" s="26"/>
       <c r="P134" s="26"/>
       <c r="AMJ134" s="0"/>
     </row>
-    <row r="135" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="79" t="n">
+    <row r="135" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="78" t="n">
         <v>44649</v>
       </c>
-      <c r="B135" s="80" t="s">
+      <c r="B135" s="79" t="s">
+        <v>404</v>
+      </c>
+      <c r="C135" s="79" t="s">
+        <v>402</v>
+      </c>
+      <c r="D135" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E135" s="66" t="s">
         <v>403</v>
       </c>
-      <c r="C135" s="80" t="s">
-        <v>401</v>
-      </c>
-      <c r="D135" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="E135" s="67" t="s">
-        <v>402</v>
-      </c>
-      <c r="F135" s="67"/>
+      <c r="F135" s="66"/>
       <c r="G135" s="49"/>
-      <c r="H135" s="67"/>
-      <c r="I135" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J135" s="81" t="n">
+      <c r="H135" s="66"/>
+      <c r="I135" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J135" s="80" t="n">
         <f aca="false">13000</f>
         <v>13000</v>
       </c>
       <c r="K135" s="36" t="e">
         <f aca="false">#REF!*I135*J135</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L135" s="36"/>
       <c r="M135" s="37" t="e">
         <f aca="false">J135-K135-L135</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N135" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N135" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O135" s="26"/>
       <c r="P135" s="26"/>
       <c r="AMJ135" s="0"/>
     </row>
-    <row r="136" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="79" t="n">
+    <row r="136" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="78" t="n">
         <v>44649</v>
       </c>
-      <c r="B136" s="80" t="s">
+      <c r="B136" s="79" t="s">
+        <v>404</v>
+      </c>
+      <c r="C136" s="79" t="s">
+        <v>402</v>
+      </c>
+      <c r="D136" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E136" s="66" t="s">
         <v>403</v>
       </c>
-      <c r="C136" s="80" t="s">
-        <v>401</v>
-      </c>
-      <c r="D136" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="E136" s="67" t="s">
-        <v>402</v>
-      </c>
-      <c r="F136" s="67"/>
+      <c r="F136" s="66"/>
       <c r="G136" s="49"/>
-      <c r="H136" s="67"/>
-      <c r="I136" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J136" s="81" t="n">
+      <c r="H136" s="66"/>
+      <c r="I136" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J136" s="80" t="n">
         <f aca="false">13000</f>
         <v>13000</v>
       </c>
       <c r="K136" s="36" t="e">
         <f aca="false">#REF!*I136*J136</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L136" s="36"/>
       <c r="M136" s="37" t="e">
         <f aca="false">J136-K136-L136</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N136" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N136" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O136" s="26"/>
       <c r="P136" s="26"/>
       <c r="AMJ136" s="0"/>
     </row>
-    <row r="137" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="79" t="n">
+    <row r="137" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="78" t="n">
         <v>44649</v>
       </c>
-      <c r="B137" s="80" t="s">
-        <v>396</v>
-      </c>
-      <c r="C137" s="80" t="s">
-        <v>401</v>
-      </c>
-      <c r="D137" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="E137" s="67" t="s">
+      <c r="B137" s="79" t="s">
+        <v>397</v>
+      </c>
+      <c r="C137" s="79" t="s">
         <v>402</v>
       </c>
-      <c r="F137" s="67"/>
+      <c r="D137" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E137" s="66" t="s">
+        <v>403</v>
+      </c>
+      <c r="F137" s="66"/>
       <c r="G137" s="49"/>
-      <c r="H137" s="67"/>
-      <c r="I137" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J137" s="81" t="n">
+      <c r="H137" s="66"/>
+      <c r="I137" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J137" s="80" t="n">
         <f aca="false">8500</f>
         <v>8500</v>
       </c>
       <c r="K137" s="36" t="e">
         <f aca="false">#REF!*I137*J137</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L137" s="36"/>
       <c r="M137" s="37" t="e">
         <f aca="false">J137-K137-L137</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N137" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N137" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O137" s="26"/>
       <c r="P137" s="26"/>
       <c r="AMJ137" s="0"/>
     </row>
-    <row r="138" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="79" t="n">
+    <row r="138" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="78" t="n">
         <v>44649</v>
       </c>
-      <c r="B138" s="80" t="s">
-        <v>396</v>
-      </c>
-      <c r="C138" s="80" t="s">
-        <v>401</v>
-      </c>
-      <c r="D138" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="E138" s="67" t="s">
+      <c r="B138" s="79" t="s">
+        <v>397</v>
+      </c>
+      <c r="C138" s="79" t="s">
         <v>402</v>
       </c>
-      <c r="F138" s="67"/>
+      <c r="D138" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E138" s="66" t="s">
+        <v>403</v>
+      </c>
+      <c r="F138" s="66"/>
       <c r="G138" s="49"/>
-      <c r="H138" s="67"/>
-      <c r="I138" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J138" s="81" t="n">
+      <c r="H138" s="66"/>
+      <c r="I138" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J138" s="80" t="n">
         <f aca="false">8500</f>
         <v>8500</v>
       </c>
       <c r="K138" s="36" t="e">
         <f aca="false">#REF!*I138*J138</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L138" s="36"/>
       <c r="M138" s="37" t="e">
         <f aca="false">J138-K138-L138</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N138" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N138" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O138" s="26"/>
       <c r="P138" s="26"/>
       <c r="AMJ138" s="0"/>
     </row>
-    <row r="139" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="79" t="n">
+    <row r="139" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="78" t="n">
         <v>44649</v>
       </c>
-      <c r="B139" s="80" t="s">
-        <v>396</v>
-      </c>
-      <c r="C139" s="80" t="s">
-        <v>401</v>
-      </c>
-      <c r="D139" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="E139" s="67" t="s">
+      <c r="B139" s="79" t="s">
+        <v>397</v>
+      </c>
+      <c r="C139" s="79" t="s">
         <v>402</v>
       </c>
-      <c r="F139" s="67"/>
+      <c r="D139" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E139" s="66" t="s">
+        <v>403</v>
+      </c>
+      <c r="F139" s="66"/>
       <c r="G139" s="49"/>
-      <c r="H139" s="67"/>
-      <c r="I139" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J139" s="81" t="n">
+      <c r="H139" s="66"/>
+      <c r="I139" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J139" s="80" t="n">
         <f aca="false">8500</f>
         <v>8500</v>
       </c>
       <c r="K139" s="36" t="e">
         <f aca="false">#REF!*I139*J139</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L139" s="36"/>
       <c r="M139" s="37" t="e">
         <f aca="false">J139-K139-L139</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N139" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N139" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O139" s="26"/>
       <c r="P139" s="26"/>
       <c r="AMJ139" s="0"/>
     </row>
-    <row r="140" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="79" t="n">
+    <row r="140" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="78" t="n">
         <v>44649</v>
       </c>
-      <c r="B140" s="80" t="s">
-        <v>404</v>
-      </c>
-      <c r="C140" s="80" t="s">
-        <v>401</v>
-      </c>
-      <c r="D140" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="E140" s="67" t="s">
+      <c r="B140" s="79" t="s">
+        <v>405</v>
+      </c>
+      <c r="C140" s="79" t="s">
         <v>402</v>
       </c>
-      <c r="F140" s="67"/>
+      <c r="D140" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E140" s="66" t="s">
+        <v>403</v>
+      </c>
+      <c r="F140" s="66"/>
       <c r="G140" s="49"/>
-      <c r="H140" s="67"/>
-      <c r="I140" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J140" s="81" t="n">
+      <c r="H140" s="66"/>
+      <c r="I140" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J140" s="80" t="n">
         <v>8000</v>
       </c>
       <c r="K140" s="36" t="e">
         <f aca="false">#REF!*I140*J140</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L140" s="36"/>
       <c r="M140" s="37" t="e">
         <f aca="false">J140-K140-L140</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N140" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N140" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O140" s="26"/>
       <c r="P140" s="26"/>
       <c r="AMJ140" s="0"/>
     </row>
-    <row r="141" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="79" t="n">
+    <row r="141" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="78" t="n">
         <v>44649</v>
       </c>
-      <c r="B141" s="80" t="s">
-        <v>405</v>
-      </c>
-      <c r="C141" s="80" t="s">
-        <v>401</v>
-      </c>
-      <c r="D141" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="E141" s="67" t="s">
+      <c r="B141" s="79" t="s">
+        <v>406</v>
+      </c>
+      <c r="C141" s="79" t="s">
         <v>402</v>
       </c>
-      <c r="F141" s="67"/>
+      <c r="D141" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E141" s="66" t="s">
+        <v>403</v>
+      </c>
+      <c r="F141" s="66"/>
       <c r="G141" s="49"/>
-      <c r="H141" s="67"/>
-      <c r="I141" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J141" s="81" t="n">
+      <c r="H141" s="66"/>
+      <c r="I141" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J141" s="80" t="n">
         <f aca="false">8000</f>
         <v>8000</v>
       </c>
       <c r="K141" s="36" t="e">
         <f aca="false">#REF!*I141*J141</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L141" s="36"/>
       <c r="M141" s="37" t="e">
         <f aca="false">J141-K141-L141</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N141" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N141" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O141" s="26"/>
       <c r="P141" s="26"/>
       <c r="AMJ141" s="0"/>
     </row>
-    <row r="142" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="79" t="n">
+    <row r="142" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="78" t="n">
         <v>44649</v>
       </c>
-      <c r="B142" s="80" t="s">
-        <v>406</v>
-      </c>
-      <c r="C142" s="80" t="s">
-        <v>401</v>
-      </c>
-      <c r="D142" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="E142" s="67" t="s">
+      <c r="B142" s="79" t="s">
+        <v>407</v>
+      </c>
+      <c r="C142" s="79" t="s">
         <v>402</v>
       </c>
-      <c r="F142" s="67"/>
+      <c r="D142" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E142" s="66" t="s">
+        <v>403</v>
+      </c>
+      <c r="F142" s="66"/>
       <c r="G142" s="49"/>
-      <c r="H142" s="67"/>
-      <c r="I142" s="76" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J142" s="81" t="n">
+      <c r="H142" s="66"/>
+      <c r="I142" s="75" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J142" s="80" t="n">
         <v>7000</v>
       </c>
       <c r="K142" s="36" t="e">
         <f aca="false">#REF!*I142*J142</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L142" s="36"/>
       <c r="M142" s="37" t="e">
         <f aca="false">J142-K142-L142</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N142" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N142" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O142" s="26"/>
       <c r="P142" s="26"/>
       <c r="AMJ142" s="0"/>
     </row>
-    <row r="143" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="79" t="n">
+    <row r="143" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="78" t="n">
         <v>44649</v>
       </c>
-      <c r="B143" s="80" t="s">
-        <v>399</v>
-      </c>
-      <c r="C143" s="80" t="s">
-        <v>401</v>
-      </c>
-      <c r="D143" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="E143" s="67" t="s">
+      <c r="B143" s="79" t="s">
+        <v>400</v>
+      </c>
+      <c r="C143" s="79" t="s">
         <v>402</v>
       </c>
-      <c r="F143" s="67"/>
+      <c r="D143" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E143" s="66" t="s">
+        <v>403</v>
+      </c>
+      <c r="F143" s="66"/>
       <c r="G143" s="49"/>
-      <c r="H143" s="67"/>
-      <c r="I143" s="76" t="n">
+      <c r="H143" s="66"/>
+      <c r="I143" s="75" t="n">
         <v>0.143</v>
       </c>
       <c r="J143" s="37" t="n">
@@ -8744,40 +8734,40 @@
       </c>
       <c r="K143" s="36" t="e">
         <f aca="false">#REF!*I143*J143</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L143" s="36"/>
       <c r="M143" s="37" t="e">
         <f aca="false">J143-K143-L143</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N143" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N143" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O143" s="26"/>
       <c r="P143" s="26"/>
       <c r="AMJ143" s="0"/>
     </row>
-    <row r="144" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="79" t="n">
+    <row r="144" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="78" t="n">
         <v>44649</v>
       </c>
-      <c r="B144" s="80" t="s">
-        <v>399</v>
-      </c>
-      <c r="C144" s="80" t="s">
-        <v>401</v>
-      </c>
-      <c r="D144" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="E144" s="67" t="s">
+      <c r="B144" s="79" t="s">
+        <v>400</v>
+      </c>
+      <c r="C144" s="79" t="s">
         <v>402</v>
       </c>
-      <c r="F144" s="67"/>
+      <c r="D144" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E144" s="66" t="s">
+        <v>403</v>
+      </c>
+      <c r="F144" s="66"/>
       <c r="G144" s="49"/>
-      <c r="H144" s="67"/>
-      <c r="I144" s="76" t="n">
+      <c r="H144" s="66"/>
+      <c r="I144" s="75" t="n">
         <v>0.143</v>
       </c>
       <c r="J144" s="37" t="n">
@@ -8786,44 +8776,44 @@
       </c>
       <c r="K144" s="36" t="e">
         <f aca="false">#REF!*I144*J144</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="L144" s="36"/>
       <c r="M144" s="37" t="e">
         <f aca="false">J144-K144-L144</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N144" s="78" t="s">
-        <v>382</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N144" s="77" t="s">
+        <v>383</v>
       </c>
       <c r="O144" s="26"/>
       <c r="P144" s="26"/>
       <c r="AMJ144" s="0"/>
     </row>
-    <row r="145" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="39" t="n">
         <v>42637</v>
       </c>
       <c r="B145" s="40" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C145" s="40" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D145" s="40" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E145" s="31" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F145" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G145" s="41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H145" s="31" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I145" s="34" t="n">
         <v>0.143</v>
@@ -8842,37 +8832,37 @@
         <f aca="false">J145-K145-L145</f>
         <v>1098.68031</v>
       </c>
-      <c r="N145" s="82" t="s">
-        <v>412</v>
+      <c r="N145" s="81" t="s">
+        <v>413</v>
       </c>
       <c r="O145" s="26"/>
       <c r="P145" s="26"/>
       <c r="AMJ145" s="0"/>
     </row>
-    <row r="146" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="39" t="n">
         <v>40493</v>
       </c>
       <c r="B146" s="40" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C146" s="40" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D146" s="40" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E146" s="31" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F146" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G146" s="41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H146" s="31" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I146" s="34" t="n">
         <v>0.143</v>
@@ -8888,8 +8878,8 @@
         <f aca="false">J146-K146-L146</f>
         <v>10</v>
       </c>
-      <c r="N146" s="82" t="s">
-        <v>412</v>
+      <c r="N146" s="81" t="s">
+        <v>413</v>
       </c>
       <c r="O146" s="26"/>
       <c r="P146" s="26"/>
@@ -8900,25 +8890,25 @@
         <v>42821</v>
       </c>
       <c r="B147" s="40" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C147" s="40" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D147" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E147" s="31" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F147" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G147" s="41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H147" s="31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I147" s="34" t="n">
         <v>0.143</v>
@@ -8937,8 +8927,8 @@
         <f aca="false">J147-K147-L147</f>
         <v>895.09112</v>
       </c>
-      <c r="N147" s="82" t="s">
-        <v>412</v>
+      <c r="N147" s="81" t="s">
+        <v>413</v>
       </c>
       <c r="O147" s="26"/>
       <c r="P147" s="26"/>
@@ -8949,25 +8939,25 @@
         <v>40690</v>
       </c>
       <c r="B148" s="40" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C148" s="40" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D148" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E148" s="31" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F148" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G148" s="41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H148" s="31" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I148" s="34" t="n">
         <v>0.143</v>
@@ -8985,8 +8975,8 @@
         <f aca="false">J148-K148-L148</f>
         <v>10</v>
       </c>
-      <c r="N148" s="82" t="s">
-        <v>412</v>
+      <c r="N148" s="81" t="s">
+        <v>413</v>
       </c>
       <c r="O148" s="26"/>
       <c r="P148" s="26"/>
@@ -8997,25 +8987,25 @@
         <v>41167</v>
       </c>
       <c r="B149" s="40" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C149" s="40" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D149" s="40" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E149" s="31" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F149" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G149" s="41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H149" s="31" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I149" s="34" t="n">
         <v>0.143</v>
@@ -9033,37 +9023,37 @@
         <f aca="false">J149-K149-L149</f>
         <v>10</v>
       </c>
-      <c r="N149" s="82" t="s">
-        <v>412</v>
+      <c r="N149" s="81" t="s">
+        <v>413</v>
       </c>
       <c r="O149" s="26"/>
       <c r="P149" s="26"/>
       <c r="AMJ149" s="0"/>
     </row>
     <row r="150" s="27" customFormat="true" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="71" t="n">
+      <c r="A150" s="70" t="n">
         <v>41382</v>
       </c>
       <c r="B150" s="40" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C150" s="40" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D150" s="40" t="s">
-        <v>429</v>
-      </c>
-      <c r="E150" s="83" t="s">
         <v>430</v>
       </c>
+      <c r="E150" s="82" t="s">
+        <v>431</v>
+      </c>
       <c r="F150" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G150" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="H150" s="83" t="s">
-        <v>431</v>
+        <v>281</v>
+      </c>
+      <c r="H150" s="82" t="s">
+        <v>432</v>
       </c>
       <c r="I150" s="34" t="n">
         <v>0.143</v>
@@ -9081,8 +9071,8 @@
         <f aca="false">J150-K150-L150</f>
         <v>10</v>
       </c>
-      <c r="N150" s="82" t="s">
-        <v>412</v>
+      <c r="N150" s="81" t="s">
+        <v>413</v>
       </c>
       <c r="O150" s="26"/>
       <c r="P150" s="26"/>
@@ -9092,26 +9082,26 @@
       <c r="A151" s="28" t="n">
         <v>41122</v>
       </c>
-      <c r="B151" s="84" t="s">
-        <v>432</v>
+      <c r="B151" s="83" t="s">
+        <v>433</v>
       </c>
       <c r="C151" s="60" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D151" s="29" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E151" s="45" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F151" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G151" s="41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H151" s="45" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I151" s="34" t="n">
         <v>0.143</v>
@@ -9127,7 +9117,7 @@
         <f aca="false">J151-K151-L151</f>
         <v>10</v>
       </c>
-      <c r="N151" s="82" t="str">
+      <c r="N151" s="81" t="str">
         <f aca="false">+N146</f>
         <v>Damage</v>
       </c>
@@ -9135,30 +9125,30 @@
       <c r="P151" s="26"/>
       <c r="AMJ151" s="0"/>
     </row>
-    <row r="152" s="27" customFormat="true" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" s="27" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="44" t="n">
         <v>43104</v>
       </c>
       <c r="B152" s="29" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C152" s="29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D152" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E152" s="45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F152" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G152" s="41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H152" s="45" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I152" s="34" t="n">
         <v>0.143</v>
@@ -9177,7 +9167,7 @@
         <f aca="false">J152-K152-L152</f>
         <v>789.38323</v>
       </c>
-      <c r="N152" s="82" t="str">
+      <c r="N152" s="81" t="str">
         <f aca="false">+N151</f>
         <v>Damage</v>
       </c>
@@ -9190,25 +9180,25 @@
         <v>41181</v>
       </c>
       <c r="B153" s="29" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C153" s="29" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D153" s="29" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E153" s="45" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F153" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G153" s="41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H153" s="45" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I153" s="34" t="n">
         <v>0.143</v>
@@ -9224,7 +9214,7 @@
         <f aca="false">J153-K153-L153</f>
         <v>10</v>
       </c>
-      <c r="N153" s="82" t="str">
+      <c r="N153" s="81" t="str">
         <f aca="false">+N152</f>
         <v>Damage</v>
       </c>
@@ -9232,34 +9222,34 @@
       <c r="P153" s="26"/>
       <c r="AMJ153" s="0"/>
     </row>
-    <row r="154" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="44" t="n">
         <f aca="false">A40</f>
         <v>42878</v>
       </c>
-      <c r="B154" s="85" t="s">
-        <v>442</v>
-      </c>
-      <c r="C154" s="85" t="str">
+      <c r="B154" s="84" t="s">
+        <v>443</v>
+      </c>
+      <c r="C154" s="84" t="str">
         <f aca="false">C40</f>
         <v>FS00001347</v>
       </c>
-      <c r="D154" s="85" t="str">
+      <c r="D154" s="84" t="str">
         <f aca="false">D40</f>
         <v>Jupiter Trading </v>
       </c>
-      <c r="E154" s="86" t="str">
+      <c r="E154" s="85" t="str">
         <f aca="false">E40</f>
         <v>CPV3022</v>
       </c>
-      <c r="F154" s="86" t="s">
-        <v>280</v>
+      <c r="F154" s="85" t="s">
+        <v>281</v>
       </c>
       <c r="G154" s="41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H154" s="45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I154" s="34" t="n">
         <v>0.143</v>
@@ -9278,7 +9268,7 @@
         <f aca="false">J154-K154-L154</f>
         <v>1673.90559</v>
       </c>
-      <c r="N154" s="82" t="str">
+      <c r="N154" s="81" t="str">
         <f aca="false">+N153</f>
         <v>Damage</v>
       </c>
@@ -9286,31 +9276,31 @@
       <c r="P154" s="26"/>
       <c r="AMJ154" s="0"/>
     </row>
-    <row r="155" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="28" t="n">
         <f aca="false">A40</f>
         <v>42878</v>
       </c>
-      <c r="B155" s="85" t="s">
-        <v>443</v>
+      <c r="B155" s="84" t="s">
+        <v>444</v>
       </c>
       <c r="C155" s="29" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D155" s="29" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E155" s="30" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F155" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G155" s="41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H155" s="45" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I155" s="34" t="n">
         <v>0.143</v>
@@ -9329,7 +9319,7 @@
         <f aca="false">J155-K155-L155</f>
         <v>402.50559</v>
       </c>
-      <c r="N155" s="82" t="str">
+      <c r="N155" s="81" t="str">
         <f aca="false">+N153</f>
         <v>Damage</v>
       </c>
@@ -9337,34 +9327,34 @@
       <c r="P155" s="26"/>
       <c r="AMJ155" s="0"/>
     </row>
-    <row r="156" s="27" customFormat="true" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" s="27" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="46" t="n">
         <f aca="false">A10</f>
         <v>42985</v>
       </c>
-      <c r="B156" s="87" t="s">
-        <v>446</v>
-      </c>
-      <c r="C156" s="87" t="str">
+      <c r="B156" s="86" t="s">
+        <v>447</v>
+      </c>
+      <c r="C156" s="86" t="str">
         <f aca="false">C10</f>
         <v>FS00004462</v>
       </c>
-      <c r="D156" s="87" t="str">
+      <c r="D156" s="86" t="str">
         <f aca="false">D10</f>
         <v>Cyclops Importer</v>
       </c>
-      <c r="E156" s="88" t="str">
+      <c r="E156" s="87" t="str">
         <f aca="false">E10</f>
         <v>CPV3261</v>
       </c>
-      <c r="F156" s="67" t="s">
-        <v>280</v>
+      <c r="F156" s="66" t="s">
+        <v>281</v>
       </c>
       <c r="G156" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="H156" s="88" t="s">
-        <v>59</v>
+        <v>281</v>
+      </c>
+      <c r="H156" s="87" t="s">
+        <v>60</v>
       </c>
       <c r="I156" s="34" t="n">
         <v>0.143</v>
@@ -9376,14 +9366,14 @@
         <f aca="false">I156*J156</f>
         <v>907.73969</v>
       </c>
-      <c r="L156" s="81" t="n">
+      <c r="L156" s="80" t="n">
         <v>3475.9</v>
       </c>
       <c r="M156" s="37" t="n">
         <f aca="false">J156-K156-L156</f>
         <v>1964.19031</v>
       </c>
-      <c r="N156" s="82" t="str">
+      <c r="N156" s="81" t="str">
         <f aca="false">+N154</f>
         <v>Damage</v>
       </c>
@@ -9391,28 +9381,28 @@
       <c r="P156" s="26"/>
       <c r="AMJ156" s="0"/>
     </row>
-    <row r="157" s="62" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="18" t="n">
         <v>42838</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E157" s="20" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F157" s="20"/>
       <c r="G157" s="21"/>
       <c r="H157" s="20" t="s">
-        <v>451</v>
-      </c>
-      <c r="I157" s="89" t="n">
+        <v>452</v>
+      </c>
+      <c r="I157" s="88" t="n">
         <v>0.143</v>
       </c>
       <c r="J157" s="23" t="n">
@@ -9430,27 +9420,27 @@
         <v>1878.17632597833</v>
       </c>
       <c r="N157" s="25" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O157" s="26"/>
       <c r="P157" s="26"/>
       <c r="AMJ157" s="0"/>
     </row>
-    <row r="158" s="62" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="44" t="e">
-        <f aca="false"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="B158" s="85" t="s">
-        <v>453</v>
-      </c>
-      <c r="C158" s="85"/>
-      <c r="D158" s="85"/>
-      <c r="E158" s="86"/>
+        <f aca="false">#ERR520!</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B158" s="84" t="s">
+        <v>454</v>
+      </c>
+      <c r="C158" s="84"/>
+      <c r="D158" s="84"/>
+      <c r="E158" s="85"/>
       <c r="F158" s="31"/>
       <c r="G158" s="41"/>
-      <c r="H158" s="86" t="s">
-        <v>454</v>
+      <c r="H158" s="85" t="s">
+        <v>455</v>
       </c>
       <c r="I158" s="34" t="n">
         <v>0.143</v>
@@ -9467,37 +9457,37 @@
         <v>10</v>
       </c>
       <c r="N158" s="42" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O158" s="26"/>
       <c r="P158" s="26"/>
       <c r="AMJ158" s="0"/>
     </row>
-    <row r="159" s="62" customFormat="true" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" s="27" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="44" t="e">
-        <f aca="false"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="B159" s="85" t="e">
-        <f aca="false"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C159" s="85" t="e">
-        <f aca="false"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D159" s="85" t="e">
-        <f aca="false"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E159" s="86" t="e">
-        <f aca="false"/>
-        <v>#NAME?</v>
+        <f aca="false">#ERR520!</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B159" s="84" t="e">
+        <f aca="false">#ERR520!</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C159" s="84" t="e">
+        <f aca="false">#ERR520!</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D159" s="84" t="e">
+        <f aca="false">#ERR520!</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E159" s="85" t="e">
+        <f aca="false">#ERR520!</f>
+        <v>#N/A</v>
       </c>
       <c r="F159" s="31"/>
       <c r="G159" s="41"/>
       <c r="H159" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I159" s="34" t="n">
         <v>0.143</v>
@@ -9514,30 +9504,30 @@
       </c>
       <c r="M159" s="37" t="n">
         <f aca="false">J159-K159-L159</f>
-        <v>457.928055599037</v>
+        <v>457.92805559904</v>
       </c>
       <c r="N159" s="42" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O159" s="26"/>
       <c r="P159" s="26"/>
       <c r="AMJ159" s="0"/>
     </row>
-    <row r="160" s="62" customFormat="true" ht="33.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="28" t="n">
         <v>43291</v>
       </c>
       <c r="B160" s="29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C160" s="60" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D160" s="43" t="s">
-        <v>456</v>
-      </c>
-      <c r="E160" s="63" t="s">
         <v>457</v>
+      </c>
+      <c r="E160" s="62" t="s">
+        <v>458</v>
       </c>
       <c r="F160" s="31"/>
       <c r="G160" s="41"/>
@@ -9563,32 +9553,32 @@
         <v>2165.35938343167</v>
       </c>
       <c r="N160" s="42" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O160" s="26"/>
       <c r="P160" s="26"/>
       <c r="AMJ160" s="0"/>
     </row>
-    <row r="161" s="95" customFormat="true" ht="50.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="90" t="s">
-        <v>458</v>
+    <row r="161" s="94" customFormat="true" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="89" t="s">
+        <v>459</v>
       </c>
       <c r="B161" s="53" t="s">
-        <v>459</v>
-      </c>
-      <c r="C161" s="90" t="s">
         <v>460</v>
       </c>
+      <c r="C161" s="89" t="s">
+        <v>461</v>
+      </c>
       <c r="D161" s="53" t="s">
-        <v>461</v>
-      </c>
-      <c r="E161" s="91" t="s">
         <v>462</v>
+      </c>
+      <c r="E161" s="90" t="s">
+        <v>463</v>
       </c>
       <c r="F161" s="56"/>
       <c r="G161" s="41"/>
-      <c r="H161" s="91" t="s">
-        <v>463</v>
+      <c r="H161" s="90" t="s">
+        <v>464</v>
       </c>
       <c r="I161" s="34" t="n">
         <v>0.143</v>
@@ -9599,342 +9589,19 @@
       <c r="K161" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="L161" s="92" t="n">
+      <c r="L161" s="91" t="n">
         <v>3729.13</v>
       </c>
       <c r="M161" s="37" t="n">
         <f aca="false">J161-K161-L161</f>
         <v>10</v>
       </c>
-      <c r="N161" s="93" t="s">
-        <v>464</v>
-      </c>
-      <c r="O161" s="94"/>
-      <c r="P161" s="94"/>
+      <c r="N161" s="92" t="s">
+        <v>465</v>
+      </c>
+      <c r="O161" s="93"/>
+      <c r="P161" s="93"/>
       <c r="AMJ161" s="0"/>
-    </row>
-    <row r="162" s="96" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="4"/>
-      <c r="H162" s="3"/>
-      <c r="I162" s="5"/>
-      <c r="J162" s="6"/>
-      <c r="K162" s="6"/>
-      <c r="L162" s="6"/>
-      <c r="M162" s="6"/>
-      <c r="N162" s="7"/>
-      <c r="O162" s="8"/>
-      <c r="P162" s="8"/>
-      <c r="AMJ162" s="0"/>
-    </row>
-    <row r="163" s="96" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
-      <c r="G163" s="4"/>
-      <c r="H163" s="3"/>
-      <c r="I163" s="5"/>
-      <c r="J163" s="6"/>
-      <c r="K163" s="6"/>
-      <c r="L163" s="6"/>
-      <c r="M163" s="6"/>
-      <c r="N163" s="7"/>
-      <c r="O163" s="8"/>
-      <c r="P163" s="8"/>
-      <c r="AMJ163" s="0"/>
-    </row>
-    <row r="164" s="96" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1"/>
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="4"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="5"/>
-      <c r="J164" s="6"/>
-      <c r="K164" s="6"/>
-      <c r="L164" s="6"/>
-      <c r="M164" s="6"/>
-      <c r="N164" s="7"/>
-      <c r="O164" s="8"/>
-      <c r="P164" s="8"/>
-      <c r="AMJ164" s="0"/>
-    </row>
-    <row r="165" s="96" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="4"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="5"/>
-      <c r="J165" s="6"/>
-      <c r="K165" s="6"/>
-      <c r="L165" s="6"/>
-      <c r="M165" s="6"/>
-      <c r="N165" s="7"/>
-      <c r="O165" s="8"/>
-      <c r="P165" s="8"/>
-      <c r="AMJ165" s="0"/>
-    </row>
-    <row r="166" s="96" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1"/>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
-      <c r="G166" s="4"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="6"/>
-      <c r="K166" s="6"/>
-      <c r="L166" s="6"/>
-      <c r="M166" s="6"/>
-      <c r="N166" s="7"/>
-      <c r="O166" s="8"/>
-      <c r="P166" s="8"/>
-      <c r="AMJ166" s="0"/>
-    </row>
-    <row r="167" s="96" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1"/>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="3"/>
-      <c r="G167" s="4"/>
-      <c r="H167" s="3"/>
-      <c r="I167" s="5"/>
-      <c r="J167" s="6"/>
-      <c r="K167" s="6"/>
-      <c r="L167" s="6"/>
-      <c r="M167" s="6"/>
-      <c r="N167" s="7"/>
-      <c r="O167" s="8"/>
-      <c r="P167" s="8"/>
-      <c r="AMJ167" s="0"/>
-    </row>
-    <row r="168" s="96" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1"/>
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="4"/>
-      <c r="H168" s="3"/>
-      <c r="I168" s="5"/>
-      <c r="J168" s="6"/>
-      <c r="K168" s="6"/>
-      <c r="L168" s="6"/>
-      <c r="M168" s="6"/>
-      <c r="N168" s="7"/>
-      <c r="O168" s="8"/>
-      <c r="P168" s="8"/>
-      <c r="AMJ168" s="0"/>
-    </row>
-    <row r="169" s="96" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
-      <c r="G169" s="4"/>
-      <c r="H169" s="3"/>
-      <c r="I169" s="5"/>
-      <c r="J169" s="6"/>
-      <c r="K169" s="6"/>
-      <c r="L169" s="6"/>
-      <c r="M169" s="6"/>
-      <c r="N169" s="7"/>
-      <c r="O169" s="8"/>
-      <c r="P169" s="8"/>
-      <c r="AMJ169" s="0"/>
-    </row>
-    <row r="170" s="96" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1"/>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
-      <c r="G170" s="4"/>
-      <c r="H170" s="3"/>
-      <c r="I170" s="5"/>
-      <c r="J170" s="6"/>
-      <c r="K170" s="6"/>
-      <c r="L170" s="6"/>
-      <c r="M170" s="6"/>
-      <c r="N170" s="7"/>
-      <c r="O170" s="8"/>
-      <c r="P170" s="8"/>
-      <c r="AMJ170" s="0"/>
-    </row>
-    <row r="171" s="96" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
-      <c r="G171" s="4"/>
-      <c r="H171" s="3"/>
-      <c r="I171" s="5"/>
-      <c r="J171" s="6"/>
-      <c r="K171" s="6"/>
-      <c r="L171" s="6"/>
-      <c r="M171" s="6"/>
-      <c r="N171" s="7"/>
-      <c r="O171" s="8"/>
-      <c r="P171" s="8"/>
-      <c r="AMJ171" s="0"/>
-    </row>
-    <row r="172" s="96" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="4"/>
-      <c r="H172" s="3"/>
-      <c r="I172" s="5"/>
-      <c r="J172" s="6"/>
-      <c r="K172" s="6"/>
-      <c r="L172" s="6"/>
-      <c r="M172" s="6"/>
-      <c r="N172" s="7"/>
-      <c r="O172" s="8"/>
-      <c r="P172" s="8"/>
-      <c r="AMJ172" s="0"/>
-    </row>
-    <row r="173" s="96" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="4"/>
-      <c r="H173" s="3"/>
-      <c r="I173" s="5"/>
-      <c r="J173" s="6"/>
-      <c r="K173" s="6"/>
-      <c r="L173" s="6"/>
-      <c r="M173" s="6"/>
-      <c r="N173" s="7"/>
-      <c r="O173" s="8"/>
-      <c r="P173" s="8"/>
-      <c r="AMJ173" s="0"/>
-    </row>
-    <row r="174" s="96" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3"/>
-      <c r="G174" s="4"/>
-      <c r="H174" s="3"/>
-      <c r="I174" s="5"/>
-      <c r="J174" s="6"/>
-      <c r="K174" s="6"/>
-      <c r="L174" s="6"/>
-      <c r="M174" s="6"/>
-      <c r="N174" s="7"/>
-      <c r="O174" s="8"/>
-      <c r="P174" s="8"/>
-      <c r="AMJ174" s="0"/>
-    </row>
-    <row r="175" s="96" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="3"/>
-      <c r="G175" s="4"/>
-      <c r="H175" s="3"/>
-      <c r="I175" s="5"/>
-      <c r="J175" s="6"/>
-      <c r="K175" s="6"/>
-      <c r="L175" s="6"/>
-      <c r="M175" s="6"/>
-      <c r="N175" s="7"/>
-      <c r="O175" s="8"/>
-      <c r="P175" s="8"/>
-      <c r="AMJ175" s="0"/>
-    </row>
-    <row r="176" s="96" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="3"/>
-      <c r="I176" s="5"/>
-      <c r="J176" s="6"/>
-      <c r="K176" s="6"/>
-      <c r="L176" s="6"/>
-      <c r="M176" s="6"/>
-      <c r="N176" s="7"/>
-      <c r="O176" s="8"/>
-      <c r="P176" s="8"/>
-      <c r="AMJ176" s="0"/>
-    </row>
-    <row r="177" s="96" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
-      <c r="G177" s="4"/>
-      <c r="H177" s="3"/>
-      <c r="I177" s="5"/>
-      <c r="J177" s="6"/>
-      <c r="K177" s="6"/>
-      <c r="L177" s="6"/>
-      <c r="M177" s="6"/>
-      <c r="N177" s="7"/>
-      <c r="O177" s="8"/>
-      <c r="P177" s="8"/>
-      <c r="AMJ177" s="0"/>
-    </row>
-    <row r="178" s="96" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="4"/>
-      <c r="H178" s="3"/>
-      <c r="I178" s="5"/>
-      <c r="J178" s="6"/>
-      <c r="K178" s="6"/>
-      <c r="L178" s="6"/>
-      <c r="M178" s="6"/>
-      <c r="N178" s="7"/>
-      <c r="O178" s="8"/>
-      <c r="P178" s="8"/>
-      <c r="AMJ178" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/stadia/seed/computer_and_acc.xlsx
+++ b/stadia/seed/computer_and_acc.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="460">
   <si>
     <t xml:space="preserve">Date of Purchase</t>
   </si>
@@ -672,9 +672,6 @@
     <t xml:space="preserve">STA-COA-001-040</t>
   </si>
   <si>
-    <t xml:space="preserve">21/12/2015</t>
-  </si>
-  <si>
     <t xml:space="preserve">FS00004145</t>
   </si>
   <si>
@@ -799,9 +796,6 @@
   </si>
   <si>
     <t xml:space="preserve">STA-COA-002-005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16/06/20</t>
   </si>
   <si>
     <t xml:space="preserve">Scren HP27" Display and Key Board Wirless </t>
@@ -1450,6 +1444,15 @@
     <t xml:space="preserve">STA-COA-021-005</t>
   </si>
   <si>
+    <t xml:space="preserve">TP link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FS00000752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPV2624</t>
+  </si>
+  <si>
     <t xml:space="preserve">FS00000387</t>
   </si>
   <si>
@@ -1457,27 +1460,6 @@
   </si>
   <si>
     <t xml:space="preserve">CPV3912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25/01/2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sony 16.1 D Camera </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FS00019387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prp-Kid Tek Computer Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPV0455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STA-OFE-009-003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transfer Machine and equipments </t>
   </si>
 </sst>
 </file>
@@ -1495,7 +1477,7 @@
     <numFmt numFmtId="171" formatCode="0.0%"/>
     <numFmt numFmtId="172" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1582,17 +1564,26 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1767,7 +1758,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="100">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2008,6 +1999,38 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="9" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="13" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="9" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2020,6 +2043,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2100,7 +2131,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2124,28 +2155,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="9" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2165,13 +2176,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ161"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A150" colorId="64" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A161" activeCellId="0" sqref="A161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="33.57"/>
@@ -2184,7 +2195,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="6" width="18.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="6" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="6" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="6" width="21.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="7" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="8" width="13.43"/>
@@ -4236,93 +4247,91 @@
       <c r="P43" s="26"/>
       <c r="AMJ43" s="0"/>
     </row>
-    <row r="44" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="39" t="s">
+    <row r="44" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="60" t="n">
+        <v>42359</v>
+      </c>
+      <c r="B44" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="B44" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" s="40" t="s">
+      <c r="D44" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="D44" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="31" t="s">
+      <c r="F44" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="G44" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="F44" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="G44" s="41" t="s">
+      <c r="H44" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="H44" s="31" t="s">
-        <v>201</v>
-      </c>
       <c r="I44" s="34" t="n">
         <v>0.143</v>
       </c>
-      <c r="J44" s="37" t="n">
-        <f aca="false">((10782.61/11)+21565.21)-6260.87</f>
-        <v>16284.5772727273</v>
+      <c r="J44" s="50" t="n">
+        <v>16284.58</v>
       </c>
       <c r="K44" s="37" t="n">
-        <f aca="false">J44*I44</f>
-        <v>2328.69455</v>
+        <f aca="false">J44*0.144</f>
+        <v>2344.97952</v>
       </c>
       <c r="L44" s="37" t="n">
-        <f aca="false">12131.91+(6914.52/11)</f>
-        <v>12760.5027272727</v>
+        <v>12760.5</v>
       </c>
       <c r="M44" s="37" t="n">
-        <f aca="false">J44-K44-L44</f>
-        <v>1195.37999545455</v>
+        <v>1195.38</v>
       </c>
       <c r="N44" s="42"/>
       <c r="O44" s="26"/>
       <c r="P44" s="26"/>
       <c r="AMJ44" s="0"/>
     </row>
-    <row r="45" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="46" t="n">
+    <row r="45" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="60" t="n">
         <v>44234</v>
       </c>
-      <c r="B45" s="47" t="s">
+      <c r="B45" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="47" t="s">
+      <c r="C45" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="D45" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D45" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="F45" s="31" t="s">
+      <c r="F45" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="G45" s="41"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="34" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J45" s="50" t="n">
+      <c r="G45" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="H45" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="I45" s="65" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J45" s="66" t="n">
         <v>6260.87</v>
       </c>
       <c r="K45" s="37" t="n">
-        <f aca="false">J45*I45</f>
-        <v>895.30441</v>
-      </c>
-      <c r="L45" s="37" t="n">
+        <f aca="false">J45*0.144</f>
+        <v>901.56528</v>
+      </c>
+      <c r="L45" s="67" t="n">
         <v>737.47</v>
       </c>
-      <c r="M45" s="37" t="n">
-        <f aca="false">J45-K45-L45</f>
-        <v>4628.09559</v>
-      </c>
+      <c r="M45" s="37"/>
       <c r="N45" s="42"/>
       <c r="O45" s="26"/>
       <c r="P45" s="26"/>
@@ -4348,10 +4357,10 @@
         <v>172</v>
       </c>
       <c r="G46" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="H46" s="31" t="s">
         <v>204</v>
-      </c>
-      <c r="H46" s="31" t="s">
-        <v>205</v>
       </c>
       <c r="I46" s="34" t="n">
         <v>0.143</v>
@@ -4385,22 +4394,22 @@
         <v>122</v>
       </c>
       <c r="C47" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="D47" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="D47" s="40" t="s">
+      <c r="E47" s="31" t="s">
         <v>207</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>208</v>
       </c>
       <c r="F47" s="31" t="s">
         <v>172</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H47" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I47" s="34" t="n">
         <v>0.143</v>
@@ -4432,22 +4441,22 @@
         <v>192</v>
       </c>
       <c r="C48" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="D48" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="D48" s="40" t="s">
+      <c r="E48" s="31" t="s">
         <v>211</v>
-      </c>
-      <c r="E48" s="31" t="s">
-        <v>212</v>
       </c>
       <c r="F48" s="31" t="s">
         <v>172</v>
       </c>
       <c r="G48" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H48" s="31" t="s">
         <v>213</v>
-      </c>
-      <c r="H48" s="31" t="s">
-        <v>214</v>
       </c>
       <c r="I48" s="34" t="n">
         <v>0.143</v>
@@ -4466,7 +4475,7 @@
       </c>
       <c r="M48" s="37" t="n">
         <f aca="false">J48-K48-L48</f>
-        <v>4441.86881545455</v>
+        <v>4441.86881545457</v>
       </c>
       <c r="N48" s="42"/>
       <c r="O48" s="26"/>
@@ -4478,7 +4487,7 @@
         <v>42752</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C49" s="40" t="n">
         <v>9349</v>
@@ -4487,16 +4496,16 @@
         <v>28</v>
       </c>
       <c r="E49" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="F49" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="F49" s="31" t="s">
+      <c r="G49" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="G49" s="41" t="s">
+      <c r="H49" s="31" t="s">
         <v>218</v>
-      </c>
-      <c r="H49" s="31" t="s">
-        <v>219</v>
       </c>
       <c r="I49" s="34" t="n">
         <v>0.143</v>
@@ -4527,30 +4536,30 @@
         <v>43193</v>
       </c>
       <c r="B50" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="C50" s="68" t="s">
         <v>220</v>
-      </c>
-      <c r="C50" s="60" t="s">
-        <v>221</v>
       </c>
       <c r="D50" s="43" t="s">
         <v>57</v>
       </c>
       <c r="E50" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="F50" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="G50" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="H50" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="F50" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="G50" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="H50" s="45" t="s">
-        <v>223</v>
-      </c>
       <c r="I50" s="34" t="n">
         <v>0.143</v>
       </c>
-      <c r="J50" s="61" t="n">
+      <c r="J50" s="69" t="n">
         <v>5078.26</v>
       </c>
       <c r="K50" s="36" t="n">
@@ -4574,25 +4583,25 @@
         <v>42291</v>
       </c>
       <c r="B51" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="C51" s="40" t="s">
         <v>224</v>
-      </c>
-      <c r="C51" s="40" t="s">
-        <v>225</v>
       </c>
       <c r="D51" s="40" t="s">
         <v>28</v>
       </c>
       <c r="E51" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="G51" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="F51" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="G51" s="41" t="s">
+      <c r="H51" s="31" t="s">
         <v>227</v>
-      </c>
-      <c r="H51" s="31" t="s">
-        <v>228</v>
       </c>
       <c r="I51" s="34" t="n">
         <v>0.143</v>
@@ -4611,7 +4620,7 @@
       </c>
       <c r="M51" s="37" t="n">
         <f aca="false">J51-K51-L51</f>
-        <v>979.130826666667</v>
+        <v>979.130826666704</v>
       </c>
       <c r="N51" s="42"/>
       <c r="O51" s="26"/>
@@ -4623,25 +4632,25 @@
         <v>41181</v>
       </c>
       <c r="B52" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="C52" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="C52" s="40" t="s">
+      <c r="D52" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="E52" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="E52" s="31" t="s">
+      <c r="F52" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="G52" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="F52" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="G52" s="41" t="s">
+      <c r="H52" s="31" t="s">
         <v>233</v>
-      </c>
-      <c r="H52" s="31" t="s">
-        <v>234</v>
       </c>
       <c r="I52" s="34" t="n">
         <v>0.143</v>
@@ -4660,7 +4669,7 @@
       </c>
       <c r="M52" s="37" t="n">
         <f aca="false">J52-K52-L52</f>
-        <v>219.165796666666</v>
+        <v>219.165796666699</v>
       </c>
       <c r="N52" s="42"/>
       <c r="O52" s="26"/>
@@ -4672,25 +4681,25 @@
         <v>42360</v>
       </c>
       <c r="B53" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53" s="40" t="s">
         <v>235</v>
-      </c>
-      <c r="C53" s="40" t="s">
-        <v>236</v>
       </c>
       <c r="D53" s="40" t="s">
         <v>28</v>
       </c>
       <c r="E53" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="G53" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="F53" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="G53" s="41" t="s">
+      <c r="H53" s="31" t="s">
         <v>238</v>
-      </c>
-      <c r="H53" s="31" t="s">
-        <v>239</v>
       </c>
       <c r="I53" s="34" t="n">
         <v>0.143</v>
@@ -4715,29 +4724,29 @@
       <c r="AMJ53" s="0"/>
     </row>
     <row r="54" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="28" t="n">
+        <v>43998</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="C54" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="D54" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="E54" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="D54" s="29" t="s">
+      <c r="F54" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="G54" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="F54" s="62" t="s">
+      <c r="H54" s="33" t="s">
         <v>245</v>
-      </c>
-      <c r="G54" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="H54" s="33" t="s">
-        <v>247</v>
       </c>
       <c r="I54" s="34" t="n">
         <v>0.143</v>
@@ -4763,12 +4772,12 @@
       <c r="P54" s="26"/>
       <c r="AMJ54" s="0"/>
     </row>
-    <row r="55" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="46" t="n">
         <v>44202</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C55" s="47" t="s">
         <v>77</v>
@@ -4779,11 +4788,15 @@
       <c r="E55" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="F55" s="62" t="s">
+      <c r="F55" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="G55" s="71" t="s">
+        <v>244</v>
+      </c>
+      <c r="H55" s="72" t="s">
         <v>245</v>
       </c>
-      <c r="G55" s="32"/>
-      <c r="H55" s="33"/>
       <c r="I55" s="34" t="n">
         <v>0.143</v>
       </c>
@@ -4806,12 +4819,12 @@
       <c r="P55" s="26"/>
       <c r="AMJ55" s="0"/>
     </row>
-    <row r="56" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="46" t="n">
         <v>44202</v>
       </c>
       <c r="B56" s="47" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C56" s="47" t="s">
         <v>77</v>
@@ -4822,11 +4835,15 @@
       <c r="E56" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="F56" s="62" t="s">
+      <c r="F56" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="G56" s="71" t="s">
+        <v>244</v>
+      </c>
+      <c r="H56" s="72" t="s">
         <v>245</v>
       </c>
-      <c r="G56" s="32"/>
-      <c r="H56" s="33"/>
       <c r="I56" s="34" t="n">
         <v>0.143</v>
       </c>
@@ -4863,16 +4880,16 @@
         <v>28</v>
       </c>
       <c r="E57" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="G57" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="F57" s="31" t="s">
+      <c r="H57" s="31" t="s">
         <v>251</v>
-      </c>
-      <c r="G57" s="41" t="s">
-        <v>252</v>
-      </c>
-      <c r="H57" s="31" t="s">
-        <v>253</v>
       </c>
       <c r="I57" s="34" t="n">
         <v>0.143</v>
@@ -4891,7 +4908,7 @@
       </c>
       <c r="M57" s="37" t="n">
         <f aca="false">J57-K57-L57</f>
-        <v>1410.12943545454</v>
+        <v>1410.12943545457</v>
       </c>
       <c r="N57" s="42"/>
       <c r="O57" s="26"/>
@@ -4915,13 +4932,13 @@
         <v>68</v>
       </c>
       <c r="F58" s="31" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G58" s="41" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H58" s="31" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I58" s="34" t="n">
         <v>0.143</v>
@@ -4962,13 +4979,13 @@
         <v>86</v>
       </c>
       <c r="F59" s="31" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G59" s="41" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H59" s="31" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I59" s="34" t="n">
         <v>0.143</v>
@@ -4987,7 +5004,7 @@
       </c>
       <c r="M59" s="37" t="n">
         <f aca="false">J59-K59-L59</f>
-        <v>3594.86767142857</v>
+        <v>3594.8676714286</v>
       </c>
       <c r="N59" s="42"/>
       <c r="O59" s="26"/>
@@ -5011,13 +5028,13 @@
         <v>101</v>
       </c>
       <c r="F60" s="31" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G60" s="41" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H60" s="31" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I60" s="34" t="n">
         <v>0.143</v>
@@ -5046,7 +5063,7 @@
         <v>44202</v>
       </c>
       <c r="B61" s="47" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C61" s="47" t="s">
         <v>77</v>
@@ -5058,10 +5075,10 @@
         <v>79</v>
       </c>
       <c r="F61" s="31" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G61" s="41" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H61" s="31"/>
       <c r="I61" s="34" t="n">
@@ -5094,22 +5111,22 @@
         <v>122</v>
       </c>
       <c r="C62" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="D62" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="E62" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="D62" s="40" t="s">
+      <c r="F62" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="G62" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="H62" s="31" t="s">
         <v>262</v>
-      </c>
-      <c r="E62" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="F62" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="G62" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="H62" s="31" t="s">
-        <v>264</v>
       </c>
       <c r="I62" s="34" t="n">
         <v>0.143</v>
@@ -5138,7 +5155,7 @@
         <v>42952</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C63" s="40" t="n">
         <v>9418</v>
@@ -5147,16 +5164,16 @@
         <v>28</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F63" s="31" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G63" s="41" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H63" s="31" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I63" s="34" t="n">
         <v>0.143</v>
@@ -5185,25 +5202,25 @@
         <v>42149</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D64" s="40" t="s">
         <v>28</v>
       </c>
       <c r="E64" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="F64" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="G64" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="H64" s="31" t="s">
         <v>270</v>
-      </c>
-      <c r="F64" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="G64" s="41" t="s">
-        <v>271</v>
-      </c>
-      <c r="H64" s="31" t="s">
-        <v>272</v>
       </c>
       <c r="I64" s="34" t="n">
         <v>0.143</v>
@@ -5222,7 +5239,7 @@
       </c>
       <c r="M64" s="37" t="n">
         <f aca="false">J64-K64-L64</f>
-        <v>221.470225454548</v>
+        <v>221.470225454603</v>
       </c>
       <c r="N64" s="42"/>
       <c r="O64" s="26"/>
@@ -5230,29 +5247,29 @@
       <c r="AMJ64" s="0"/>
     </row>
     <row r="65" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="63" t="n">
+      <c r="A65" s="73" t="n">
         <v>40443</v>
       </c>
       <c r="B65" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="D65" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="C65" s="40" t="s">
+      <c r="E65" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="D65" s="40" t="s">
+      <c r="F65" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="G65" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="H65" s="31" t="s">
         <v>275</v>
-      </c>
-      <c r="E65" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="F65" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="G65" s="41" t="s">
-        <v>271</v>
-      </c>
-      <c r="H65" s="31" t="s">
-        <v>277</v>
       </c>
       <c r="I65" s="34" t="n">
         <v>0.143</v>
@@ -5283,22 +5300,22 @@
         <v>119</v>
       </c>
       <c r="C66" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="D66" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="E66" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="D66" s="40" t="s">
+      <c r="F66" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="E66" s="31" t="s">
+      <c r="G66" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="F66" s="31" t="s">
+      <c r="H66" s="31" t="s">
         <v>281</v>
-      </c>
-      <c r="G66" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="H66" s="31" t="s">
-        <v>283</v>
       </c>
       <c r="I66" s="34" t="n">
         <v>0.143</v>
@@ -5329,25 +5346,25 @@
         <v>41367</v>
       </c>
       <c r="B67" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="C67" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="D67" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E67" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="C67" s="40" t="s">
+      <c r="F67" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="G67" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="D67" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="E67" s="31" t="s">
+      <c r="H67" s="31" t="s">
         <v>286</v>
-      </c>
-      <c r="F67" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="G67" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="H67" s="31" t="s">
-        <v>288</v>
       </c>
       <c r="I67" s="34" t="n">
         <v>0.143</v>
@@ -5384,16 +5401,16 @@
         <v>67</v>
       </c>
       <c r="E68" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="F68" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="G68" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="F68" s="31" t="s">
+      <c r="H68" s="31" t="s">
         <v>290</v>
-      </c>
-      <c r="G68" s="41" t="s">
-        <v>291</v>
-      </c>
-      <c r="H68" s="31" t="s">
-        <v>292</v>
       </c>
       <c r="I68" s="34" t="n">
         <v>0.143</v>
@@ -5425,22 +5442,22 @@
         <v>94</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D69" s="40" t="s">
         <v>67</v>
       </c>
       <c r="E69" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="F69" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="G69" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="H69" s="31" t="s">
         <v>294</v>
-      </c>
-      <c r="F69" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="G69" s="41" t="s">
-        <v>295</v>
-      </c>
-      <c r="H69" s="31" t="s">
-        <v>296</v>
       </c>
       <c r="I69" s="34" t="n">
         <v>0.143</v>
@@ -5469,7 +5486,7 @@
         <v>42457</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C70" s="40" t="s">
         <v>158</v>
@@ -5478,16 +5495,16 @@
         <v>28</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F70" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="G70" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="H70" s="31" t="s">
         <v>298</v>
-      </c>
-      <c r="G70" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="H70" s="31" t="s">
-        <v>300</v>
       </c>
       <c r="I70" s="34" t="n">
         <v>0.143</v>
@@ -5506,7 +5523,7 @@
       </c>
       <c r="M70" s="37" t="n">
         <f aca="false">J70-K70-L70</f>
-        <v>1410.12943545454</v>
+        <v>1410.12943545457</v>
       </c>
       <c r="N70" s="42"/>
       <c r="O70" s="26"/>
@@ -5530,13 +5547,13 @@
         <v>50</v>
       </c>
       <c r="F71" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="G71" s="64" t="s">
-        <v>301</v>
+        <v>296</v>
+      </c>
+      <c r="G71" s="74" t="s">
+        <v>299</v>
       </c>
       <c r="H71" s="48" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I71" s="34" t="n">
         <v>0.143</v>
@@ -5555,7 +5572,7 @@
         <f aca="false">J71-K71-L71</f>
         <v>29740.46733</v>
       </c>
-      <c r="N71" s="65"/>
+      <c r="N71" s="75"/>
       <c r="O71" s="26"/>
       <c r="P71" s="26"/>
       <c r="AMJ71" s="0"/>
@@ -5577,13 +5594,13 @@
         <v>116</v>
       </c>
       <c r="F72" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="G72" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="H72" s="45" t="s">
         <v>303</v>
-      </c>
-      <c r="G72" s="41" t="s">
-        <v>304</v>
-      </c>
-      <c r="H72" s="45" t="s">
-        <v>305</v>
       </c>
       <c r="I72" s="34" t="n">
         <v>0.143</v>
@@ -5613,25 +5630,25 @@
         <v>42964</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D73" s="40" t="s">
         <v>57</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F73" s="31" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G73" s="41" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H73" s="31" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I73" s="34" t="n">
         <v>0.143</v>
@@ -5650,7 +5667,7 @@
       </c>
       <c r="M73" s="37" t="n">
         <f aca="false">J73-K73-L73</f>
-        <v>4755.79676545454</v>
+        <v>4755.79676545457</v>
       </c>
       <c r="N73" s="42"/>
       <c r="O73" s="26"/>
@@ -5662,25 +5679,25 @@
         <v>44272</v>
       </c>
       <c r="B74" s="47" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C74" s="47" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D74" s="47" t="s">
         <v>78</v>
       </c>
       <c r="E74" s="45" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F74" s="31" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G74" s="41" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H74" s="45" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I74" s="34" t="n">
         <v>0.143</v>
@@ -5720,14 +5737,14 @@
       <c r="E75" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="F75" s="66" t="s">
+      <c r="F75" s="76" t="s">
+        <v>310</v>
+      </c>
+      <c r="G75" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="H75" s="48" t="s">
         <v>312</v>
-      </c>
-      <c r="G75" s="49" t="s">
-        <v>313</v>
-      </c>
-      <c r="H75" s="48" t="s">
-        <v>314</v>
       </c>
       <c r="I75" s="34" t="n">
         <v>0.143</v>
@@ -5767,14 +5784,14 @@
       <c r="E76" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="F76" s="66" t="s">
-        <v>312</v>
+      <c r="F76" s="76" t="s">
+        <v>310</v>
       </c>
       <c r="G76" s="49" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H76" s="48" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I76" s="34" t="n">
         <v>0.143</v>
@@ -5816,13 +5833,13 @@
         <v>116</v>
       </c>
       <c r="F77" s="31" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G77" s="41" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H77" s="45" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I77" s="34" t="n">
         <v>0.143</v>
@@ -5864,13 +5881,13 @@
         <v>50</v>
       </c>
       <c r="F78" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="G78" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="H78" s="45" t="s">
         <v>319</v>
-      </c>
-      <c r="G78" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="H78" s="45" t="s">
-        <v>321</v>
       </c>
       <c r="I78" s="34" t="n">
         <v>0.143</v>
@@ -5899,25 +5916,25 @@
         <v>43165</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D79" s="40" t="s">
         <v>57</v>
       </c>
       <c r="E79" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="F79" s="76" t="s">
+        <v>323</v>
+      </c>
+      <c r="G79" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="H79" s="31" t="s">
         <v>324</v>
-      </c>
-      <c r="F79" s="66" t="s">
-        <v>325</v>
-      </c>
-      <c r="G79" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="H79" s="31" t="s">
-        <v>326</v>
       </c>
       <c r="I79" s="34" t="n">
         <v>0.143</v>
@@ -5948,26 +5965,26 @@
         <v>43165</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D80" s="40" t="s">
         <v>57</v>
       </c>
       <c r="E80" s="33" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F80" s="31" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G80" s="41" t="str">
         <f aca="false">G78</f>
         <v>Abebe Fulas</v>
       </c>
       <c r="H80" s="31" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I80" s="34" t="n">
         <v>0.143</v>
@@ -5998,7 +6015,7 @@
         <v>43040</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C81" s="29" t="s">
         <v>193</v>
@@ -6010,13 +6027,13 @@
         <v>194</v>
       </c>
       <c r="F81" s="31" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G81" s="41" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H81" s="45" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I81" s="34" t="n">
         <v>0.143</v>
@@ -6043,29 +6060,29 @@
       <c r="AMJ81" s="0"/>
     </row>
     <row r="82" s="27" customFormat="true" ht="49.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="67" t="n">
+      <c r="A82" s="77" t="n">
         <v>42746</v>
       </c>
-      <c r="B82" s="68" t="s">
+      <c r="B82" s="78" t="s">
+        <v>329</v>
+      </c>
+      <c r="C82" s="78" t="n">
+        <v>9333</v>
+      </c>
+      <c r="D82" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="F82" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="G82" s="74" t="s">
         <v>331</v>
       </c>
-      <c r="C82" s="68" t="n">
-        <v>9333</v>
-      </c>
-      <c r="D82" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="E82" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="F82" s="69" t="s">
+      <c r="H82" s="79" t="s">
         <v>332</v>
-      </c>
-      <c r="G82" s="64" t="s">
-        <v>333</v>
-      </c>
-      <c r="H82" s="69" t="s">
-        <v>334</v>
       </c>
       <c r="I82" s="34" t="n">
         <v>0.143</v>
@@ -6084,9 +6101,9 @@
       </c>
       <c r="M82" s="37" t="n">
         <f aca="false">J82-K82-L82</f>
-        <v>3544.02548142857</v>
-      </c>
-      <c r="N82" s="65"/>
+        <v>3544.0254814286</v>
+      </c>
+      <c r="N82" s="75"/>
       <c r="O82" s="26"/>
       <c r="P82" s="26"/>
       <c r="AMJ82" s="0"/>
@@ -6105,16 +6122,16 @@
         <v>28</v>
       </c>
       <c r="E83" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="F83" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="G83" s="41" t="s">
         <v>335</v>
       </c>
-      <c r="F83" s="31" t="s">
+      <c r="H83" s="31" t="s">
         <v>336</v>
-      </c>
-      <c r="G83" s="41" t="s">
-        <v>337</v>
-      </c>
-      <c r="H83" s="31" t="s">
-        <v>338</v>
       </c>
       <c r="I83" s="34" t="n">
         <v>0.143</v>
@@ -6145,25 +6162,25 @@
         <v>42964</v>
       </c>
       <c r="B84" s="40" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D84" s="40" t="s">
         <v>57</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F84" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G84" s="41" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H84" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I84" s="34" t="n">
         <v>0.143</v>
@@ -6182,7 +6199,7 @@
       </c>
       <c r="M84" s="37" t="n">
         <f aca="false">J84-K84-L84</f>
-        <v>4755.79676545454</v>
+        <v>4755.79676545457</v>
       </c>
       <c r="N84" s="42"/>
       <c r="O84" s="26"/>
@@ -6190,30 +6207,30 @@
       <c r="AMJ84" s="0"/>
     </row>
     <row r="85" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="70" t="n">
+      <c r="A85" s="80" t="n">
         <v>42830</v>
       </c>
       <c r="B85" s="40" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D85" s="40" t="s">
         <v>57</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F85" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G85" s="41" t="str">
         <f aca="false">G84</f>
         <v>Wondoson Tilahun</v>
       </c>
       <c r="H85" s="31" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I85" s="34" t="n">
         <v>0.143</v>
@@ -6242,25 +6259,25 @@
         <v>42929</v>
       </c>
       <c r="B86" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="C86" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="D86" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="C86" s="40" t="s">
+      <c r="E86" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="D86" s="40" t="s">
+      <c r="F86" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="G86" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="H86" s="31" t="s">
         <v>348</v>
-      </c>
-      <c r="E86" s="31" t="s">
-        <v>349</v>
-      </c>
-      <c r="F86" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="G86" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="H86" s="31" t="s">
-        <v>350</v>
       </c>
       <c r="I86" s="34" t="n">
         <v>0.143</v>
@@ -6289,7 +6306,7 @@
         <v>42244</v>
       </c>
       <c r="B87" s="40" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C87" s="40" t="s">
         <v>81</v>
@@ -6301,13 +6318,13 @@
         <v>83</v>
       </c>
       <c r="F87" s="31" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G87" s="41" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H87" s="31" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I87" s="34" t="n">
         <v>0.143</v>
@@ -6336,25 +6353,25 @@
         <v>42244</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D88" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E88" s="31" t="s">
         <v>83</v>
       </c>
       <c r="F88" s="31" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G88" s="41" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H88" s="31" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I88" s="34" t="n">
         <v>0.143</v>
@@ -6392,16 +6409,16 @@
         <v>57</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F89" s="31" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G89" s="41" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H89" s="31" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I89" s="34" t="n">
         <v>0.143</v>
@@ -6430,25 +6447,25 @@
         <v>42674</v>
       </c>
       <c r="B90" s="40" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C90" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="D90" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E90" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="F90" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="G90" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="H90" s="31" t="s">
         <v>358</v>
-      </c>
-      <c r="D90" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="E90" s="31" t="s">
-        <v>359</v>
-      </c>
-      <c r="F90" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="G90" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="H90" s="31" t="s">
-        <v>360</v>
       </c>
       <c r="I90" s="34" t="n">
         <v>0.143</v>
@@ -6479,25 +6496,25 @@
         <v>42656</v>
       </c>
       <c r="B91" s="40" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D91" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F91" s="31" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G91" s="41" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H91" s="31" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I91" s="34" t="n">
         <v>0.143</v>
@@ -6528,25 +6545,25 @@
         <v>42244</v>
       </c>
       <c r="B92" s="40" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D92" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E92" s="31" t="s">
         <v>83</v>
       </c>
       <c r="F92" s="31" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G92" s="41" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H92" s="31" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I92" s="34" t="n">
         <v>0.143</v>
@@ -6575,23 +6592,23 @@
         <v>42831</v>
       </c>
       <c r="B93" s="40" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C93" s="40"/>
       <c r="D93" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="E93" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="F93" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="G93" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="H93" s="31" t="s">
         <v>365</v>
-      </c>
-      <c r="E93" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="F93" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="G93" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="H93" s="31" t="s">
-        <v>367</v>
       </c>
       <c r="I93" s="34" t="n">
         <v>0.143</v>
@@ -6620,25 +6637,25 @@
         <v>43019</v>
       </c>
       <c r="B94" s="40" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C94" s="40" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E94" s="31" t="s">
         <v>134</v>
       </c>
       <c r="F94" s="31" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G94" s="41" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H94" s="31" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I94" s="34" t="n">
         <v>0.143</v>
@@ -6667,25 +6684,25 @@
         <v>42879</v>
       </c>
       <c r="B95" s="40" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C95" s="40" t="n">
         <v>362</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E95" s="31" t="s">
         <v>189</v>
       </c>
       <c r="F95" s="31" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G95" s="41" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H95" s="31" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I95" s="34" t="n">
         <v>0.143</v>
@@ -6714,25 +6731,25 @@
         <v>43165</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D96" s="40" t="s">
         <v>57</v>
       </c>
       <c r="E96" s="33" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F96" s="31" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G96" s="41" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H96" s="31" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I96" s="34" t="n">
         <v>0.143</v>
@@ -6769,19 +6786,19 @@
         <v>176</v>
       </c>
       <c r="D97" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="E97" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="F97" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="E97" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="F97" s="31" t="s">
-        <v>281</v>
-      </c>
       <c r="G97" s="41" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H97" s="31" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I97" s="34" t="n">
         <v>0.143</v>
@@ -6812,25 +6829,25 @@
         <v>40690</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D98" s="29" t="s">
         <v>57</v>
       </c>
       <c r="E98" s="45" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F98" s="31" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G98" s="41" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H98" s="45" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I98" s="34" t="n">
         <v>0.143</v>
@@ -6852,175 +6869,175 @@
       <c r="AMJ98" s="0"/>
     </row>
     <row r="99" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="71" t="n">
+      <c r="A99" s="81" t="n">
         <v>44418</v>
       </c>
       <c r="B99" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="C99" s="82" t="s">
+        <v>378</v>
+      </c>
+      <c r="D99" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="E99" s="84" t="s">
         <v>379</v>
       </c>
-      <c r="C99" s="72" t="s">
+      <c r="F99" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="G99" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="H99" s="48" t="s">
         <v>380</v>
       </c>
-      <c r="D99" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="E99" s="74" t="s">
-        <v>381</v>
-      </c>
-      <c r="F99" s="66" t="s">
-        <v>245</v>
-      </c>
-      <c r="G99" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="H99" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="I99" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J99" s="76" t="n">
+      <c r="I99" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J99" s="86" t="n">
         <v>14956.52</v>
       </c>
       <c r="K99" s="36" t="e">
         <f aca="false">#REF!*I99*J99</f>
         <v>#REF!</v>
       </c>
-      <c r="L99" s="76"/>
+      <c r="L99" s="86"/>
       <c r="M99" s="37" t="e">
         <f aca="false">J99-K99-L99</f>
         <v>#REF!</v>
       </c>
-      <c r="N99" s="77" t="s">
-        <v>383</v>
+      <c r="N99" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O99" s="26"/>
       <c r="P99" s="26"/>
       <c r="AMJ99" s="0"/>
     </row>
     <row r="100" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="71" t="n">
+      <c r="A100" s="81" t="n">
         <v>44425</v>
       </c>
       <c r="B100" s="47" t="s">
+        <v>382</v>
+      </c>
+      <c r="C100" s="82" t="s">
+        <v>383</v>
+      </c>
+      <c r="D100" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="E100" s="84" t="s">
         <v>384</v>
       </c>
-      <c r="C100" s="72" t="s">
-        <v>385</v>
-      </c>
-      <c r="D100" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="E100" s="74" t="s">
-        <v>386</v>
-      </c>
-      <c r="F100" s="66" t="s">
+      <c r="F100" s="76" t="s">
         <v>172</v>
       </c>
       <c r="G100" s="49" t="s">
         <v>178</v>
       </c>
       <c r="H100" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="I100" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J100" s="76" t="n">
+        <v>385</v>
+      </c>
+      <c r="I100" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J100" s="86" t="n">
         <v>35217.39</v>
       </c>
       <c r="K100" s="36" t="e">
         <f aca="false">#REF!*I100*J100</f>
         <v>#REF!</v>
       </c>
-      <c r="L100" s="76"/>
+      <c r="L100" s="86"/>
       <c r="M100" s="37" t="e">
         <f aca="false">J100-K100-L100</f>
         <v>#REF!</v>
       </c>
-      <c r="N100" s="77" t="s">
-        <v>383</v>
+      <c r="N100" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O100" s="26"/>
       <c r="P100" s="26"/>
       <c r="AMJ100" s="0"/>
     </row>
     <row r="101" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="71" t="n">
+      <c r="A101" s="81" t="n">
         <v>44425</v>
       </c>
       <c r="B101" s="47" t="s">
+        <v>382</v>
+      </c>
+      <c r="C101" s="82" t="s">
+        <v>383</v>
+      </c>
+      <c r="D101" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="E101" s="84" t="s">
         <v>384</v>
       </c>
-      <c r="C101" s="72" t="s">
-        <v>385</v>
-      </c>
-      <c r="D101" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="E101" s="74" t="s">
+      <c r="F101" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="G101" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="F101" s="66" t="s">
-        <v>172</v>
-      </c>
-      <c r="G101" s="49" t="s">
-        <v>388</v>
-      </c>
       <c r="H101" s="48" t="s">
-        <v>389</v>
-      </c>
-      <c r="I101" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J101" s="76" t="n">
+        <v>387</v>
+      </c>
+      <c r="I101" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J101" s="86" t="n">
         <v>35217.39</v>
       </c>
       <c r="K101" s="36" t="e">
         <f aca="false">#REF!*I101*J101</f>
         <v>#REF!</v>
       </c>
-      <c r="L101" s="76"/>
+      <c r="L101" s="86"/>
       <c r="M101" s="37" t="e">
         <f aca="false">J101-K101-L101</f>
         <v>#REF!</v>
       </c>
-      <c r="N101" s="77" t="s">
-        <v>383</v>
+      <c r="N101" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O101" s="26"/>
       <c r="P101" s="26"/>
       <c r="AMJ101" s="0"/>
     </row>
     <row r="102" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="78" t="n">
+      <c r="A102" s="88" t="n">
         <v>44483</v>
       </c>
-      <c r="B102" s="79" t="s">
+      <c r="B102" s="89" t="s">
+        <v>388</v>
+      </c>
+      <c r="C102" s="89" t="s">
+        <v>389</v>
+      </c>
+      <c r="D102" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="E102" s="76" t="s">
         <v>390</v>
       </c>
-      <c r="C102" s="79" t="s">
-        <v>391</v>
-      </c>
-      <c r="D102" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="E102" s="66" t="s">
-        <v>392</v>
-      </c>
-      <c r="F102" s="66" t="s">
+      <c r="F102" s="76" t="s">
         <v>172</v>
       </c>
       <c r="G102" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="H102" s="66" t="s">
+      <c r="H102" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="I102" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J102" s="80" t="n">
+      <c r="I102" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J102" s="90" t="n">
         <v>6869.56</v>
       </c>
       <c r="K102" s="36" t="e">
@@ -7032,36 +7049,36 @@
         <f aca="false">J102-K102-L102</f>
         <v>#REF!</v>
       </c>
-      <c r="N102" s="77" t="s">
-        <v>383</v>
+      <c r="N102" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O102" s="26"/>
       <c r="P102" s="26"/>
       <c r="AMJ102" s="0"/>
     </row>
     <row r="103" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="78" t="n">
+      <c r="A103" s="88" t="n">
         <v>44624</v>
       </c>
-      <c r="B103" s="79" t="s">
+      <c r="B103" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="C103" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="D103" s="83" t="s">
         <v>393</v>
       </c>
-      <c r="C103" s="79" t="s">
+      <c r="E103" s="76" t="s">
         <v>394</v>
       </c>
-      <c r="D103" s="73" t="s">
-        <v>395</v>
-      </c>
-      <c r="E103" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="F103" s="66"/>
+      <c r="F103" s="76"/>
       <c r="G103" s="49"/>
-      <c r="H103" s="66"/>
-      <c r="I103" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J103" s="80" t="n">
+      <c r="H103" s="76"/>
+      <c r="I103" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J103" s="90" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
@@ -7074,36 +7091,36 @@
         <f aca="false">J103-K103-L103</f>
         <v>#REF!</v>
       </c>
-      <c r="N103" s="77" t="s">
-        <v>383</v>
+      <c r="N103" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O103" s="26"/>
       <c r="P103" s="26"/>
       <c r="AMJ103" s="0"/>
     </row>
     <row r="104" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="78" t="n">
+      <c r="A104" s="88" t="n">
         <v>44624</v>
       </c>
-      <c r="B104" s="79" t="s">
+      <c r="B104" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="C104" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="D104" s="83" t="s">
         <v>393</v>
       </c>
-      <c r="C104" s="79" t="s">
+      <c r="E104" s="76" t="s">
         <v>394</v>
       </c>
-      <c r="D104" s="73" t="s">
-        <v>395</v>
-      </c>
-      <c r="E104" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="F104" s="66"/>
+      <c r="F104" s="76"/>
       <c r="G104" s="49"/>
-      <c r="H104" s="66"/>
-      <c r="I104" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J104" s="80" t="n">
+      <c r="H104" s="76"/>
+      <c r="I104" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J104" s="90" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
@@ -7116,36 +7133,36 @@
         <f aca="false">J104-K104-L104</f>
         <v>#REF!</v>
       </c>
-      <c r="N104" s="77" t="s">
-        <v>383</v>
+      <c r="N104" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O104" s="26"/>
       <c r="P104" s="26"/>
       <c r="AMJ104" s="0"/>
     </row>
     <row r="105" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="78" t="n">
+      <c r="A105" s="88" t="n">
         <v>44624</v>
       </c>
-      <c r="B105" s="79" t="s">
+      <c r="B105" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="C105" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="D105" s="83" t="s">
         <v>393</v>
       </c>
-      <c r="C105" s="79" t="s">
+      <c r="E105" s="76" t="s">
         <v>394</v>
       </c>
-      <c r="D105" s="73" t="s">
-        <v>395</v>
-      </c>
-      <c r="E105" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="F105" s="66"/>
+      <c r="F105" s="76"/>
       <c r="G105" s="49"/>
-      <c r="H105" s="66"/>
-      <c r="I105" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J105" s="80" t="n">
+      <c r="H105" s="76"/>
+      <c r="I105" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J105" s="90" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
@@ -7158,36 +7175,36 @@
         <f aca="false">J105-K105-L105</f>
         <v>#REF!</v>
       </c>
-      <c r="N105" s="77" t="s">
-        <v>383</v>
+      <c r="N105" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O105" s="26"/>
       <c r="P105" s="26"/>
       <c r="AMJ105" s="0"/>
     </row>
     <row r="106" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="78" t="n">
+      <c r="A106" s="88" t="n">
         <v>44624</v>
       </c>
-      <c r="B106" s="79" t="s">
+      <c r="B106" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="C106" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="D106" s="83" t="s">
         <v>393</v>
       </c>
-      <c r="C106" s="79" t="s">
+      <c r="E106" s="76" t="s">
         <v>394</v>
       </c>
-      <c r="D106" s="73" t="s">
-        <v>395</v>
-      </c>
-      <c r="E106" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="F106" s="66"/>
+      <c r="F106" s="76"/>
       <c r="G106" s="49"/>
-      <c r="H106" s="66"/>
-      <c r="I106" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J106" s="80" t="n">
+      <c r="H106" s="76"/>
+      <c r="I106" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J106" s="90" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
@@ -7200,36 +7217,36 @@
         <f aca="false">J106-K106-L106</f>
         <v>#REF!</v>
       </c>
-      <c r="N106" s="77" t="s">
-        <v>383</v>
+      <c r="N106" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O106" s="26"/>
       <c r="P106" s="26"/>
       <c r="AMJ106" s="0"/>
     </row>
     <row r="107" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="78" t="n">
+      <c r="A107" s="88" t="n">
         <v>44624</v>
       </c>
-      <c r="B107" s="79" t="s">
+      <c r="B107" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="C107" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="D107" s="83" t="s">
         <v>393</v>
       </c>
-      <c r="C107" s="79" t="s">
+      <c r="E107" s="76" t="s">
         <v>394</v>
       </c>
-      <c r="D107" s="73" t="s">
-        <v>395</v>
-      </c>
-      <c r="E107" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="F107" s="66"/>
+      <c r="F107" s="76"/>
       <c r="G107" s="49"/>
-      <c r="H107" s="66"/>
-      <c r="I107" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J107" s="80" t="n">
+      <c r="H107" s="76"/>
+      <c r="I107" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J107" s="90" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
@@ -7242,36 +7259,36 @@
         <f aca="false">J107-K107-L107</f>
         <v>#REF!</v>
       </c>
-      <c r="N107" s="77" t="s">
-        <v>383</v>
+      <c r="N107" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O107" s="26"/>
       <c r="P107" s="26"/>
       <c r="AMJ107" s="0"/>
     </row>
     <row r="108" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="78" t="n">
+      <c r="A108" s="88" t="n">
         <v>44624</v>
       </c>
-      <c r="B108" s="79" t="s">
+      <c r="B108" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="C108" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="D108" s="83" t="s">
         <v>393</v>
       </c>
-      <c r="C108" s="79" t="s">
+      <c r="E108" s="76" t="s">
         <v>394</v>
       </c>
-      <c r="D108" s="73" t="s">
-        <v>395</v>
-      </c>
-      <c r="E108" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="F108" s="66"/>
+      <c r="F108" s="76"/>
       <c r="G108" s="49"/>
-      <c r="H108" s="66"/>
-      <c r="I108" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J108" s="80" t="n">
+      <c r="H108" s="76"/>
+      <c r="I108" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J108" s="90" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
@@ -7284,36 +7301,36 @@
         <f aca="false">J108-K108-L108</f>
         <v>#REF!</v>
       </c>
-      <c r="N108" s="77" t="s">
-        <v>383</v>
+      <c r="N108" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O108" s="26"/>
       <c r="P108" s="26"/>
       <c r="AMJ108" s="0"/>
     </row>
     <row r="109" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="78" t="n">
+      <c r="A109" s="88" t="n">
         <v>44624</v>
       </c>
-      <c r="B109" s="79" t="s">
+      <c r="B109" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="C109" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="D109" s="83" t="s">
         <v>393</v>
       </c>
-      <c r="C109" s="79" t="s">
+      <c r="E109" s="76" t="s">
         <v>394</v>
       </c>
-      <c r="D109" s="73" t="s">
-        <v>395</v>
-      </c>
-      <c r="E109" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="F109" s="66"/>
+      <c r="F109" s="76"/>
       <c r="G109" s="49"/>
-      <c r="H109" s="66"/>
-      <c r="I109" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J109" s="80" t="n">
+      <c r="H109" s="76"/>
+      <c r="I109" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J109" s="90" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
@@ -7326,36 +7343,36 @@
         <f aca="false">J109-K109-L109</f>
         <v>#REF!</v>
       </c>
-      <c r="N109" s="77" t="s">
-        <v>383</v>
+      <c r="N109" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O109" s="26"/>
       <c r="P109" s="26"/>
       <c r="AMJ109" s="0"/>
     </row>
     <row r="110" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="78" t="n">
+      <c r="A110" s="88" t="n">
         <v>44624</v>
       </c>
-      <c r="B110" s="79" t="s">
+      <c r="B110" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="C110" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="D110" s="83" t="s">
         <v>393</v>
       </c>
-      <c r="C110" s="79" t="s">
+      <c r="E110" s="76" t="s">
         <v>394</v>
       </c>
-      <c r="D110" s="73" t="s">
-        <v>395</v>
-      </c>
-      <c r="E110" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="F110" s="66"/>
+      <c r="F110" s="76"/>
       <c r="G110" s="49"/>
-      <c r="H110" s="66"/>
-      <c r="I110" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J110" s="80" t="n">
+      <c r="H110" s="76"/>
+      <c r="I110" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J110" s="90" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
@@ -7368,36 +7385,36 @@
         <f aca="false">J110-K110-L110</f>
         <v>#REF!</v>
       </c>
-      <c r="N110" s="77" t="s">
-        <v>383</v>
+      <c r="N110" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O110" s="26"/>
       <c r="P110" s="26"/>
       <c r="AMJ110" s="0"/>
     </row>
     <row r="111" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="78" t="n">
+      <c r="A111" s="88" t="n">
         <v>44624</v>
       </c>
-      <c r="B111" s="79" t="s">
+      <c r="B111" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="C111" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="D111" s="83" t="s">
         <v>393</v>
       </c>
-      <c r="C111" s="79" t="s">
+      <c r="E111" s="76" t="s">
         <v>394</v>
       </c>
-      <c r="D111" s="73" t="s">
-        <v>395</v>
-      </c>
-      <c r="E111" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="F111" s="66"/>
+      <c r="F111" s="76"/>
       <c r="G111" s="49"/>
-      <c r="H111" s="66"/>
-      <c r="I111" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J111" s="80" t="n">
+      <c r="H111" s="76"/>
+      <c r="I111" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J111" s="90" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
@@ -7410,36 +7427,36 @@
         <f aca="false">J111-K111-L111</f>
         <v>#REF!</v>
       </c>
-      <c r="N111" s="77" t="s">
-        <v>383</v>
+      <c r="N111" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O111" s="26"/>
       <c r="P111" s="26"/>
       <c r="AMJ111" s="0"/>
     </row>
     <row r="112" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="78" t="n">
+      <c r="A112" s="88" t="n">
         <v>44624</v>
       </c>
-      <c r="B112" s="79" t="s">
+      <c r="B112" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="C112" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="D112" s="83" t="s">
         <v>393</v>
       </c>
-      <c r="C112" s="79" t="s">
+      <c r="E112" s="76" t="s">
         <v>394</v>
       </c>
-      <c r="D112" s="73" t="s">
-        <v>395</v>
-      </c>
-      <c r="E112" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="F112" s="66"/>
+      <c r="F112" s="76"/>
       <c r="G112" s="49"/>
-      <c r="H112" s="66"/>
-      <c r="I112" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J112" s="80" t="n">
+      <c r="H112" s="76"/>
+      <c r="I112" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J112" s="90" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
@@ -7452,36 +7469,36 @@
         <f aca="false">J112-K112-L112</f>
         <v>#REF!</v>
       </c>
-      <c r="N112" s="77" t="s">
-        <v>383</v>
+      <c r="N112" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O112" s="26"/>
       <c r="P112" s="26"/>
       <c r="AMJ112" s="0"/>
     </row>
     <row r="113" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="78" t="n">
+      <c r="A113" s="88" t="n">
         <v>44624</v>
       </c>
-      <c r="B113" s="79" t="s">
-        <v>397</v>
-      </c>
-      <c r="C113" s="79" t="s">
+      <c r="B113" s="89" t="s">
+        <v>395</v>
+      </c>
+      <c r="C113" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="D113" s="83" t="s">
+        <v>393</v>
+      </c>
+      <c r="E113" s="76" t="s">
         <v>394</v>
       </c>
-      <c r="D113" s="73" t="s">
-        <v>395</v>
-      </c>
-      <c r="E113" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="F113" s="66"/>
+      <c r="F113" s="76"/>
       <c r="G113" s="49"/>
-      <c r="H113" s="66"/>
-      <c r="I113" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J113" s="80" t="n">
+      <c r="H113" s="76"/>
+      <c r="I113" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J113" s="90" t="n">
         <f aca="false">8500</f>
         <v>8500</v>
       </c>
@@ -7494,36 +7511,36 @@
         <f aca="false">J113-K113-L113</f>
         <v>#REF!</v>
       </c>
-      <c r="N113" s="77" t="s">
-        <v>383</v>
+      <c r="N113" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O113" s="26"/>
       <c r="P113" s="26"/>
       <c r="AMJ113" s="0"/>
     </row>
     <row r="114" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="78" t="n">
+      <c r="A114" s="88" t="n">
         <v>44624</v>
       </c>
-      <c r="B114" s="79" t="s">
-        <v>397</v>
-      </c>
-      <c r="C114" s="79" t="s">
+      <c r="B114" s="89" t="s">
+        <v>395</v>
+      </c>
+      <c r="C114" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="D114" s="83" t="s">
+        <v>393</v>
+      </c>
+      <c r="E114" s="76" t="s">
         <v>394</v>
       </c>
-      <c r="D114" s="73" t="s">
-        <v>395</v>
-      </c>
-      <c r="E114" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="F114" s="66"/>
+      <c r="F114" s="76"/>
       <c r="G114" s="49"/>
-      <c r="H114" s="66"/>
-      <c r="I114" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J114" s="80" t="n">
+      <c r="H114" s="76"/>
+      <c r="I114" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J114" s="90" t="n">
         <f aca="false">8500</f>
         <v>8500</v>
       </c>
@@ -7536,36 +7553,36 @@
         <f aca="false">J114-K114-L114</f>
         <v>#REF!</v>
       </c>
-      <c r="N114" s="77" t="s">
-        <v>383</v>
+      <c r="N114" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O114" s="26"/>
       <c r="P114" s="26"/>
       <c r="AMJ114" s="0"/>
     </row>
     <row r="115" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="78" t="n">
+      <c r="A115" s="88" t="n">
         <v>44624</v>
       </c>
-      <c r="B115" s="79" t="s">
-        <v>397</v>
-      </c>
-      <c r="C115" s="79" t="s">
+      <c r="B115" s="89" t="s">
+        <v>395</v>
+      </c>
+      <c r="C115" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="D115" s="83" t="s">
+        <v>393</v>
+      </c>
+      <c r="E115" s="76" t="s">
         <v>394</v>
       </c>
-      <c r="D115" s="73" t="s">
-        <v>395</v>
-      </c>
-      <c r="E115" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="F115" s="66"/>
+      <c r="F115" s="76"/>
       <c r="G115" s="49"/>
-      <c r="H115" s="66"/>
-      <c r="I115" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J115" s="80" t="n">
+      <c r="H115" s="76"/>
+      <c r="I115" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J115" s="90" t="n">
         <f aca="false">8500</f>
         <v>8500</v>
       </c>
@@ -7578,36 +7595,36 @@
         <f aca="false">J115-K115-L115</f>
         <v>#REF!</v>
       </c>
-      <c r="N115" s="77" t="s">
-        <v>383</v>
+      <c r="N115" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O115" s="26"/>
       <c r="P115" s="26"/>
       <c r="AMJ115" s="0"/>
     </row>
     <row r="116" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="78" t="n">
+      <c r="A116" s="88" t="n">
         <v>44624</v>
       </c>
-      <c r="B116" s="79" t="s">
-        <v>398</v>
-      </c>
-      <c r="C116" s="79" t="s">
+      <c r="B116" s="89" t="s">
+        <v>396</v>
+      </c>
+      <c r="C116" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="D116" s="83" t="s">
+        <v>393</v>
+      </c>
+      <c r="E116" s="76" t="s">
         <v>394</v>
       </c>
-      <c r="D116" s="73" t="s">
-        <v>395</v>
-      </c>
-      <c r="E116" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="F116" s="66"/>
+      <c r="F116" s="76"/>
       <c r="G116" s="49"/>
-      <c r="H116" s="66"/>
-      <c r="I116" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J116" s="80" t="n">
+      <c r="H116" s="76"/>
+      <c r="I116" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J116" s="90" t="n">
         <f aca="false">16000</f>
         <v>16000</v>
       </c>
@@ -7620,36 +7637,36 @@
         <f aca="false">J116-K116-L116</f>
         <v>#REF!</v>
       </c>
-      <c r="N116" s="77" t="s">
-        <v>383</v>
+      <c r="N116" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O116" s="26"/>
       <c r="P116" s="26"/>
       <c r="AMJ116" s="0"/>
     </row>
     <row r="117" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="78" t="n">
+      <c r="A117" s="88" t="n">
         <v>44624</v>
       </c>
-      <c r="B117" s="79" t="s">
-        <v>398</v>
-      </c>
-      <c r="C117" s="79" t="s">
+      <c r="B117" s="89" t="s">
+        <v>396</v>
+      </c>
+      <c r="C117" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="D117" s="83" t="s">
+        <v>393</v>
+      </c>
+      <c r="E117" s="76" t="s">
         <v>394</v>
       </c>
-      <c r="D117" s="73" t="s">
-        <v>395</v>
-      </c>
-      <c r="E117" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="F117" s="66"/>
+      <c r="F117" s="76"/>
       <c r="G117" s="49"/>
-      <c r="H117" s="66"/>
-      <c r="I117" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J117" s="80" t="n">
+      <c r="H117" s="76"/>
+      <c r="I117" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J117" s="90" t="n">
         <f aca="false">16000</f>
         <v>16000</v>
       </c>
@@ -7662,36 +7679,36 @@
         <f aca="false">J117-K117-L117</f>
         <v>#REF!</v>
       </c>
-      <c r="N117" s="77" t="s">
-        <v>383</v>
+      <c r="N117" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O117" s="26"/>
       <c r="P117" s="26"/>
       <c r="AMJ117" s="0"/>
     </row>
     <row r="118" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="78" t="n">
+      <c r="A118" s="88" t="n">
         <v>44624</v>
       </c>
-      <c r="B118" s="79" t="s">
-        <v>399</v>
-      </c>
-      <c r="C118" s="79" t="s">
+      <c r="B118" s="89" t="s">
+        <v>397</v>
+      </c>
+      <c r="C118" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="D118" s="83" t="s">
+        <v>393</v>
+      </c>
+      <c r="E118" s="76" t="s">
         <v>394</v>
       </c>
-      <c r="D118" s="73" t="s">
-        <v>395</v>
-      </c>
-      <c r="E118" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="F118" s="66"/>
+      <c r="F118" s="76"/>
       <c r="G118" s="49"/>
-      <c r="H118" s="66"/>
-      <c r="I118" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J118" s="80" t="n">
+      <c r="H118" s="76"/>
+      <c r="I118" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J118" s="90" t="n">
         <f aca="false">12000</f>
         <v>12000</v>
       </c>
@@ -7704,36 +7721,36 @@
         <f aca="false">J118-K118-L118</f>
         <v>#REF!</v>
       </c>
-      <c r="N118" s="77" t="s">
-        <v>383</v>
+      <c r="N118" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O118" s="26"/>
       <c r="P118" s="26"/>
       <c r="AMJ118" s="0"/>
     </row>
     <row r="119" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="78" t="n">
+      <c r="A119" s="88" t="n">
         <v>44624</v>
       </c>
-      <c r="B119" s="79" t="s">
-        <v>399</v>
-      </c>
-      <c r="C119" s="79" t="s">
+      <c r="B119" s="89" t="s">
+        <v>397</v>
+      </c>
+      <c r="C119" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="D119" s="83" t="s">
+        <v>393</v>
+      </c>
+      <c r="E119" s="76" t="s">
         <v>394</v>
       </c>
-      <c r="D119" s="73" t="s">
-        <v>395</v>
-      </c>
-      <c r="E119" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="F119" s="66"/>
+      <c r="F119" s="76"/>
       <c r="G119" s="49"/>
-      <c r="H119" s="66"/>
-      <c r="I119" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J119" s="80" t="n">
+      <c r="H119" s="76"/>
+      <c r="I119" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J119" s="90" t="n">
         <f aca="false">12000</f>
         <v>12000</v>
       </c>
@@ -7746,36 +7763,36 @@
         <f aca="false">J119-K119-L119</f>
         <v>#REF!</v>
       </c>
-      <c r="N119" s="77" t="s">
-        <v>383</v>
+      <c r="N119" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O119" s="26"/>
       <c r="P119" s="26"/>
       <c r="AMJ119" s="0"/>
     </row>
     <row r="120" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="78" t="n">
+      <c r="A120" s="88" t="n">
         <v>44624</v>
       </c>
-      <c r="B120" s="79" t="s">
-        <v>400</v>
-      </c>
-      <c r="C120" s="79" t="s">
+      <c r="B120" s="89" t="s">
+        <v>398</v>
+      </c>
+      <c r="C120" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="D120" s="83" t="s">
+        <v>393</v>
+      </c>
+      <c r="E120" s="76" t="s">
         <v>394</v>
       </c>
-      <c r="D120" s="73" t="s">
-        <v>395</v>
-      </c>
-      <c r="E120" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="F120" s="66"/>
+      <c r="F120" s="76"/>
       <c r="G120" s="49"/>
-      <c r="H120" s="66"/>
-      <c r="I120" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J120" s="80" t="n">
+      <c r="H120" s="76"/>
+      <c r="I120" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J120" s="90" t="n">
         <f aca="false">31304.35</f>
         <v>31304.35</v>
       </c>
@@ -7788,36 +7805,36 @@
         <f aca="false">J120-K120-L120</f>
         <v>#REF!</v>
       </c>
-      <c r="N120" s="77" t="s">
-        <v>383</v>
+      <c r="N120" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O120" s="26"/>
       <c r="P120" s="26"/>
       <c r="AMJ120" s="0"/>
     </row>
     <row r="121" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="78" t="n">
+      <c r="A121" s="88" t="n">
         <v>44624</v>
       </c>
-      <c r="B121" s="79" t="s">
-        <v>400</v>
-      </c>
-      <c r="C121" s="79" t="s">
+      <c r="B121" s="89" t="s">
+        <v>398</v>
+      </c>
+      <c r="C121" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="D121" s="83" t="s">
+        <v>393</v>
+      </c>
+      <c r="E121" s="76" t="s">
         <v>394</v>
       </c>
-      <c r="D121" s="73" t="s">
-        <v>395</v>
-      </c>
-      <c r="E121" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="F121" s="66"/>
+      <c r="F121" s="76"/>
       <c r="G121" s="49"/>
-      <c r="H121" s="66"/>
-      <c r="I121" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J121" s="80" t="n">
+      <c r="H121" s="76"/>
+      <c r="I121" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J121" s="90" t="n">
         <f aca="false">31304.35</f>
         <v>31304.35</v>
       </c>
@@ -7830,36 +7847,36 @@
         <f aca="false">J121-K121-L121</f>
         <v>#REF!</v>
       </c>
-      <c r="N121" s="77" t="s">
-        <v>383</v>
+      <c r="N121" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O121" s="26"/>
       <c r="P121" s="26"/>
       <c r="AMJ121" s="0"/>
     </row>
     <row r="122" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="78" t="n">
+      <c r="A122" s="88" t="n">
         <v>44649</v>
       </c>
-      <c r="B122" s="79" t="s">
+      <c r="B122" s="89" t="s">
+        <v>399</v>
+      </c>
+      <c r="C122" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="D122" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="E122" s="76" t="s">
         <v>401</v>
       </c>
-      <c r="C122" s="79" t="s">
-        <v>402</v>
-      </c>
-      <c r="D122" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="E122" s="66" t="s">
-        <v>403</v>
-      </c>
-      <c r="F122" s="66"/>
+      <c r="F122" s="76"/>
       <c r="G122" s="49"/>
-      <c r="H122" s="66"/>
-      <c r="I122" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J122" s="80" t="n">
+      <c r="H122" s="76"/>
+      <c r="I122" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J122" s="90" t="n">
         <v>16500</v>
       </c>
       <c r="K122" s="36" t="e">
@@ -7871,36 +7888,36 @@
         <f aca="false">J122-K122-L122</f>
         <v>#REF!</v>
       </c>
-      <c r="N122" s="77" t="s">
-        <v>383</v>
+      <c r="N122" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O122" s="26"/>
       <c r="P122" s="26"/>
       <c r="AMJ122" s="0"/>
     </row>
     <row r="123" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="78" t="n">
+      <c r="A123" s="88" t="n">
         <v>44649</v>
       </c>
-      <c r="B123" s="79" t="s">
+      <c r="B123" s="89" t="s">
+        <v>399</v>
+      </c>
+      <c r="C123" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="D123" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="E123" s="76" t="s">
         <v>401</v>
       </c>
-      <c r="C123" s="79" t="s">
-        <v>402</v>
-      </c>
-      <c r="D123" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="E123" s="66" t="s">
-        <v>403</v>
-      </c>
-      <c r="F123" s="66"/>
+      <c r="F123" s="76"/>
       <c r="G123" s="49"/>
-      <c r="H123" s="66"/>
-      <c r="I123" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J123" s="80" t="n">
+      <c r="H123" s="76"/>
+      <c r="I123" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J123" s="90" t="n">
         <v>16500</v>
       </c>
       <c r="K123" s="36" t="e">
@@ -7912,36 +7929,36 @@
         <f aca="false">J123-K123-L123</f>
         <v>#REF!</v>
       </c>
-      <c r="N123" s="77" t="s">
-        <v>383</v>
+      <c r="N123" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O123" s="26"/>
       <c r="P123" s="26"/>
       <c r="AMJ123" s="0"/>
     </row>
     <row r="124" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="78" t="n">
+      <c r="A124" s="88" t="n">
         <v>44649</v>
       </c>
-      <c r="B124" s="79" t="s">
+      <c r="B124" s="89" t="s">
+        <v>399</v>
+      </c>
+      <c r="C124" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="D124" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="E124" s="76" t="s">
         <v>401</v>
       </c>
-      <c r="C124" s="79" t="s">
-        <v>402</v>
-      </c>
-      <c r="D124" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="E124" s="66" t="s">
-        <v>403</v>
-      </c>
-      <c r="F124" s="66"/>
+      <c r="F124" s="76"/>
       <c r="G124" s="49"/>
-      <c r="H124" s="66"/>
-      <c r="I124" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J124" s="80" t="n">
+      <c r="H124" s="76"/>
+      <c r="I124" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J124" s="90" t="n">
         <v>16500</v>
       </c>
       <c r="K124" s="36" t="e">
@@ -7953,36 +7970,36 @@
         <f aca="false">J124-K124-L124</f>
         <v>#REF!</v>
       </c>
-      <c r="N124" s="77" t="s">
-        <v>383</v>
+      <c r="N124" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O124" s="26"/>
       <c r="P124" s="26"/>
       <c r="AMJ124" s="0"/>
     </row>
     <row r="125" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="78" t="n">
+      <c r="A125" s="88" t="n">
         <v>44649</v>
       </c>
-      <c r="B125" s="79" t="s">
+      <c r="B125" s="89" t="s">
+        <v>399</v>
+      </c>
+      <c r="C125" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="D125" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="E125" s="76" t="s">
         <v>401</v>
       </c>
-      <c r="C125" s="79" t="s">
-        <v>402</v>
-      </c>
-      <c r="D125" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="E125" s="66" t="s">
-        <v>403</v>
-      </c>
-      <c r="F125" s="66"/>
+      <c r="F125" s="76"/>
       <c r="G125" s="49"/>
-      <c r="H125" s="66"/>
-      <c r="I125" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J125" s="80" t="n">
+      <c r="H125" s="76"/>
+      <c r="I125" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J125" s="90" t="n">
         <v>16500</v>
       </c>
       <c r="K125" s="36" t="e">
@@ -7994,36 +8011,36 @@
         <f aca="false">J125-K125-L125</f>
         <v>#REF!</v>
       </c>
-      <c r="N125" s="77" t="s">
-        <v>383</v>
+      <c r="N125" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O125" s="26"/>
       <c r="P125" s="26"/>
       <c r="AMJ125" s="0"/>
     </row>
     <row r="126" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="78" t="n">
+      <c r="A126" s="88" t="n">
         <v>44649</v>
       </c>
-      <c r="B126" s="79" t="s">
+      <c r="B126" s="89" t="s">
+        <v>399</v>
+      </c>
+      <c r="C126" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="D126" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="E126" s="76" t="s">
         <v>401</v>
       </c>
-      <c r="C126" s="79" t="s">
-        <v>402</v>
-      </c>
-      <c r="D126" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="E126" s="66" t="s">
-        <v>403</v>
-      </c>
-      <c r="F126" s="66"/>
+      <c r="F126" s="76"/>
       <c r="G126" s="49"/>
-      <c r="H126" s="66"/>
-      <c r="I126" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J126" s="80" t="n">
+      <c r="H126" s="76"/>
+      <c r="I126" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J126" s="90" t="n">
         <v>16500</v>
       </c>
       <c r="K126" s="36" t="e">
@@ -8035,36 +8052,36 @@
         <f aca="false">J126-K126-L126</f>
         <v>#REF!</v>
       </c>
-      <c r="N126" s="77" t="s">
-        <v>383</v>
+      <c r="N126" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O126" s="26"/>
       <c r="P126" s="26"/>
       <c r="AMJ126" s="0"/>
     </row>
     <row r="127" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="78" t="n">
+      <c r="A127" s="88" t="n">
         <v>44649</v>
       </c>
-      <c r="B127" s="79" t="s">
+      <c r="B127" s="89" t="s">
+        <v>399</v>
+      </c>
+      <c r="C127" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="D127" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="E127" s="76" t="s">
         <v>401</v>
       </c>
-      <c r="C127" s="79" t="s">
-        <v>402</v>
-      </c>
-      <c r="D127" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="E127" s="66" t="s">
-        <v>403</v>
-      </c>
-      <c r="F127" s="66"/>
+      <c r="F127" s="76"/>
       <c r="G127" s="49"/>
-      <c r="H127" s="66"/>
-      <c r="I127" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J127" s="80" t="n">
+      <c r="H127" s="76"/>
+      <c r="I127" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J127" s="90" t="n">
         <v>16500</v>
       </c>
       <c r="K127" s="36" t="e">
@@ -8076,36 +8093,36 @@
         <f aca="false">J127-K127-L127</f>
         <v>#REF!</v>
       </c>
-      <c r="N127" s="77" t="s">
-        <v>383</v>
+      <c r="N127" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O127" s="26"/>
       <c r="P127" s="26"/>
       <c r="AMJ127" s="0"/>
     </row>
     <row r="128" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="78" t="n">
+      <c r="A128" s="88" t="n">
         <v>44649</v>
       </c>
-      <c r="B128" s="79" t="s">
+      <c r="B128" s="89" t="s">
+        <v>399</v>
+      </c>
+      <c r="C128" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="D128" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="E128" s="76" t="s">
         <v>401</v>
       </c>
-      <c r="C128" s="79" t="s">
-        <v>402</v>
-      </c>
-      <c r="D128" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="E128" s="66" t="s">
-        <v>403</v>
-      </c>
-      <c r="F128" s="66"/>
+      <c r="F128" s="76"/>
       <c r="G128" s="49"/>
-      <c r="H128" s="66"/>
-      <c r="I128" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J128" s="80" t="n">
+      <c r="H128" s="76"/>
+      <c r="I128" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J128" s="90" t="n">
         <v>16500</v>
       </c>
       <c r="K128" s="36" t="e">
@@ -8117,36 +8134,36 @@
         <f aca="false">J128-K128-L128</f>
         <v>#REF!</v>
       </c>
-      <c r="N128" s="77" t="s">
-        <v>383</v>
+      <c r="N128" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O128" s="26"/>
       <c r="P128" s="26"/>
       <c r="AMJ128" s="0"/>
     </row>
     <row r="129" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="78" t="n">
+      <c r="A129" s="88" t="n">
         <v>44649</v>
       </c>
-      <c r="B129" s="79" t="s">
+      <c r="B129" s="89" t="s">
+        <v>399</v>
+      </c>
+      <c r="C129" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="D129" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="E129" s="76" t="s">
         <v>401</v>
       </c>
-      <c r="C129" s="79" t="s">
-        <v>402</v>
-      </c>
-      <c r="D129" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="E129" s="66" t="s">
-        <v>403</v>
-      </c>
-      <c r="F129" s="66"/>
+      <c r="F129" s="76"/>
       <c r="G129" s="49"/>
-      <c r="H129" s="66"/>
-      <c r="I129" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J129" s="80" t="n">
+      <c r="H129" s="76"/>
+      <c r="I129" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J129" s="90" t="n">
         <v>16500</v>
       </c>
       <c r="K129" s="36" t="e">
@@ -8158,36 +8175,36 @@
         <f aca="false">J129-K129-L129</f>
         <v>#REF!</v>
       </c>
-      <c r="N129" s="77" t="s">
-        <v>383</v>
+      <c r="N129" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O129" s="26"/>
       <c r="P129" s="26"/>
       <c r="AMJ129" s="0"/>
     </row>
     <row r="130" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="78" t="n">
+      <c r="A130" s="88" t="n">
         <v>44649</v>
       </c>
-      <c r="B130" s="79" t="s">
+      <c r="B130" s="89" t="s">
+        <v>399</v>
+      </c>
+      <c r="C130" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="D130" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="E130" s="76" t="s">
         <v>401</v>
       </c>
-      <c r="C130" s="79" t="s">
-        <v>402</v>
-      </c>
-      <c r="D130" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="E130" s="66" t="s">
-        <v>403</v>
-      </c>
-      <c r="F130" s="66"/>
+      <c r="F130" s="76"/>
       <c r="G130" s="49"/>
-      <c r="H130" s="66"/>
-      <c r="I130" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J130" s="80" t="n">
+      <c r="H130" s="76"/>
+      <c r="I130" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J130" s="90" t="n">
         <v>16500</v>
       </c>
       <c r="K130" s="36" t="e">
@@ -8199,36 +8216,36 @@
         <f aca="false">J130-K130-L130</f>
         <v>#REF!</v>
       </c>
-      <c r="N130" s="77" t="s">
-        <v>383</v>
+      <c r="N130" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O130" s="26"/>
       <c r="P130" s="26"/>
       <c r="AMJ130" s="0"/>
     </row>
     <row r="131" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="78" t="n">
+      <c r="A131" s="88" t="n">
         <v>44649</v>
       </c>
-      <c r="B131" s="79" t="s">
+      <c r="B131" s="89" t="s">
+        <v>399</v>
+      </c>
+      <c r="C131" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="D131" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="E131" s="76" t="s">
         <v>401</v>
       </c>
-      <c r="C131" s="79" t="s">
-        <v>402</v>
-      </c>
-      <c r="D131" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="E131" s="66" t="s">
-        <v>403</v>
-      </c>
-      <c r="F131" s="66"/>
+      <c r="F131" s="76"/>
       <c r="G131" s="49"/>
-      <c r="H131" s="66"/>
-      <c r="I131" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J131" s="80" t="n">
+      <c r="H131" s="76"/>
+      <c r="I131" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J131" s="90" t="n">
         <v>16500</v>
       </c>
       <c r="K131" s="36" t="e">
@@ -8240,36 +8257,36 @@
         <f aca="false">J131-K131-L131</f>
         <v>#REF!</v>
       </c>
-      <c r="N131" s="77" t="s">
-        <v>383</v>
+      <c r="N131" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O131" s="26"/>
       <c r="P131" s="26"/>
       <c r="AMJ131" s="0"/>
     </row>
     <row r="132" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="78" t="n">
+      <c r="A132" s="88" t="n">
         <v>44649</v>
       </c>
-      <c r="B132" s="79" t="s">
+      <c r="B132" s="89" t="s">
+        <v>399</v>
+      </c>
+      <c r="C132" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="D132" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="E132" s="76" t="s">
         <v>401</v>
       </c>
-      <c r="C132" s="79" t="s">
-        <v>402</v>
-      </c>
-      <c r="D132" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="E132" s="66" t="s">
-        <v>403</v>
-      </c>
-      <c r="F132" s="66"/>
+      <c r="F132" s="76"/>
       <c r="G132" s="49"/>
-      <c r="H132" s="66"/>
-      <c r="I132" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J132" s="80" t="n">
+      <c r="H132" s="76"/>
+      <c r="I132" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J132" s="90" t="n">
         <v>16500</v>
       </c>
       <c r="K132" s="36" t="e">
@@ -8281,36 +8298,36 @@
         <f aca="false">J132-K132-L132</f>
         <v>#REF!</v>
       </c>
-      <c r="N132" s="77" t="s">
-        <v>383</v>
+      <c r="N132" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O132" s="26"/>
       <c r="P132" s="26"/>
       <c r="AMJ132" s="0"/>
     </row>
     <row r="133" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="78" t="n">
+      <c r="A133" s="88" t="n">
         <v>44649</v>
       </c>
-      <c r="B133" s="79" t="s">
-        <v>404</v>
-      </c>
-      <c r="C133" s="79" t="s">
+      <c r="B133" s="89" t="s">
         <v>402</v>
       </c>
-      <c r="D133" s="73" t="s">
+      <c r="C133" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="D133" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="E133" s="66" t="s">
-        <v>403</v>
-      </c>
-      <c r="F133" s="66"/>
+      <c r="E133" s="76" t="s">
+        <v>401</v>
+      </c>
+      <c r="F133" s="76"/>
       <c r="G133" s="49"/>
-      <c r="H133" s="66"/>
-      <c r="I133" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J133" s="80" t="n">
+      <c r="H133" s="76"/>
+      <c r="I133" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J133" s="90" t="n">
         <f aca="false">13000</f>
         <v>13000</v>
       </c>
@@ -8323,36 +8340,36 @@
         <f aca="false">J133-K133-L133</f>
         <v>#REF!</v>
       </c>
-      <c r="N133" s="77" t="s">
-        <v>383</v>
+      <c r="N133" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O133" s="26"/>
       <c r="P133" s="26"/>
       <c r="AMJ133" s="0"/>
     </row>
     <row r="134" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="78" t="n">
+      <c r="A134" s="88" t="n">
         <v>44649</v>
       </c>
-      <c r="B134" s="79" t="s">
-        <v>404</v>
-      </c>
-      <c r="C134" s="79" t="s">
+      <c r="B134" s="89" t="s">
         <v>402</v>
       </c>
-      <c r="D134" s="73" t="s">
+      <c r="C134" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="D134" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="E134" s="66" t="s">
-        <v>403</v>
-      </c>
-      <c r="F134" s="66"/>
+      <c r="E134" s="76" t="s">
+        <v>401</v>
+      </c>
+      <c r="F134" s="76"/>
       <c r="G134" s="49"/>
-      <c r="H134" s="66"/>
-      <c r="I134" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J134" s="80" t="n">
+      <c r="H134" s="76"/>
+      <c r="I134" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J134" s="90" t="n">
         <f aca="false">13000</f>
         <v>13000</v>
       </c>
@@ -8365,36 +8382,36 @@
         <f aca="false">J134-K134-L134</f>
         <v>#REF!</v>
       </c>
-      <c r="N134" s="77" t="s">
-        <v>383</v>
+      <c r="N134" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O134" s="26"/>
       <c r="P134" s="26"/>
       <c r="AMJ134" s="0"/>
     </row>
     <row r="135" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="78" t="n">
+      <c r="A135" s="88" t="n">
         <v>44649</v>
       </c>
-      <c r="B135" s="79" t="s">
-        <v>404</v>
-      </c>
-      <c r="C135" s="79" t="s">
+      <c r="B135" s="89" t="s">
         <v>402</v>
       </c>
-      <c r="D135" s="73" t="s">
+      <c r="C135" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="D135" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="E135" s="66" t="s">
-        <v>403</v>
-      </c>
-      <c r="F135" s="66"/>
+      <c r="E135" s="76" t="s">
+        <v>401</v>
+      </c>
+      <c r="F135" s="76"/>
       <c r="G135" s="49"/>
-      <c r="H135" s="66"/>
-      <c r="I135" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J135" s="80" t="n">
+      <c r="H135" s="76"/>
+      <c r="I135" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J135" s="90" t="n">
         <f aca="false">13000</f>
         <v>13000</v>
       </c>
@@ -8407,36 +8424,36 @@
         <f aca="false">J135-K135-L135</f>
         <v>#REF!</v>
       </c>
-      <c r="N135" s="77" t="s">
-        <v>383</v>
+      <c r="N135" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O135" s="26"/>
       <c r="P135" s="26"/>
       <c r="AMJ135" s="0"/>
     </row>
     <row r="136" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="78" t="n">
+      <c r="A136" s="88" t="n">
         <v>44649</v>
       </c>
-      <c r="B136" s="79" t="s">
-        <v>404</v>
-      </c>
-      <c r="C136" s="79" t="s">
+      <c r="B136" s="89" t="s">
         <v>402</v>
       </c>
-      <c r="D136" s="73" t="s">
+      <c r="C136" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="D136" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="E136" s="66" t="s">
-        <v>403</v>
-      </c>
-      <c r="F136" s="66"/>
+      <c r="E136" s="76" t="s">
+        <v>401</v>
+      </c>
+      <c r="F136" s="76"/>
       <c r="G136" s="49"/>
-      <c r="H136" s="66"/>
-      <c r="I136" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J136" s="80" t="n">
+      <c r="H136" s="76"/>
+      <c r="I136" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J136" s="90" t="n">
         <f aca="false">13000</f>
         <v>13000</v>
       </c>
@@ -8449,36 +8466,36 @@
         <f aca="false">J136-K136-L136</f>
         <v>#REF!</v>
       </c>
-      <c r="N136" s="77" t="s">
-        <v>383</v>
+      <c r="N136" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O136" s="26"/>
       <c r="P136" s="26"/>
       <c r="AMJ136" s="0"/>
     </row>
     <row r="137" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="78" t="n">
+      <c r="A137" s="88" t="n">
         <v>44649</v>
       </c>
-      <c r="B137" s="79" t="s">
-        <v>397</v>
-      </c>
-      <c r="C137" s="79" t="s">
-        <v>402</v>
-      </c>
-      <c r="D137" s="73" t="s">
+      <c r="B137" s="89" t="s">
+        <v>395</v>
+      </c>
+      <c r="C137" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="D137" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="E137" s="66" t="s">
-        <v>403</v>
-      </c>
-      <c r="F137" s="66"/>
+      <c r="E137" s="76" t="s">
+        <v>401</v>
+      </c>
+      <c r="F137" s="76"/>
       <c r="G137" s="49"/>
-      <c r="H137" s="66"/>
-      <c r="I137" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J137" s="80" t="n">
+      <c r="H137" s="76"/>
+      <c r="I137" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J137" s="90" t="n">
         <f aca="false">8500</f>
         <v>8500</v>
       </c>
@@ -8491,36 +8508,36 @@
         <f aca="false">J137-K137-L137</f>
         <v>#REF!</v>
       </c>
-      <c r="N137" s="77" t="s">
-        <v>383</v>
+      <c r="N137" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O137" s="26"/>
       <c r="P137" s="26"/>
       <c r="AMJ137" s="0"/>
     </row>
     <row r="138" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="78" t="n">
+      <c r="A138" s="88" t="n">
         <v>44649</v>
       </c>
-      <c r="B138" s="79" t="s">
-        <v>397</v>
-      </c>
-      <c r="C138" s="79" t="s">
-        <v>402</v>
-      </c>
-      <c r="D138" s="73" t="s">
+      <c r="B138" s="89" t="s">
+        <v>395</v>
+      </c>
+      <c r="C138" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="D138" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="E138" s="66" t="s">
-        <v>403</v>
-      </c>
-      <c r="F138" s="66"/>
+      <c r="E138" s="76" t="s">
+        <v>401</v>
+      </c>
+      <c r="F138" s="76"/>
       <c r="G138" s="49"/>
-      <c r="H138" s="66"/>
-      <c r="I138" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J138" s="80" t="n">
+      <c r="H138" s="76"/>
+      <c r="I138" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J138" s="90" t="n">
         <f aca="false">8500</f>
         <v>8500</v>
       </c>
@@ -8533,36 +8550,36 @@
         <f aca="false">J138-K138-L138</f>
         <v>#REF!</v>
       </c>
-      <c r="N138" s="77" t="s">
-        <v>383</v>
+      <c r="N138" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O138" s="26"/>
       <c r="P138" s="26"/>
       <c r="AMJ138" s="0"/>
     </row>
     <row r="139" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="78" t="n">
+      <c r="A139" s="88" t="n">
         <v>44649</v>
       </c>
-      <c r="B139" s="79" t="s">
-        <v>397</v>
-      </c>
-      <c r="C139" s="79" t="s">
-        <v>402</v>
-      </c>
-      <c r="D139" s="73" t="s">
+      <c r="B139" s="89" t="s">
+        <v>395</v>
+      </c>
+      <c r="C139" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="D139" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="E139" s="66" t="s">
-        <v>403</v>
-      </c>
-      <c r="F139" s="66"/>
+      <c r="E139" s="76" t="s">
+        <v>401</v>
+      </c>
+      <c r="F139" s="76"/>
       <c r="G139" s="49"/>
-      <c r="H139" s="66"/>
-      <c r="I139" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J139" s="80" t="n">
+      <c r="H139" s="76"/>
+      <c r="I139" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J139" s="90" t="n">
         <f aca="false">8500</f>
         <v>8500</v>
       </c>
@@ -8575,36 +8592,36 @@
         <f aca="false">J139-K139-L139</f>
         <v>#REF!</v>
       </c>
-      <c r="N139" s="77" t="s">
-        <v>383</v>
+      <c r="N139" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O139" s="26"/>
       <c r="P139" s="26"/>
       <c r="AMJ139" s="0"/>
     </row>
     <row r="140" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="78" t="n">
+      <c r="A140" s="88" t="n">
         <v>44649</v>
       </c>
-      <c r="B140" s="79" t="s">
-        <v>405</v>
-      </c>
-      <c r="C140" s="79" t="s">
-        <v>402</v>
-      </c>
-      <c r="D140" s="73" t="s">
+      <c r="B140" s="89" t="s">
+        <v>403</v>
+      </c>
+      <c r="C140" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="D140" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="E140" s="66" t="s">
-        <v>403</v>
-      </c>
-      <c r="F140" s="66"/>
+      <c r="E140" s="76" t="s">
+        <v>401</v>
+      </c>
+      <c r="F140" s="76"/>
       <c r="G140" s="49"/>
-      <c r="H140" s="66"/>
-      <c r="I140" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J140" s="80" t="n">
+      <c r="H140" s="76"/>
+      <c r="I140" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J140" s="90" t="n">
         <v>8000</v>
       </c>
       <c r="K140" s="36" t="e">
@@ -8616,36 +8633,36 @@
         <f aca="false">J140-K140-L140</f>
         <v>#REF!</v>
       </c>
-      <c r="N140" s="77" t="s">
-        <v>383</v>
+      <c r="N140" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O140" s="26"/>
       <c r="P140" s="26"/>
       <c r="AMJ140" s="0"/>
     </row>
     <row r="141" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="78" t="n">
+      <c r="A141" s="88" t="n">
         <v>44649</v>
       </c>
-      <c r="B141" s="79" t="s">
-        <v>406</v>
-      </c>
-      <c r="C141" s="79" t="s">
-        <v>402</v>
-      </c>
-      <c r="D141" s="73" t="s">
+      <c r="B141" s="89" t="s">
+        <v>404</v>
+      </c>
+      <c r="C141" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="D141" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="E141" s="66" t="s">
-        <v>403</v>
-      </c>
-      <c r="F141" s="66"/>
+      <c r="E141" s="76" t="s">
+        <v>401</v>
+      </c>
+      <c r="F141" s="76"/>
       <c r="G141" s="49"/>
-      <c r="H141" s="66"/>
-      <c r="I141" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J141" s="80" t="n">
+      <c r="H141" s="76"/>
+      <c r="I141" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J141" s="90" t="n">
         <f aca="false">8000</f>
         <v>8000</v>
       </c>
@@ -8658,36 +8675,36 @@
         <f aca="false">J141-K141-L141</f>
         <v>#REF!</v>
       </c>
-      <c r="N141" s="77" t="s">
-        <v>383</v>
+      <c r="N141" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O141" s="26"/>
       <c r="P141" s="26"/>
       <c r="AMJ141" s="0"/>
     </row>
     <row r="142" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="78" t="n">
+      <c r="A142" s="88" t="n">
         <v>44649</v>
       </c>
-      <c r="B142" s="79" t="s">
-        <v>407</v>
-      </c>
-      <c r="C142" s="79" t="s">
-        <v>402</v>
-      </c>
-      <c r="D142" s="73" t="s">
+      <c r="B142" s="89" t="s">
+        <v>405</v>
+      </c>
+      <c r="C142" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="D142" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="E142" s="66" t="s">
-        <v>403</v>
-      </c>
-      <c r="F142" s="66"/>
+      <c r="E142" s="76" t="s">
+        <v>401</v>
+      </c>
+      <c r="F142" s="76"/>
       <c r="G142" s="49"/>
-      <c r="H142" s="66"/>
-      <c r="I142" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J142" s="80" t="n">
+      <c r="H142" s="76"/>
+      <c r="I142" s="85" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J142" s="90" t="n">
         <v>7000</v>
       </c>
       <c r="K142" s="36" t="e">
@@ -8699,33 +8716,33 @@
         <f aca="false">J142-K142-L142</f>
         <v>#REF!</v>
       </c>
-      <c r="N142" s="77" t="s">
-        <v>383</v>
+      <c r="N142" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O142" s="26"/>
       <c r="P142" s="26"/>
       <c r="AMJ142" s="0"/>
     </row>
     <row r="143" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="78" t="n">
+      <c r="A143" s="88" t="n">
         <v>44649</v>
       </c>
-      <c r="B143" s="79" t="s">
+      <c r="B143" s="89" t="s">
+        <v>398</v>
+      </c>
+      <c r="C143" s="89" t="s">
         <v>400</v>
       </c>
-      <c r="C143" s="79" t="s">
-        <v>402</v>
-      </c>
-      <c r="D143" s="73" t="s">
+      <c r="D143" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="E143" s="66" t="s">
-        <v>403</v>
-      </c>
-      <c r="F143" s="66"/>
+      <c r="E143" s="76" t="s">
+        <v>401</v>
+      </c>
+      <c r="F143" s="76"/>
       <c r="G143" s="49"/>
-      <c r="H143" s="66"/>
-      <c r="I143" s="75" t="n">
+      <c r="H143" s="76"/>
+      <c r="I143" s="85" t="n">
         <v>0.143</v>
       </c>
       <c r="J143" s="37" t="n">
@@ -8741,33 +8758,33 @@
         <f aca="false">J143-K143-L143</f>
         <v>#REF!</v>
       </c>
-      <c r="N143" s="77" t="s">
-        <v>383</v>
+      <c r="N143" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O143" s="26"/>
       <c r="P143" s="26"/>
       <c r="AMJ143" s="0"/>
     </row>
     <row r="144" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="78" t="n">
+      <c r="A144" s="88" t="n">
         <v>44649</v>
       </c>
-      <c r="B144" s="79" t="s">
+      <c r="B144" s="89" t="s">
+        <v>398</v>
+      </c>
+      <c r="C144" s="89" t="s">
         <v>400</v>
       </c>
-      <c r="C144" s="79" t="s">
-        <v>402</v>
-      </c>
-      <c r="D144" s="73" t="s">
+      <c r="D144" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="E144" s="66" t="s">
-        <v>403</v>
-      </c>
-      <c r="F144" s="66"/>
+      <c r="E144" s="76" t="s">
+        <v>401</v>
+      </c>
+      <c r="F144" s="76"/>
       <c r="G144" s="49"/>
-      <c r="H144" s="66"/>
-      <c r="I144" s="75" t="n">
+      <c r="H144" s="76"/>
+      <c r="I144" s="85" t="n">
         <v>0.143</v>
       </c>
       <c r="J144" s="37" t="n">
@@ -8783,8 +8800,8 @@
         <f aca="false">J144-K144-L144</f>
         <v>#REF!</v>
       </c>
-      <c r="N144" s="77" t="s">
-        <v>383</v>
+      <c r="N144" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="O144" s="26"/>
       <c r="P144" s="26"/>
@@ -8795,25 +8812,25 @@
         <v>42637</v>
       </c>
       <c r="B145" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="C145" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="D145" s="40" t="s">
         <v>408</v>
       </c>
-      <c r="C145" s="40" t="s">
+      <c r="E145" s="31" t="s">
         <v>409</v>
       </c>
-      <c r="D145" s="40" t="s">
+      <c r="F145" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="G145" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="H145" s="31" t="s">
         <v>410</v>
-      </c>
-      <c r="E145" s="31" t="s">
-        <v>411</v>
-      </c>
-      <c r="F145" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="G145" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="H145" s="31" t="s">
-        <v>412</v>
       </c>
       <c r="I145" s="34" t="n">
         <v>0.143</v>
@@ -8832,8 +8849,8 @@
         <f aca="false">J145-K145-L145</f>
         <v>1098.68031</v>
       </c>
-      <c r="N145" s="81" t="s">
-        <v>413</v>
+      <c r="N145" s="91" t="s">
+        <v>411</v>
       </c>
       <c r="O145" s="26"/>
       <c r="P145" s="26"/>
@@ -8844,25 +8861,25 @@
         <v>40493</v>
       </c>
       <c r="B146" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="C146" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="D146" s="40" t="s">
         <v>414</v>
       </c>
-      <c r="C146" s="40" t="s">
+      <c r="E146" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="D146" s="40" t="s">
+      <c r="F146" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="G146" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="H146" s="31" t="s">
         <v>416</v>
-      </c>
-      <c r="E146" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="F146" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="G146" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="H146" s="31" t="s">
-        <v>418</v>
       </c>
       <c r="I146" s="34" t="n">
         <v>0.143</v>
@@ -8878,8 +8895,8 @@
         <f aca="false">J146-K146-L146</f>
         <v>10</v>
       </c>
-      <c r="N146" s="81" t="s">
-        <v>413</v>
+      <c r="N146" s="91" t="s">
+        <v>411</v>
       </c>
       <c r="O146" s="26"/>
       <c r="P146" s="26"/>
@@ -8890,22 +8907,22 @@
         <v>42821</v>
       </c>
       <c r="B147" s="40" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C147" s="40" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D147" s="40" t="s">
         <v>57</v>
       </c>
       <c r="E147" s="31" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F147" s="31" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G147" s="41" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H147" s="31" t="s">
         <v>138</v>
@@ -8927,8 +8944,8 @@
         <f aca="false">J147-K147-L147</f>
         <v>895.09112</v>
       </c>
-      <c r="N147" s="81" t="s">
-        <v>413</v>
+      <c r="N147" s="91" t="s">
+        <v>411</v>
       </c>
       <c r="O147" s="26"/>
       <c r="P147" s="26"/>
@@ -8939,25 +8956,25 @@
         <v>40690</v>
       </c>
       <c r="B148" s="40" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C148" s="40" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D148" s="40" t="s">
         <v>57</v>
       </c>
       <c r="E148" s="31" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F148" s="31" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G148" s="41" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H148" s="31" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I148" s="34" t="n">
         <v>0.143</v>
@@ -8975,8 +8992,8 @@
         <f aca="false">J148-K148-L148</f>
         <v>10</v>
       </c>
-      <c r="N148" s="81" t="s">
-        <v>413</v>
+      <c r="N148" s="91" t="s">
+        <v>411</v>
       </c>
       <c r="O148" s="26"/>
       <c r="P148" s="26"/>
@@ -8987,25 +9004,25 @@
         <v>41167</v>
       </c>
       <c r="B149" s="40" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C149" s="40" t="s">
+        <v>423</v>
+      </c>
+      <c r="D149" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="E149" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="F149" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="G149" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="H149" s="31" t="s">
         <v>425</v>
-      </c>
-      <c r="D149" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="E149" s="31" t="s">
-        <v>426</v>
-      </c>
-      <c r="F149" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="G149" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="H149" s="31" t="s">
-        <v>427</v>
       </c>
       <c r="I149" s="34" t="n">
         <v>0.143</v>
@@ -9023,37 +9040,37 @@
         <f aca="false">J149-K149-L149</f>
         <v>10</v>
       </c>
-      <c r="N149" s="81" t="s">
-        <v>413</v>
+      <c r="N149" s="91" t="s">
+        <v>411</v>
       </c>
       <c r="O149" s="26"/>
       <c r="P149" s="26"/>
       <c r="AMJ149" s="0"/>
     </row>
     <row r="150" s="27" customFormat="true" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="70" t="n">
+      <c r="A150" s="80" t="n">
         <v>41382</v>
       </c>
       <c r="B150" s="40" t="s">
+        <v>426</v>
+      </c>
+      <c r="C150" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="D150" s="40" t="s">
         <v>428</v>
       </c>
-      <c r="C150" s="40" t="s">
+      <c r="E150" s="92" t="s">
         <v>429</v>
       </c>
-      <c r="D150" s="40" t="s">
+      <c r="F150" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="G150" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="H150" s="92" t="s">
         <v>430</v>
-      </c>
-      <c r="E150" s="82" t="s">
-        <v>431</v>
-      </c>
-      <c r="F150" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="G150" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="H150" s="82" t="s">
-        <v>432</v>
       </c>
       <c r="I150" s="34" t="n">
         <v>0.143</v>
@@ -9071,8 +9088,8 @@
         <f aca="false">J150-K150-L150</f>
         <v>10</v>
       </c>
-      <c r="N150" s="81" t="s">
-        <v>413</v>
+      <c r="N150" s="91" t="s">
+        <v>411</v>
       </c>
       <c r="O150" s="26"/>
       <c r="P150" s="26"/>
@@ -9082,31 +9099,31 @@
       <c r="A151" s="28" t="n">
         <v>41122</v>
       </c>
-      <c r="B151" s="83" t="s">
+      <c r="B151" s="93" t="s">
+        <v>431</v>
+      </c>
+      <c r="C151" s="68" t="s">
+        <v>432</v>
+      </c>
+      <c r="D151" s="29" t="s">
         <v>433</v>
       </c>
-      <c r="C151" s="60" t="s">
+      <c r="E151" s="45" t="s">
         <v>434</v>
       </c>
-      <c r="D151" s="29" t="s">
+      <c r="F151" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="G151" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="H151" s="45" t="s">
         <v>435</v>
       </c>
-      <c r="E151" s="45" t="s">
-        <v>436</v>
-      </c>
-      <c r="F151" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="G151" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="H151" s="45" t="s">
-        <v>437</v>
-      </c>
       <c r="I151" s="34" t="n">
         <v>0.143</v>
       </c>
-      <c r="J151" s="61" t="n">
+      <c r="J151" s="69" t="n">
         <v>5956.51</v>
       </c>
       <c r="K151" s="36"/>
@@ -9117,7 +9134,7 @@
         <f aca="false">J151-K151-L151</f>
         <v>10</v>
       </c>
-      <c r="N151" s="81" t="str">
+      <c r="N151" s="91" t="str">
         <f aca="false">+N146</f>
         <v>Damage</v>
       </c>
@@ -9130,7 +9147,7 @@
         <v>43104</v>
       </c>
       <c r="B152" s="29" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C152" s="29" t="s">
         <v>90</v>
@@ -9142,13 +9159,13 @@
         <v>91</v>
       </c>
       <c r="F152" s="31" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G152" s="41" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H152" s="45" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I152" s="34" t="n">
         <v>0.143</v>
@@ -9167,7 +9184,7 @@
         <f aca="false">J152-K152-L152</f>
         <v>789.38323</v>
       </c>
-      <c r="N152" s="81" t="str">
+      <c r="N152" s="91" t="str">
         <f aca="false">+N151</f>
         <v>Damage</v>
       </c>
@@ -9180,25 +9197,25 @@
         <v>41181</v>
       </c>
       <c r="B153" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="C153" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D153" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="E153" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="F153" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="G153" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="H153" s="45" t="s">
         <v>440</v>
-      </c>
-      <c r="C153" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="D153" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="E153" s="45" t="s">
-        <v>441</v>
-      </c>
-      <c r="F153" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="G153" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="H153" s="45" t="s">
-        <v>442</v>
       </c>
       <c r="I153" s="34" t="n">
         <v>0.143</v>
@@ -9214,7 +9231,7 @@
         <f aca="false">J153-K153-L153</f>
         <v>10</v>
       </c>
-      <c r="N153" s="81" t="str">
+      <c r="N153" s="91" t="str">
         <f aca="false">+N152</f>
         <v>Damage</v>
       </c>
@@ -9227,26 +9244,26 @@
         <f aca="false">A40</f>
         <v>42878</v>
       </c>
-      <c r="B154" s="84" t="s">
-        <v>443</v>
-      </c>
-      <c r="C154" s="84" t="str">
+      <c r="B154" s="94" t="s">
+        <v>441</v>
+      </c>
+      <c r="C154" s="94" t="str">
         <f aca="false">C40</f>
         <v>FS00001347</v>
       </c>
-      <c r="D154" s="84" t="str">
+      <c r="D154" s="94" t="str">
         <f aca="false">D40</f>
-        <v>Jupiter Trading </v>
-      </c>
-      <c r="E154" s="85" t="str">
+        <v>Jupiter Trading</v>
+      </c>
+      <c r="E154" s="95" t="str">
         <f aca="false">E40</f>
         <v>CPV3022</v>
       </c>
-      <c r="F154" s="85" t="s">
-        <v>281</v>
+      <c r="F154" s="95" t="s">
+        <v>279</v>
       </c>
       <c r="G154" s="41" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H154" s="45" t="s">
         <v>182</v>
@@ -9268,7 +9285,7 @@
         <f aca="false">J154-K154-L154</f>
         <v>1673.90559</v>
       </c>
-      <c r="N154" s="81" t="str">
+      <c r="N154" s="91" t="str">
         <f aca="false">+N153</f>
         <v>Damage</v>
       </c>
@@ -9281,26 +9298,26 @@
         <f aca="false">A40</f>
         <v>42878</v>
       </c>
-      <c r="B155" s="84" t="s">
+      <c r="B155" s="94" t="s">
+        <v>442</v>
+      </c>
+      <c r="C155" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="D155" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="E155" s="30" t="s">
         <v>444</v>
       </c>
-      <c r="C155" s="29" t="s">
-        <v>445</v>
-      </c>
-      <c r="D155" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="E155" s="30" t="s">
-        <v>446</v>
-      </c>
       <c r="F155" s="31" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G155" s="41" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H155" s="45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I155" s="34" t="n">
         <v>0.143</v>
@@ -9319,7 +9336,7 @@
         <f aca="false">J155-K155-L155</f>
         <v>402.50559</v>
       </c>
-      <c r="N155" s="81" t="str">
+      <c r="N155" s="91" t="str">
         <f aca="false">+N153</f>
         <v>Damage</v>
       </c>
@@ -9332,28 +9349,28 @@
         <f aca="false">A10</f>
         <v>42985</v>
       </c>
-      <c r="B156" s="86" t="s">
-        <v>447</v>
-      </c>
-      <c r="C156" s="86" t="str">
+      <c r="B156" s="96" t="s">
+        <v>445</v>
+      </c>
+      <c r="C156" s="96" t="str">
         <f aca="false">C10</f>
         <v>FS00004462</v>
       </c>
-      <c r="D156" s="86" t="str">
+      <c r="D156" s="96" t="str">
         <f aca="false">D10</f>
         <v>Cyclops Importer</v>
       </c>
-      <c r="E156" s="87" t="str">
+      <c r="E156" s="97" t="str">
         <f aca="false">E10</f>
         <v>CPV3261</v>
       </c>
-      <c r="F156" s="66" t="s">
-        <v>281</v>
+      <c r="F156" s="76" t="s">
+        <v>279</v>
       </c>
       <c r="G156" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="H156" s="87" t="s">
+        <v>279</v>
+      </c>
+      <c r="H156" s="97" t="s">
         <v>60</v>
       </c>
       <c r="I156" s="34" t="n">
@@ -9366,14 +9383,14 @@
         <f aca="false">I156*J156</f>
         <v>907.73969</v>
       </c>
-      <c r="L156" s="80" t="n">
+      <c r="L156" s="90" t="n">
         <v>3475.9</v>
       </c>
       <c r="M156" s="37" t="n">
         <f aca="false">J156-K156-L156</f>
         <v>1964.19031</v>
       </c>
-      <c r="N156" s="81" t="str">
+      <c r="N156" s="91" t="str">
         <f aca="false">+N154</f>
         <v>Damage</v>
       </c>
@@ -9386,23 +9403,23 @@
         <v>42838</v>
       </c>
       <c r="B157" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="C157" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="D157" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="C157" s="19" t="s">
+      <c r="E157" s="20" t="s">
         <v>449</v>
-      </c>
-      <c r="D157" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="E157" s="20" t="s">
-        <v>451</v>
       </c>
       <c r="F157" s="20"/>
       <c r="G157" s="21"/>
       <c r="H157" s="20" t="s">
-        <v>452</v>
-      </c>
-      <c r="I157" s="88" t="n">
+        <v>450</v>
+      </c>
+      <c r="I157" s="98" t="n">
         <v>0.143</v>
       </c>
       <c r="J157" s="23" t="n">
@@ -9420,27 +9437,26 @@
         <v>1878.17632597833</v>
       </c>
       <c r="N157" s="25" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O157" s="26"/>
       <c r="P157" s="26"/>
       <c r="AMJ157" s="0"/>
     </row>
     <row r="158" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="44" t="e">
-        <f aca="false">#ERR520!</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B158" s="84" t="s">
-        <v>454</v>
-      </c>
-      <c r="C158" s="84"/>
-      <c r="D158" s="84"/>
-      <c r="E158" s="85"/>
+      <c r="A158" s="44" t="n">
+        <v>41338</v>
+      </c>
+      <c r="B158" s="94" t="s">
+        <v>452</v>
+      </c>
+      <c r="C158" s="94"/>
+      <c r="D158" s="94"/>
+      <c r="E158" s="95"/>
       <c r="F158" s="31"/>
       <c r="G158" s="41"/>
-      <c r="H158" s="85" t="s">
-        <v>455</v>
+      <c r="H158" s="95" t="s">
+        <v>453</v>
       </c>
       <c r="I158" s="34" t="n">
         <v>0.143</v>
@@ -9457,32 +9473,27 @@
         <v>10</v>
       </c>
       <c r="N158" s="42" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O158" s="26"/>
       <c r="P158" s="26"/>
       <c r="AMJ158" s="0"/>
     </row>
-    <row r="159" s="27" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="44" t="e">
-        <f aca="false">#ERR520!</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B159" s="84" t="e">
-        <f aca="false">#ERR520!</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C159" s="84" t="e">
-        <f aca="false">#ERR520!</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D159" s="84" t="e">
-        <f aca="false">#ERR520!</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E159" s="85" t="e">
-        <f aca="false">#ERR520!</f>
-        <v>#N/A</v>
+    <row r="159" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="44" t="n">
+        <v>42733</v>
+      </c>
+      <c r="B159" s="94" t="s">
+        <v>454</v>
+      </c>
+      <c r="C159" s="94" t="s">
+        <v>455</v>
+      </c>
+      <c r="D159" s="99" t="s">
+        <v>448</v>
+      </c>
+      <c r="E159" s="95" t="s">
+        <v>456</v>
       </c>
       <c r="F159" s="31"/>
       <c r="G159" s="41"/>
@@ -9507,7 +9518,7 @@
         <v>457.92805559904</v>
       </c>
       <c r="N159" s="42" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O159" s="26"/>
       <c r="P159" s="26"/>
@@ -9520,14 +9531,14 @@
       <c r="B160" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C160" s="60" t="s">
-        <v>456</v>
+      <c r="C160" s="68" t="s">
+        <v>457</v>
       </c>
       <c r="D160" s="43" t="s">
-        <v>457</v>
-      </c>
-      <c r="E160" s="62" t="s">
         <v>458</v>
+      </c>
+      <c r="E160" s="70" t="s">
+        <v>459</v>
       </c>
       <c r="F160" s="31"/>
       <c r="G160" s="41"/>
@@ -9538,14 +9549,14 @@
       <c r="I160" s="34" t="n">
         <v>0.143</v>
       </c>
-      <c r="J160" s="61" t="n">
+      <c r="J160" s="69" t="n">
         <v>5043.48</v>
       </c>
       <c r="K160" s="37" t="n">
         <f aca="false">J160*I160</f>
         <v>721.21764</v>
       </c>
-      <c r="L160" s="61" t="n">
+      <c r="L160" s="69" t="n">
         <v>2156.90297656833</v>
       </c>
       <c r="M160" s="37" t="n">
@@ -9553,58 +9564,18 @@
         <v>2165.35938343167</v>
       </c>
       <c r="N160" s="42" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O160" s="26"/>
       <c r="P160" s="26"/>
       <c r="AMJ160" s="0"/>
     </row>
-    <row r="161" s="94" customFormat="true" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="89" t="s">
-        <v>459</v>
-      </c>
-      <c r="B161" s="53" t="s">
-        <v>460</v>
-      </c>
-      <c r="C161" s="89" t="s">
-        <v>461</v>
-      </c>
-      <c r="D161" s="53" t="s">
-        <v>462</v>
-      </c>
-      <c r="E161" s="90" t="s">
-        <v>463</v>
-      </c>
-      <c r="F161" s="56"/>
-      <c r="G161" s="41"/>
-      <c r="H161" s="90" t="s">
-        <v>464</v>
-      </c>
-      <c r="I161" s="34" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J161" s="35" t="n">
-        <v>3739.13</v>
-      </c>
-      <c r="K161" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L161" s="91" t="n">
-        <v>3729.13</v>
-      </c>
-      <c r="M161" s="37" t="n">
-        <f aca="false">J161-K161-L161</f>
-        <v>10</v>
-      </c>
-      <c r="N161" s="92" t="s">
-        <v>465</v>
-      </c>
-      <c r="O161" s="93"/>
-      <c r="P161" s="93"/>
-      <c r="AMJ161" s="0"/>
-    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="11">
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="N10:N11"/>
@@ -9614,11 +9585,6 @@
     <mergeCell ref="G40:G41"/>
     <mergeCell ref="H40:H41"/>
     <mergeCell ref="N40:N41"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="H54:H56"/>
     <mergeCell ref="N54:N56"/>
     <mergeCell ref="H60:H61"/>
   </mergeCells>

--- a/stadia/seed/computer_and_acc.xlsx
+++ b/stadia/seed/computer_and_acc.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$N$159</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -1459,7 +1462,7 @@
     <numFmt numFmtId="171" formatCode="0.0%"/>
     <numFmt numFmtId="172" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1538,11 +1541,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1729,7 +1727,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1906,10 +1904,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="170" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1942,27 +1936,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="8" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="8" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="9" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="9" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="9" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="9" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2070,7 +2064,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2103,7 +2097,35 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF7F7F7"/>
+          <bgColor rgb="FF272727"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2114,10 +2136,10 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="L115" activeCellId="0" sqref="L115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="33.57"/>
@@ -2141,7 +2163,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="true" ht="49.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="17" customFormat="true" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2347,7 +2369,7 @@
       <c r="F5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="40" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="31" t="s">
@@ -2376,7 +2398,7 @@
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="45" t="n">
+      <c r="A6" s="44" t="n">
         <v>42572</v>
       </c>
       <c r="B6" s="29" t="s">
@@ -2388,16 +2410,16 @@
       <c r="D6" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="45" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="45" t="s">
         <v>39</v>
       </c>
       <c r="I6" s="34" t="n">
@@ -2423,34 +2445,34 @@
       <c r="AMJ6" s="0"/>
     </row>
     <row r="7" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47" t="n">
+      <c r="A7" s="46" t="n">
         <v>44270</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="48" t="s">
         <v>45</v>
       </c>
       <c r="I7" s="34" t="n">
         <v>0.143</v>
       </c>
-      <c r="J7" s="51" t="n">
+      <c r="J7" s="50" t="n">
         <v>36608.69</v>
       </c>
       <c r="K7" s="36" t="n">
@@ -2464,16 +2486,16 @@
         <f aca="false">J7-K7-L7</f>
         <v>29740.46733</v>
       </c>
-      <c r="N7" s="52"/>
+      <c r="N7" s="51"/>
       <c r="O7" s="26"/>
       <c r="P7" s="26"/>
       <c r="AMJ7" s="0"/>
     </row>
     <row r="8" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="45" t="n">
+      <c r="A8" s="44" t="n">
         <v>44270</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -2482,22 +2504,22 @@
       <c r="D8" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="45" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="49" t="s">
+      <c r="H8" s="48" t="s">
         <v>47</v>
       </c>
       <c r="I8" s="34" t="n">
         <v>0.143</v>
       </c>
-      <c r="J8" s="51" t="n">
+      <c r="J8" s="50" t="n">
         <v>36608.69</v>
       </c>
       <c r="K8" s="36" t="n">
@@ -2511,7 +2533,7 @@
         <f aca="false">J8-K8-L8</f>
         <v>29740.46733</v>
       </c>
-      <c r="N8" s="52"/>
+      <c r="N8" s="51"/>
       <c r="O8" s="26"/>
       <c r="P8" s="26"/>
       <c r="AMJ8" s="0"/>
@@ -2566,16 +2588,16 @@
       <c r="AMJ9" s="0"/>
     </row>
     <row r="10" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="47" t="n">
+      <c r="A10" s="46" t="n">
         <v>44083</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="47" t="s">
         <v>56</v>
       </c>
       <c r="E10" s="31" t="s">
@@ -2589,7 +2611,7 @@
       <c r="I10" s="34" t="n">
         <v>0.143</v>
       </c>
-      <c r="J10" s="51" t="n">
+      <c r="J10" s="50" t="n">
         <v>6347.83</v>
       </c>
       <c r="K10" s="36" t="n">
@@ -2656,10 +2678,10 @@
       <c r="AMJ11" s="0"/>
     </row>
     <row r="12" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="45" t="n">
+      <c r="A12" s="44" t="n">
         <v>44270</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="47" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="29" t="s">
@@ -2668,16 +2690,16 @@
       <c r="D12" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="45" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="49" t="s">
+      <c r="H12" s="48" t="s">
         <v>66</v>
       </c>
       <c r="I12" s="34" t="n">
@@ -2697,7 +2719,7 @@
         <f aca="false">J12-K12-L12</f>
         <v>29740.46733</v>
       </c>
-      <c r="N12" s="52"/>
+      <c r="N12" s="51"/>
       <c r="O12" s="26"/>
       <c r="P12" s="26"/>
       <c r="AMJ12" s="0"/>
@@ -2751,19 +2773,19 @@
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="47" t="n">
+      <c r="A14" s="46" t="n">
         <v>44202</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="E14" s="48" t="s">
         <v>72</v>
       </c>
       <c r="F14" s="31" t="s">
@@ -2774,7 +2796,7 @@
       <c r="I14" s="34" t="n">
         <v>0.143</v>
       </c>
-      <c r="J14" s="51" t="n">
+      <c r="J14" s="50" t="n">
         <v>5043.5</v>
       </c>
       <c r="K14" s="36" t="n">
@@ -3132,7 +3154,7 @@
       <c r="AMJ21" s="0"/>
     </row>
     <row r="22" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="45" t="n">
+      <c r="A22" s="44" t="n">
         <v>44130</v>
       </c>
       <c r="B22" s="29" t="s">
@@ -3144,7 +3166,7 @@
       <c r="D22" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="45" t="s">
         <v>110</v>
       </c>
       <c r="F22" s="31" t="s">
@@ -3153,7 +3175,7 @@
       <c r="G22" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="46" t="s">
+      <c r="H22" s="45" t="s">
         <v>112</v>
       </c>
       <c r="I22" s="34" t="n">
@@ -3803,35 +3825,35 @@
       <c r="P35" s="26"/>
       <c r="AMJ35" s="0"/>
     </row>
-    <row r="36" s="60" customFormat="true" ht="68.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="53" t="n">
+    <row r="36" s="59" customFormat="true" ht="68.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="52" t="n">
         <v>44326</v>
       </c>
-      <c r="B36" s="54" t="n">
+      <c r="B36" s="53" t="n">
         <v>12565.22</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="D36" s="56" t="s">
+      <c r="D36" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="E36" s="57" t="s">
+      <c r="E36" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="F36" s="57" t="s">
+      <c r="F36" s="56" t="s">
         <v>161</v>
       </c>
       <c r="G36" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="H36" s="57" t="s">
+      <c r="H36" s="56" t="s">
         <v>163</v>
       </c>
       <c r="I36" s="34" t="n">
         <v>0.143</v>
       </c>
-      <c r="J36" s="58" t="n">
+      <c r="J36" s="57" t="n">
         <v>45652.17</v>
       </c>
       <c r="K36" s="36" t="n">
@@ -3846,8 +3868,8 @@
         <v>38087.72969</v>
       </c>
       <c r="N36" s="41"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
+      <c r="O36" s="58"/>
+      <c r="P36" s="58"/>
       <c r="AMJ36" s="0"/>
     </row>
     <row r="37" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3881,7 +3903,9 @@
       <c r="J37" s="37" t="n">
         <v>9565.22</v>
       </c>
-      <c r="K37" s="36"/>
+      <c r="K37" s="36" t="n">
+        <v>0</v>
+      </c>
       <c r="L37" s="36" t="n">
         <v>9555.22</v>
       </c>
@@ -4134,19 +4158,19 @@
       <c r="AMJ42" s="0"/>
     </row>
     <row r="43" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="47" t="n">
+      <c r="A43" s="46" t="n">
         <v>42359</v>
       </c>
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="48" t="s">
+      <c r="C43" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="E43" s="49" t="s">
+      <c r="E43" s="48" t="s">
         <v>192</v>
       </c>
       <c r="F43" s="31" t="s">
@@ -4161,7 +4185,7 @@
       <c r="I43" s="34" t="n">
         <v>0.143</v>
       </c>
-      <c r="J43" s="51" t="n">
+      <c r="J43" s="50" t="n">
         <v>16284.58</v>
       </c>
       <c r="K43" s="37" t="n">
@@ -4180,25 +4204,25 @@
       <c r="AMJ43" s="0"/>
     </row>
     <row r="44" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="47" t="n">
+      <c r="A44" s="46" t="n">
         <v>44234</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="48" t="s">
+      <c r="C44" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="D44" s="48" t="s">
+      <c r="D44" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="49" t="s">
+      <c r="E44" s="48" t="s">
         <v>196</v>
       </c>
       <c r="F44" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="G44" s="61" t="s">
+      <c r="G44" s="60" t="s">
         <v>193</v>
       </c>
       <c r="H44" s="31" t="s">
@@ -4207,7 +4231,7 @@
       <c r="I44" s="34" t="n">
         <v>0.143</v>
       </c>
-      <c r="J44" s="51" t="n">
+      <c r="J44" s="50" t="n">
         <v>6260.87</v>
       </c>
       <c r="K44" s="37" t="n">
@@ -4217,7 +4241,9 @@
       <c r="L44" s="37" t="n">
         <v>737.47</v>
       </c>
-      <c r="M44" s="37"/>
+      <c r="M44" s="37" t="n">
+        <v>0</v>
+      </c>
       <c r="N44" s="41"/>
       <c r="O44" s="26"/>
       <c r="P44" s="26"/>
@@ -4361,7 +4387,7 @@
       </c>
       <c r="M47" s="37" t="n">
         <f aca="false">J47-K47-L47</f>
-        <v>4441.86881545457</v>
+        <v>4441.86881545455</v>
       </c>
       <c r="N47" s="41"/>
       <c r="O47" s="26"/>
@@ -4424,7 +4450,7 @@
       <c r="B49" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="61" t="s">
         <v>214</v>
       </c>
       <c r="D49" s="39" t="s">
@@ -4439,13 +4465,13 @@
       <c r="G49" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="H49" s="46" t="s">
+      <c r="H49" s="45" t="s">
         <v>216</v>
       </c>
       <c r="I49" s="34" t="n">
         <v>0.143</v>
       </c>
-      <c r="J49" s="63" t="n">
+      <c r="J49" s="62" t="n">
         <v>5078.26</v>
       </c>
       <c r="K49" s="36" t="n">
@@ -4506,7 +4532,7 @@
       </c>
       <c r="M50" s="37" t="n">
         <f aca="false">J50-K50-L50</f>
-        <v>979.130826666704</v>
+        <v>979.130826666667</v>
       </c>
       <c r="N50" s="41"/>
       <c r="O50" s="26"/>
@@ -4555,7 +4581,7 @@
       </c>
       <c r="M51" s="37" t="n">
         <f aca="false">J51-K51-L51</f>
-        <v>219.165796666699</v>
+        <v>219.165796666666</v>
       </c>
       <c r="N51" s="41"/>
       <c r="O51" s="26"/>
@@ -4625,7 +4651,7 @@
       <c r="E53" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="F53" s="64" t="s">
+      <c r="F53" s="63" t="s">
         <v>237</v>
       </c>
       <c r="G53" s="32" t="s">
@@ -4659,22 +4685,22 @@
       <c r="AMJ53" s="0"/>
     </row>
     <row r="54" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="47" t="n">
+      <c r="A54" s="46" t="n">
         <v>44202</v>
       </c>
-      <c r="B54" s="48" t="s">
+      <c r="B54" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="C54" s="48" t="s">
+      <c r="C54" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="D54" s="48" t="s">
+      <c r="D54" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="E54" s="49" t="s">
+      <c r="E54" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="F54" s="64" t="s">
+      <c r="F54" s="63" t="s">
         <v>237</v>
       </c>
       <c r="G54" s="32" t="s">
@@ -4686,7 +4712,7 @@
       <c r="I54" s="34" t="n">
         <v>0.143</v>
       </c>
-      <c r="J54" s="51" t="n">
+      <c r="J54" s="50" t="n">
         <v>4350</v>
       </c>
       <c r="K54" s="36" t="n">
@@ -4706,22 +4732,22 @@
       <c r="AMJ54" s="0"/>
     </row>
     <row r="55" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="47" t="n">
+      <c r="A55" s="46" t="n">
         <v>44202</v>
       </c>
-      <c r="B55" s="48" t="s">
+      <c r="B55" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="C55" s="48" t="s">
+      <c r="C55" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="48" t="s">
+      <c r="D55" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="E55" s="49" t="s">
+      <c r="E55" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="F55" s="64" t="s">
+      <c r="F55" s="63" t="s">
         <v>237</v>
       </c>
       <c r="G55" s="32" t="s">
@@ -4733,7 +4759,7 @@
       <c r="I55" s="34" t="n">
         <v>0.143</v>
       </c>
-      <c r="J55" s="51" t="n">
+      <c r="J55" s="50" t="n">
         <v>5217.39</v>
       </c>
       <c r="K55" s="36" t="n">
@@ -4794,7 +4820,7 @@
       </c>
       <c r="M56" s="37" t="n">
         <f aca="false">J56-K56-L56</f>
-        <v>1410.12943545457</v>
+        <v>1410.12943545454</v>
       </c>
       <c r="N56" s="41"/>
       <c r="O56" s="26"/>
@@ -4890,7 +4916,7 @@
       </c>
       <c r="M58" s="37" t="n">
         <f aca="false">J58-K58-L58</f>
-        <v>3594.8676714286</v>
+        <v>3594.86767142857</v>
       </c>
       <c r="N58" s="41"/>
       <c r="O58" s="26"/>
@@ -4945,19 +4971,19 @@
       <c r="AMJ59" s="0"/>
     </row>
     <row r="60" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="47" t="n">
+      <c r="A60" s="46" t="n">
         <v>44202</v>
       </c>
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="C60" s="48" t="s">
+      <c r="C60" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="D60" s="48" t="s">
+      <c r="D60" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="E60" s="49" t="s">
+      <c r="E60" s="48" t="s">
         <v>72</v>
       </c>
       <c r="F60" s="31" t="s">
@@ -4970,7 +4996,7 @@
       <c r="I60" s="34" t="n">
         <v>0.143</v>
       </c>
-      <c r="J60" s="51" t="n">
+      <c r="J60" s="50" t="n">
         <v>2600</v>
       </c>
       <c r="K60" s="36" t="n">
@@ -5125,7 +5151,7 @@
       </c>
       <c r="M63" s="37" t="n">
         <f aca="false">J63-K63-L63</f>
-        <v>221.470225454603</v>
+        <v>221.470225454548</v>
       </c>
       <c r="N63" s="41"/>
       <c r="O63" s="26"/>
@@ -5133,7 +5159,7 @@
       <c r="AMJ63" s="0"/>
     </row>
     <row r="64" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="65" t="n">
+      <c r="A64" s="64" t="n">
         <v>40443</v>
       </c>
       <c r="B64" s="43" t="s">
@@ -5409,7 +5435,7 @@
       </c>
       <c r="M69" s="37" t="n">
         <f aca="false">J69-K69-L69</f>
-        <v>1410.12943545457</v>
+        <v>1410.12943545454</v>
       </c>
       <c r="N69" s="41"/>
       <c r="O69" s="26"/>
@@ -5417,34 +5443,34 @@
       <c r="AMJ69" s="0"/>
     </row>
     <row r="70" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="47" t="n">
+      <c r="A70" s="46" t="n">
         <v>44270</v>
       </c>
-      <c r="B70" s="48" t="s">
+      <c r="B70" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C70" s="48" t="s">
+      <c r="C70" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D70" s="48" t="s">
+      <c r="D70" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="46" t="s">
+      <c r="E70" s="45" t="s">
         <v>43</v>
       </c>
       <c r="F70" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="G70" s="66" t="s">
+      <c r="G70" s="65" t="s">
         <v>293</v>
       </c>
-      <c r="H70" s="49" t="s">
+      <c r="H70" s="48" t="s">
         <v>294</v>
       </c>
       <c r="I70" s="34" t="n">
         <v>0.143</v>
       </c>
-      <c r="J70" s="51" t="n">
+      <c r="J70" s="50" t="n">
         <v>36608.69</v>
       </c>
       <c r="K70" s="36" t="n">
@@ -5458,13 +5484,13 @@
         <f aca="false">J70-K70-L70</f>
         <v>29740.46733</v>
       </c>
-      <c r="N70" s="67"/>
+      <c r="N70" s="66"/>
       <c r="O70" s="26"/>
       <c r="P70" s="26"/>
       <c r="AMJ70" s="0"/>
     </row>
     <row r="71" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="45" t="n">
+      <c r="A71" s="44" t="n">
         <v>44130</v>
       </c>
       <c r="B71" s="29" t="s">
@@ -5476,7 +5502,7 @@
       <c r="D71" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="E71" s="46" t="s">
+      <c r="E71" s="45" t="s">
         <v>110</v>
       </c>
       <c r="F71" s="31" t="s">
@@ -5485,7 +5511,7 @@
       <c r="G71" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="H71" s="46" t="s">
+      <c r="H71" s="45" t="s">
         <v>297</v>
       </c>
       <c r="I71" s="34" t="n">
@@ -5553,7 +5579,7 @@
       </c>
       <c r="M72" s="37" t="n">
         <f aca="false">J72-K72-L72</f>
-        <v>4755.79676545457</v>
+        <v>4755.79676545454</v>
       </c>
       <c r="N72" s="41"/>
       <c r="O72" s="26"/>
@@ -5561,19 +5587,19 @@
       <c r="AMJ72" s="0"/>
     </row>
     <row r="73" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="47" t="n">
+      <c r="A73" s="46" t="n">
         <v>44272</v>
       </c>
-      <c r="B73" s="48" t="s">
+      <c r="B73" s="47" t="s">
         <v>300</v>
       </c>
-      <c r="C73" s="48" t="s">
+      <c r="C73" s="47" t="s">
         <v>301</v>
       </c>
-      <c r="D73" s="48" t="s">
+      <c r="D73" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="E73" s="46" t="s">
+      <c r="E73" s="45" t="s">
         <v>302</v>
       </c>
       <c r="F73" s="31" t="s">
@@ -5582,13 +5608,13 @@
       <c r="G73" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="H73" s="46" t="s">
+      <c r="H73" s="45" t="s">
         <v>303</v>
       </c>
       <c r="I73" s="34" t="n">
         <v>0.143</v>
       </c>
-      <c r="J73" s="51" t="n">
+      <c r="J73" s="50" t="n">
         <v>13739.11</v>
       </c>
       <c r="K73" s="36" t="n">
@@ -5608,34 +5634,34 @@
       <c r="AMJ73" s="0"/>
     </row>
     <row r="74" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="47" t="n">
+      <c r="A74" s="46" t="n">
         <v>44270</v>
       </c>
-      <c r="B74" s="48" t="s">
+      <c r="B74" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C74" s="48" t="s">
+      <c r="C74" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D74" s="48" t="s">
+      <c r="D74" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E74" s="49" t="s">
+      <c r="E74" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="F74" s="68" t="s">
+      <c r="F74" s="67" t="s">
         <v>304</v>
       </c>
-      <c r="G74" s="50" t="s">
+      <c r="G74" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="H74" s="49" t="s">
+      <c r="H74" s="48" t="s">
         <v>306</v>
       </c>
       <c r="I74" s="34" t="n">
         <v>0.143</v>
       </c>
-      <c r="J74" s="51" t="n">
+      <c r="J74" s="50" t="n">
         <v>36608.69</v>
       </c>
       <c r="K74" s="36" t="n">
@@ -5649,40 +5675,40 @@
         <f aca="false">J74-K74-L74</f>
         <v>29740.46733</v>
       </c>
-      <c r="N74" s="52"/>
+      <c r="N74" s="51"/>
       <c r="O74" s="26"/>
       <c r="P74" s="26"/>
       <c r="AMJ74" s="0"/>
     </row>
     <row r="75" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="47" t="n">
+      <c r="A75" s="46" t="n">
         <v>44130</v>
       </c>
-      <c r="B75" s="48" t="s">
+      <c r="B75" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="C75" s="48" t="s">
+      <c r="C75" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D75" s="48" t="s">
+      <c r="D75" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="E75" s="49" t="s">
+      <c r="E75" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F75" s="68" t="s">
+      <c r="F75" s="67" t="s">
         <v>304</v>
       </c>
-      <c r="G75" s="50" t="s">
+      <c r="G75" s="49" t="s">
         <v>307</v>
       </c>
-      <c r="H75" s="49" t="s">
+      <c r="H75" s="48" t="s">
         <v>308</v>
       </c>
       <c r="I75" s="34" t="n">
         <v>0.143</v>
       </c>
-      <c r="J75" s="51" t="n">
+      <c r="J75" s="50" t="n">
         <v>43391.3</v>
       </c>
       <c r="K75" s="36" t="n">
@@ -5697,13 +5723,13 @@
         <f aca="false">J75-K75-L75</f>
         <v>32873.3366</v>
       </c>
-      <c r="N75" s="52"/>
+      <c r="N75" s="51"/>
       <c r="O75" s="26"/>
       <c r="P75" s="26"/>
       <c r="AMJ75" s="0"/>
     </row>
     <row r="76" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="45" t="n">
+      <c r="A76" s="44" t="n">
         <v>44130</v>
       </c>
       <c r="B76" s="29" t="s">
@@ -5715,7 +5741,7 @@
       <c r="D76" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="E76" s="46" t="s">
+      <c r="E76" s="45" t="s">
         <v>110</v>
       </c>
       <c r="F76" s="31" t="s">
@@ -5724,7 +5750,7 @@
       <c r="G76" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="H76" s="46" t="s">
+      <c r="H76" s="45" t="s">
         <v>310</v>
       </c>
       <c r="I76" s="34" t="n">
@@ -5751,7 +5777,7 @@
       <c r="AMJ76" s="0"/>
     </row>
     <row r="77" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="45" t="n">
+      <c r="A77" s="44" t="n">
         <v>44270</v>
       </c>
       <c r="B77" s="29" t="s">
@@ -5763,7 +5789,7 @@
       <c r="D77" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E77" s="46" t="s">
+      <c r="E77" s="45" t="s">
         <v>43</v>
       </c>
       <c r="F77" s="31" t="s">
@@ -5772,7 +5798,7 @@
       <c r="G77" s="40" t="s">
         <v>312</v>
       </c>
-      <c r="H77" s="46" t="s">
+      <c r="H77" s="45" t="s">
         <v>313</v>
       </c>
       <c r="I77" s="34" t="n">
@@ -5813,7 +5839,7 @@
       <c r="E78" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="F78" s="68" t="s">
+      <c r="F78" s="67" t="s">
         <v>317</v>
       </c>
       <c r="G78" s="40" t="s">
@@ -5897,7 +5923,7 @@
       <c r="AMJ79" s="0"/>
     </row>
     <row r="80" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="45" t="n">
+      <c r="A80" s="44" t="n">
         <v>43040</v>
       </c>
       <c r="B80" s="29" t="s">
@@ -5909,7 +5935,7 @@
       <c r="D80" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E80" s="46" t="s">
+      <c r="E80" s="45" t="s">
         <v>188</v>
       </c>
       <c r="F80" s="31" t="s">
@@ -5918,7 +5944,7 @@
       <c r="G80" s="40" t="s">
         <v>321</v>
       </c>
-      <c r="H80" s="46" t="s">
+      <c r="H80" s="45" t="s">
         <v>322</v>
       </c>
       <c r="I80" s="34" t="n">
@@ -5946,28 +5972,28 @@
       <c r="AMJ80" s="0"/>
     </row>
     <row r="81" s="27" customFormat="true" ht="49.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="69" t="n">
+      <c r="A81" s="68" t="n">
         <v>42746</v>
       </c>
-      <c r="B81" s="70" t="s">
+      <c r="B81" s="69" t="s">
         <v>323</v>
       </c>
-      <c r="C81" s="70" t="n">
+      <c r="C81" s="69" t="n">
         <v>9333</v>
       </c>
-      <c r="D81" s="70" t="s">
+      <c r="D81" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="E81" s="71" t="s">
+      <c r="E81" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="F81" s="71" t="s">
+      <c r="F81" s="70" t="s">
         <v>324</v>
       </c>
-      <c r="G81" s="66" t="s">
+      <c r="G81" s="65" t="s">
         <v>325</v>
       </c>
-      <c r="H81" s="71" t="s">
+      <c r="H81" s="70" t="s">
         <v>326</v>
       </c>
       <c r="I81" s="34" t="n">
@@ -5987,9 +6013,9 @@
       </c>
       <c r="M81" s="37" t="n">
         <f aca="false">J81-K81-L81</f>
-        <v>3544.0254814286</v>
-      </c>
-      <c r="N81" s="67"/>
+        <v>3544.02548142857</v>
+      </c>
+      <c r="N81" s="66"/>
       <c r="O81" s="26"/>
       <c r="P81" s="26"/>
       <c r="AMJ81" s="0"/>
@@ -6085,7 +6111,7 @@
       </c>
       <c r="M83" s="37" t="n">
         <f aca="false">J83-K83-L83</f>
-        <v>4755.79676545457</v>
+        <v>4755.79676545454</v>
       </c>
       <c r="N83" s="41"/>
       <c r="O83" s="26"/>
@@ -6093,7 +6119,7 @@
       <c r="AMJ83" s="0"/>
     </row>
     <row r="84" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="72" t="n">
+      <c r="A84" s="71" t="n">
         <v>42830</v>
       </c>
       <c r="B84" s="43" t="s">
@@ -6710,8 +6736,8 @@
       <c r="P96" s="26"/>
       <c r="AMJ96" s="0"/>
     </row>
-    <row r="97" s="27" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="45" t="n">
+    <row r="97" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="44" t="n">
         <v>40690</v>
       </c>
       <c r="B97" s="29" t="s">
@@ -6723,7 +6749,7 @@
       <c r="D97" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E97" s="46" t="s">
+      <c r="E97" s="45" t="s">
         <v>369</v>
       </c>
       <c r="F97" s="31" t="s">
@@ -6732,7 +6758,7 @@
       <c r="G97" s="40" t="s">
         <v>365</v>
       </c>
-      <c r="H97" s="46" t="s">
+      <c r="H97" s="45" t="s">
         <v>370</v>
       </c>
       <c r="I97" s="34" t="n">
@@ -6741,7 +6767,9 @@
       <c r="J97" s="35" t="n">
         <v>2208.7</v>
       </c>
-      <c r="K97" s="36"/>
+      <c r="K97" s="36" t="n">
+        <v>0</v>
+      </c>
       <c r="L97" s="36" t="n">
         <v>2198.7</v>
       </c>
@@ -6754,176 +6782,176 @@
       <c r="P97" s="26"/>
       <c r="AMJ97" s="0"/>
     </row>
-    <row r="98" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="73" t="n">
+    <row r="98" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="72" t="n">
         <v>44418</v>
       </c>
-      <c r="B98" s="48" t="s">
+      <c r="B98" s="47" t="s">
         <v>371</v>
       </c>
-      <c r="C98" s="74" t="s">
+      <c r="C98" s="73" t="s">
         <v>372</v>
       </c>
-      <c r="D98" s="75" t="s">
+      <c r="D98" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="E98" s="76" t="s">
+      <c r="E98" s="75" t="s">
         <v>373</v>
       </c>
-      <c r="F98" s="68" t="s">
+      <c r="F98" s="67" t="s">
         <v>237</v>
       </c>
-      <c r="G98" s="50" t="s">
+      <c r="G98" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="H98" s="49" t="s">
+      <c r="H98" s="48" t="s">
         <v>374</v>
       </c>
-      <c r="I98" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J98" s="78" t="n">
+      <c r="I98" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J98" s="77" t="n">
         <v>14956.52</v>
       </c>
       <c r="K98" s="36" t="e">
         <f aca="false">#REF!*I98*J98</f>
         <v>#REF!</v>
       </c>
-      <c r="L98" s="78"/>
+      <c r="L98" s="77"/>
       <c r="M98" s="37" t="e">
         <f aca="false">J98-K98-L98</f>
         <v>#REF!</v>
       </c>
-      <c r="N98" s="79" t="s">
+      <c r="N98" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O98" s="26"/>
       <c r="P98" s="26"/>
       <c r="AMJ98" s="0"/>
     </row>
-    <row r="99" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="73" t="n">
+    <row r="99" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="72" t="n">
         <v>44425</v>
       </c>
-      <c r="B99" s="48" t="s">
+      <c r="B99" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="C99" s="74" t="s">
+      <c r="C99" s="73" t="s">
         <v>377</v>
       </c>
-      <c r="D99" s="75" t="s">
+      <c r="D99" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="E99" s="76" t="s">
+      <c r="E99" s="75" t="s">
         <v>378</v>
       </c>
-      <c r="F99" s="68" t="s">
+      <c r="F99" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="G99" s="50" t="s">
+      <c r="G99" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="H99" s="49" t="s">
+      <c r="H99" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="I99" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J99" s="78" t="n">
+      <c r="I99" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J99" s="77" t="n">
         <v>35217.39</v>
       </c>
       <c r="K99" s="36" t="e">
         <f aca="false">#REF!*I99*J99</f>
         <v>#REF!</v>
       </c>
-      <c r="L99" s="78"/>
+      <c r="L99" s="77"/>
       <c r="M99" s="37" t="e">
         <f aca="false">J99-K99-L99</f>
         <v>#REF!</v>
       </c>
-      <c r="N99" s="79" t="s">
+      <c r="N99" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O99" s="26"/>
       <c r="P99" s="26"/>
       <c r="AMJ99" s="0"/>
     </row>
-    <row r="100" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="73" t="n">
+    <row r="100" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="72" t="n">
         <v>44425</v>
       </c>
-      <c r="B100" s="48" t="s">
+      <c r="B100" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="C100" s="74" t="s">
+      <c r="C100" s="73" t="s">
         <v>377</v>
       </c>
-      <c r="D100" s="75" t="s">
+      <c r="D100" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="E100" s="76" t="s">
+      <c r="E100" s="75" t="s">
         <v>378</v>
       </c>
-      <c r="F100" s="68" t="s">
+      <c r="F100" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="G100" s="50" t="s">
+      <c r="G100" s="49" t="s">
         <v>380</v>
       </c>
-      <c r="H100" s="49" t="s">
+      <c r="H100" s="48" t="s">
         <v>381</v>
       </c>
-      <c r="I100" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J100" s="78" t="n">
+      <c r="I100" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J100" s="77" t="n">
         <v>35217.39</v>
       </c>
       <c r="K100" s="36" t="e">
         <f aca="false">#REF!*I100*J100</f>
         <v>#REF!</v>
       </c>
-      <c r="L100" s="78"/>
+      <c r="L100" s="77"/>
       <c r="M100" s="37" t="e">
         <f aca="false">J100-K100-L100</f>
         <v>#REF!</v>
       </c>
-      <c r="N100" s="79" t="s">
+      <c r="N100" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O100" s="26"/>
       <c r="P100" s="26"/>
       <c r="AMJ100" s="0"/>
     </row>
-    <row r="101" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="80" t="n">
+    <row r="101" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="79" t="n">
         <v>44483</v>
       </c>
-      <c r="B101" s="81" t="s">
+      <c r="B101" s="80" t="s">
         <v>382</v>
       </c>
-      <c r="C101" s="81" t="s">
+      <c r="C101" s="80" t="s">
         <v>383</v>
       </c>
-      <c r="D101" s="75" t="s">
+      <c r="D101" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="E101" s="68" t="s">
+      <c r="E101" s="67" t="s">
         <v>384</v>
       </c>
-      <c r="F101" s="68" t="s">
+      <c r="F101" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="G101" s="50" t="s">
+      <c r="G101" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="H101" s="68" t="s">
+      <c r="H101" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="I101" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J101" s="82" t="n">
+      <c r="I101" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J101" s="81" t="n">
         <v>6869.56</v>
       </c>
       <c r="K101" s="36" t="e">
@@ -6935,36 +6963,36 @@
         <f aca="false">J101-K101-L101</f>
         <v>#REF!</v>
       </c>
-      <c r="N101" s="79" t="s">
+      <c r="N101" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O101" s="26"/>
       <c r="P101" s="26"/>
       <c r="AMJ101" s="0"/>
     </row>
-    <row r="102" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="80" t="n">
+    <row r="102" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="79" t="n">
         <v>44624</v>
       </c>
-      <c r="B102" s="81" t="s">
+      <c r="B102" s="80" t="s">
         <v>385</v>
       </c>
-      <c r="C102" s="81" t="s">
+      <c r="C102" s="80" t="s">
         <v>386</v>
       </c>
-      <c r="D102" s="75" t="s">
+      <c r="D102" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="E102" s="68" t="s">
+      <c r="E102" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="F102" s="68"/>
-      <c r="G102" s="50"/>
-      <c r="H102" s="68"/>
-      <c r="I102" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J102" s="82" t="n">
+      <c r="F102" s="67"/>
+      <c r="G102" s="49"/>
+      <c r="H102" s="67"/>
+      <c r="I102" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J102" s="81" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
@@ -6977,36 +7005,36 @@
         <f aca="false">J102-K102-L102</f>
         <v>#REF!</v>
       </c>
-      <c r="N102" s="79" t="s">
+      <c r="N102" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O102" s="26"/>
       <c r="P102" s="26"/>
       <c r="AMJ102" s="0"/>
     </row>
-    <row r="103" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="80" t="n">
+    <row r="103" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="79" t="n">
         <v>44624</v>
       </c>
-      <c r="B103" s="81" t="s">
+      <c r="B103" s="80" t="s">
         <v>385</v>
       </c>
-      <c r="C103" s="81" t="s">
+      <c r="C103" s="80" t="s">
         <v>386</v>
       </c>
-      <c r="D103" s="75" t="s">
+      <c r="D103" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="E103" s="68" t="s">
+      <c r="E103" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="F103" s="68"/>
-      <c r="G103" s="50"/>
-      <c r="H103" s="68"/>
-      <c r="I103" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J103" s="82" t="n">
+      <c r="F103" s="67"/>
+      <c r="G103" s="49"/>
+      <c r="H103" s="67"/>
+      <c r="I103" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J103" s="81" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
@@ -7019,36 +7047,36 @@
         <f aca="false">J103-K103-L103</f>
         <v>#REF!</v>
       </c>
-      <c r="N103" s="79" t="s">
+      <c r="N103" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O103" s="26"/>
       <c r="P103" s="26"/>
       <c r="AMJ103" s="0"/>
     </row>
-    <row r="104" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="80" t="n">
+    <row r="104" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="79" t="n">
         <v>44624</v>
       </c>
-      <c r="B104" s="81" t="s">
+      <c r="B104" s="80" t="s">
         <v>385</v>
       </c>
-      <c r="C104" s="81" t="s">
+      <c r="C104" s="80" t="s">
         <v>386</v>
       </c>
-      <c r="D104" s="75" t="s">
+      <c r="D104" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="E104" s="68" t="s">
+      <c r="E104" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="F104" s="68"/>
-      <c r="G104" s="50"/>
-      <c r="H104" s="68"/>
-      <c r="I104" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J104" s="82" t="n">
+      <c r="F104" s="67"/>
+      <c r="G104" s="49"/>
+      <c r="H104" s="67"/>
+      <c r="I104" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J104" s="81" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
@@ -7061,36 +7089,36 @@
         <f aca="false">J104-K104-L104</f>
         <v>#REF!</v>
       </c>
-      <c r="N104" s="79" t="s">
+      <c r="N104" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O104" s="26"/>
       <c r="P104" s="26"/>
       <c r="AMJ104" s="0"/>
     </row>
-    <row r="105" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="80" t="n">
+    <row r="105" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="79" t="n">
         <v>44624</v>
       </c>
-      <c r="B105" s="81" t="s">
+      <c r="B105" s="80" t="s">
         <v>385</v>
       </c>
-      <c r="C105" s="81" t="s">
+      <c r="C105" s="80" t="s">
         <v>386</v>
       </c>
-      <c r="D105" s="75" t="s">
+      <c r="D105" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="E105" s="68" t="s">
+      <c r="E105" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="F105" s="68"/>
-      <c r="G105" s="50"/>
-      <c r="H105" s="68"/>
-      <c r="I105" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J105" s="82" t="n">
+      <c r="F105" s="67"/>
+      <c r="G105" s="49"/>
+      <c r="H105" s="67"/>
+      <c r="I105" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J105" s="81" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
@@ -7103,36 +7131,36 @@
         <f aca="false">J105-K105-L105</f>
         <v>#REF!</v>
       </c>
-      <c r="N105" s="79" t="s">
+      <c r="N105" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O105" s="26"/>
       <c r="P105" s="26"/>
       <c r="AMJ105" s="0"/>
     </row>
-    <row r="106" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="80" t="n">
+    <row r="106" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="79" t="n">
         <v>44624</v>
       </c>
-      <c r="B106" s="81" t="s">
+      <c r="B106" s="80" t="s">
         <v>385</v>
       </c>
-      <c r="C106" s="81" t="s">
+      <c r="C106" s="80" t="s">
         <v>386</v>
       </c>
-      <c r="D106" s="75" t="s">
+      <c r="D106" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="E106" s="68" t="s">
+      <c r="E106" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="F106" s="68"/>
-      <c r="G106" s="50"/>
-      <c r="H106" s="68"/>
-      <c r="I106" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J106" s="82" t="n">
+      <c r="F106" s="67"/>
+      <c r="G106" s="49"/>
+      <c r="H106" s="67"/>
+      <c r="I106" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J106" s="81" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
@@ -7145,36 +7173,36 @@
         <f aca="false">J106-K106-L106</f>
         <v>#REF!</v>
       </c>
-      <c r="N106" s="79" t="s">
+      <c r="N106" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O106" s="26"/>
       <c r="P106" s="26"/>
       <c r="AMJ106" s="0"/>
     </row>
-    <row r="107" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="80" t="n">
+    <row r="107" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="79" t="n">
         <v>44624</v>
       </c>
-      <c r="B107" s="81" t="s">
+      <c r="B107" s="80" t="s">
         <v>385</v>
       </c>
-      <c r="C107" s="81" t="s">
+      <c r="C107" s="80" t="s">
         <v>386</v>
       </c>
-      <c r="D107" s="75" t="s">
+      <c r="D107" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="E107" s="68" t="s">
+      <c r="E107" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="F107" s="68"/>
-      <c r="G107" s="50"/>
-      <c r="H107" s="68"/>
-      <c r="I107" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J107" s="82" t="n">
+      <c r="F107" s="67"/>
+      <c r="G107" s="49"/>
+      <c r="H107" s="67"/>
+      <c r="I107" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J107" s="81" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
@@ -7187,36 +7215,36 @@
         <f aca="false">J107-K107-L107</f>
         <v>#REF!</v>
       </c>
-      <c r="N107" s="79" t="s">
+      <c r="N107" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O107" s="26"/>
       <c r="P107" s="26"/>
       <c r="AMJ107" s="0"/>
     </row>
-    <row r="108" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="80" t="n">
+    <row r="108" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="79" t="n">
         <v>44624</v>
       </c>
-      <c r="B108" s="81" t="s">
+      <c r="B108" s="80" t="s">
         <v>385</v>
       </c>
-      <c r="C108" s="81" t="s">
+      <c r="C108" s="80" t="s">
         <v>386</v>
       </c>
-      <c r="D108" s="75" t="s">
+      <c r="D108" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="E108" s="68" t="s">
+      <c r="E108" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="F108" s="68"/>
-      <c r="G108" s="50"/>
-      <c r="H108" s="68"/>
-      <c r="I108" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J108" s="82" t="n">
+      <c r="F108" s="67"/>
+      <c r="G108" s="49"/>
+      <c r="H108" s="67"/>
+      <c r="I108" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J108" s="81" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
@@ -7229,36 +7257,36 @@
         <f aca="false">J108-K108-L108</f>
         <v>#REF!</v>
       </c>
-      <c r="N108" s="79" t="s">
+      <c r="N108" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O108" s="26"/>
       <c r="P108" s="26"/>
       <c r="AMJ108" s="0"/>
     </row>
-    <row r="109" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="80" t="n">
+    <row r="109" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="79" t="n">
         <v>44624</v>
       </c>
-      <c r="B109" s="81" t="s">
+      <c r="B109" s="80" t="s">
         <v>385</v>
       </c>
-      <c r="C109" s="81" t="s">
+      <c r="C109" s="80" t="s">
         <v>386</v>
       </c>
-      <c r="D109" s="75" t="s">
+      <c r="D109" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="E109" s="68" t="s">
+      <c r="E109" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="F109" s="68"/>
-      <c r="G109" s="50"/>
-      <c r="H109" s="68"/>
-      <c r="I109" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J109" s="82" t="n">
+      <c r="F109" s="67"/>
+      <c r="G109" s="49"/>
+      <c r="H109" s="67"/>
+      <c r="I109" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J109" s="81" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
@@ -7271,36 +7299,36 @@
         <f aca="false">J109-K109-L109</f>
         <v>#REF!</v>
       </c>
-      <c r="N109" s="79" t="s">
+      <c r="N109" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O109" s="26"/>
       <c r="P109" s="26"/>
       <c r="AMJ109" s="0"/>
     </row>
-    <row r="110" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="80" t="n">
+    <row r="110" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="79" t="n">
         <v>44624</v>
       </c>
-      <c r="B110" s="81" t="s">
+      <c r="B110" s="80" t="s">
         <v>385</v>
       </c>
-      <c r="C110" s="81" t="s">
+      <c r="C110" s="80" t="s">
         <v>386</v>
       </c>
-      <c r="D110" s="75" t="s">
+      <c r="D110" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="E110" s="68" t="s">
+      <c r="E110" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="F110" s="68"/>
-      <c r="G110" s="50"/>
-      <c r="H110" s="68"/>
-      <c r="I110" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J110" s="82" t="n">
+      <c r="F110" s="67"/>
+      <c r="G110" s="49"/>
+      <c r="H110" s="67"/>
+      <c r="I110" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J110" s="81" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
@@ -7313,36 +7341,36 @@
         <f aca="false">J110-K110-L110</f>
         <v>#REF!</v>
       </c>
-      <c r="N110" s="79" t="s">
+      <c r="N110" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O110" s="26"/>
       <c r="P110" s="26"/>
       <c r="AMJ110" s="0"/>
     </row>
-    <row r="111" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="80" t="n">
+    <row r="111" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="79" t="n">
         <v>44624</v>
       </c>
-      <c r="B111" s="81" t="s">
+      <c r="B111" s="80" t="s">
         <v>385</v>
       </c>
-      <c r="C111" s="81" t="s">
+      <c r="C111" s="80" t="s">
         <v>386</v>
       </c>
-      <c r="D111" s="75" t="s">
+      <c r="D111" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="E111" s="68" t="s">
+      <c r="E111" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="F111" s="68"/>
-      <c r="G111" s="50"/>
-      <c r="H111" s="68"/>
-      <c r="I111" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J111" s="82" t="n">
+      <c r="F111" s="67"/>
+      <c r="G111" s="49"/>
+      <c r="H111" s="67"/>
+      <c r="I111" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J111" s="81" t="n">
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
@@ -7355,36 +7383,36 @@
         <f aca="false">J111-K111-L111</f>
         <v>#REF!</v>
       </c>
-      <c r="N111" s="79" t="s">
+      <c r="N111" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O111" s="26"/>
       <c r="P111" s="26"/>
       <c r="AMJ111" s="0"/>
     </row>
-    <row r="112" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="80" t="n">
+    <row r="112" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="79" t="n">
         <v>44624</v>
       </c>
-      <c r="B112" s="81" t="s">
+      <c r="B112" s="80" t="s">
         <v>389</v>
       </c>
-      <c r="C112" s="81" t="s">
+      <c r="C112" s="80" t="s">
         <v>386</v>
       </c>
-      <c r="D112" s="75" t="s">
+      <c r="D112" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="E112" s="68" t="s">
+      <c r="E112" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="F112" s="68"/>
-      <c r="G112" s="50"/>
-      <c r="H112" s="68"/>
-      <c r="I112" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J112" s="82" t="n">
+      <c r="F112" s="67"/>
+      <c r="G112" s="49"/>
+      <c r="H112" s="67"/>
+      <c r="I112" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J112" s="81" t="n">
         <f aca="false">8500</f>
         <v>8500</v>
       </c>
@@ -7397,36 +7425,36 @@
         <f aca="false">J112-K112-L112</f>
         <v>#REF!</v>
       </c>
-      <c r="N112" s="79" t="s">
+      <c r="N112" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O112" s="26"/>
       <c r="P112" s="26"/>
       <c r="AMJ112" s="0"/>
     </row>
-    <row r="113" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="80" t="n">
+    <row r="113" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="79" t="n">
         <v>44624</v>
       </c>
-      <c r="B113" s="81" t="s">
+      <c r="B113" s="80" t="s">
         <v>389</v>
       </c>
-      <c r="C113" s="81" t="s">
+      <c r="C113" s="80" t="s">
         <v>386</v>
       </c>
-      <c r="D113" s="75" t="s">
+      <c r="D113" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="E113" s="68" t="s">
+      <c r="E113" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="F113" s="68"/>
-      <c r="G113" s="50"/>
-      <c r="H113" s="68"/>
-      <c r="I113" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J113" s="82" t="n">
+      <c r="F113" s="67"/>
+      <c r="G113" s="49"/>
+      <c r="H113" s="67"/>
+      <c r="I113" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J113" s="81" t="n">
         <f aca="false">8500</f>
         <v>8500</v>
       </c>
@@ -7439,36 +7467,36 @@
         <f aca="false">J113-K113-L113</f>
         <v>#REF!</v>
       </c>
-      <c r="N113" s="79" t="s">
+      <c r="N113" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O113" s="26"/>
       <c r="P113" s="26"/>
       <c r="AMJ113" s="0"/>
     </row>
-    <row r="114" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="80" t="n">
+    <row r="114" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="79" t="n">
         <v>44624</v>
       </c>
-      <c r="B114" s="81" t="s">
+      <c r="B114" s="80" t="s">
         <v>389</v>
       </c>
-      <c r="C114" s="81" t="s">
+      <c r="C114" s="80" t="s">
         <v>386</v>
       </c>
-      <c r="D114" s="75" t="s">
+      <c r="D114" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="E114" s="68" t="s">
+      <c r="E114" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="F114" s="68"/>
-      <c r="G114" s="50"/>
-      <c r="H114" s="68"/>
-      <c r="I114" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J114" s="82" t="n">
+      <c r="F114" s="67"/>
+      <c r="G114" s="49"/>
+      <c r="H114" s="67"/>
+      <c r="I114" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J114" s="81" t="n">
         <f aca="false">8500</f>
         <v>8500</v>
       </c>
@@ -7481,36 +7509,36 @@
         <f aca="false">J114-K114-L114</f>
         <v>#REF!</v>
       </c>
-      <c r="N114" s="79" t="s">
+      <c r="N114" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O114" s="26"/>
       <c r="P114" s="26"/>
       <c r="AMJ114" s="0"/>
     </row>
-    <row r="115" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="80" t="n">
+    <row r="115" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="79" t="n">
         <v>44624</v>
       </c>
-      <c r="B115" s="81" t="s">
+      <c r="B115" s="80" t="s">
         <v>390</v>
       </c>
-      <c r="C115" s="81" t="s">
+      <c r="C115" s="80" t="s">
         <v>386</v>
       </c>
-      <c r="D115" s="75" t="s">
+      <c r="D115" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="E115" s="68" t="s">
+      <c r="E115" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="F115" s="68"/>
-      <c r="G115" s="50"/>
-      <c r="H115" s="68"/>
-      <c r="I115" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J115" s="82" t="n">
+      <c r="F115" s="67"/>
+      <c r="G115" s="49"/>
+      <c r="H115" s="67"/>
+      <c r="I115" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J115" s="81" t="n">
         <f aca="false">16000</f>
         <v>16000</v>
       </c>
@@ -7523,36 +7551,36 @@
         <f aca="false">J115-K115-L115</f>
         <v>#REF!</v>
       </c>
-      <c r="N115" s="79" t="s">
+      <c r="N115" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O115" s="26"/>
       <c r="P115" s="26"/>
       <c r="AMJ115" s="0"/>
     </row>
-    <row r="116" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="80" t="n">
+    <row r="116" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="79" t="n">
         <v>44624</v>
       </c>
-      <c r="B116" s="81" t="s">
+      <c r="B116" s="80" t="s">
         <v>390</v>
       </c>
-      <c r="C116" s="81" t="s">
+      <c r="C116" s="80" t="s">
         <v>386</v>
       </c>
-      <c r="D116" s="75" t="s">
+      <c r="D116" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="E116" s="68" t="s">
+      <c r="E116" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="F116" s="68"/>
-      <c r="G116" s="50"/>
-      <c r="H116" s="68"/>
-      <c r="I116" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J116" s="82" t="n">
+      <c r="F116" s="67"/>
+      <c r="G116" s="49"/>
+      <c r="H116" s="67"/>
+      <c r="I116" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J116" s="81" t="n">
         <f aca="false">16000</f>
         <v>16000</v>
       </c>
@@ -7565,36 +7593,36 @@
         <f aca="false">J116-K116-L116</f>
         <v>#REF!</v>
       </c>
-      <c r="N116" s="79" t="s">
+      <c r="N116" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O116" s="26"/>
       <c r="P116" s="26"/>
       <c r="AMJ116" s="0"/>
     </row>
-    <row r="117" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="80" t="n">
+    <row r="117" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="79" t="n">
         <v>44624</v>
       </c>
-      <c r="B117" s="81" t="s">
+      <c r="B117" s="80" t="s">
         <v>391</v>
       </c>
-      <c r="C117" s="81" t="s">
+      <c r="C117" s="80" t="s">
         <v>386</v>
       </c>
-      <c r="D117" s="75" t="s">
+      <c r="D117" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="E117" s="68" t="s">
+      <c r="E117" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="F117" s="68"/>
-      <c r="G117" s="50"/>
-      <c r="H117" s="68"/>
-      <c r="I117" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J117" s="82" t="n">
+      <c r="F117" s="67"/>
+      <c r="G117" s="49"/>
+      <c r="H117" s="67"/>
+      <c r="I117" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J117" s="81" t="n">
         <f aca="false">12000</f>
         <v>12000</v>
       </c>
@@ -7607,36 +7635,36 @@
         <f aca="false">J117-K117-L117</f>
         <v>#REF!</v>
       </c>
-      <c r="N117" s="79" t="s">
+      <c r="N117" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O117" s="26"/>
       <c r="P117" s="26"/>
       <c r="AMJ117" s="0"/>
     </row>
-    <row r="118" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="80" t="n">
+    <row r="118" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="79" t="n">
         <v>44624</v>
       </c>
-      <c r="B118" s="81" t="s">
+      <c r="B118" s="80" t="s">
         <v>391</v>
       </c>
-      <c r="C118" s="81" t="s">
+      <c r="C118" s="80" t="s">
         <v>386</v>
       </c>
-      <c r="D118" s="75" t="s">
+      <c r="D118" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="E118" s="68" t="s">
+      <c r="E118" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="F118" s="68"/>
-      <c r="G118" s="50"/>
-      <c r="H118" s="68"/>
-      <c r="I118" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J118" s="82" t="n">
+      <c r="F118" s="67"/>
+      <c r="G118" s="49"/>
+      <c r="H118" s="67"/>
+      <c r="I118" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J118" s="81" t="n">
         <f aca="false">12000</f>
         <v>12000</v>
       </c>
@@ -7649,36 +7677,36 @@
         <f aca="false">J118-K118-L118</f>
         <v>#REF!</v>
       </c>
-      <c r="N118" s="79" t="s">
+      <c r="N118" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O118" s="26"/>
       <c r="P118" s="26"/>
       <c r="AMJ118" s="0"/>
     </row>
-    <row r="119" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="80" t="n">
+    <row r="119" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="79" t="n">
         <v>44624</v>
       </c>
-      <c r="B119" s="81" t="s">
+      <c r="B119" s="80" t="s">
         <v>392</v>
       </c>
-      <c r="C119" s="81" t="s">
+      <c r="C119" s="80" t="s">
         <v>386</v>
       </c>
-      <c r="D119" s="75" t="s">
+      <c r="D119" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="E119" s="68" t="s">
+      <c r="E119" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="F119" s="68"/>
-      <c r="G119" s="50"/>
-      <c r="H119" s="68"/>
-      <c r="I119" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J119" s="82" t="n">
+      <c r="F119" s="67"/>
+      <c r="G119" s="49"/>
+      <c r="H119" s="67"/>
+      <c r="I119" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J119" s="81" t="n">
         <f aca="false">31304.35</f>
         <v>31304.35</v>
       </c>
@@ -7691,36 +7719,36 @@
         <f aca="false">J119-K119-L119</f>
         <v>#REF!</v>
       </c>
-      <c r="N119" s="79" t="s">
+      <c r="N119" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O119" s="26"/>
       <c r="P119" s="26"/>
       <c r="AMJ119" s="0"/>
     </row>
-    <row r="120" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="80" t="n">
+    <row r="120" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="79" t="n">
         <v>44624</v>
       </c>
-      <c r="B120" s="81" t="s">
+      <c r="B120" s="80" t="s">
         <v>392</v>
       </c>
-      <c r="C120" s="81" t="s">
+      <c r="C120" s="80" t="s">
         <v>386</v>
       </c>
-      <c r="D120" s="75" t="s">
+      <c r="D120" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="E120" s="68" t="s">
+      <c r="E120" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="F120" s="68"/>
-      <c r="G120" s="50"/>
-      <c r="H120" s="68"/>
-      <c r="I120" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J120" s="82" t="n">
+      <c r="F120" s="67"/>
+      <c r="G120" s="49"/>
+      <c r="H120" s="67"/>
+      <c r="I120" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J120" s="81" t="n">
         <f aca="false">31304.35</f>
         <v>31304.35</v>
       </c>
@@ -7733,36 +7761,36 @@
         <f aca="false">J120-K120-L120</f>
         <v>#REF!</v>
       </c>
-      <c r="N120" s="79" t="s">
+      <c r="N120" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O120" s="26"/>
       <c r="P120" s="26"/>
       <c r="AMJ120" s="0"/>
     </row>
-    <row r="121" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="80" t="n">
+    <row r="121" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="79" t="n">
         <v>44649</v>
       </c>
-      <c r="B121" s="81" t="s">
+      <c r="B121" s="80" t="s">
         <v>393</v>
       </c>
-      <c r="C121" s="81" t="s">
+      <c r="C121" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="D121" s="75" t="s">
+      <c r="D121" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E121" s="68" t="s">
+      <c r="E121" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="F121" s="68"/>
-      <c r="G121" s="50"/>
-      <c r="H121" s="68"/>
-      <c r="I121" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J121" s="82" t="n">
+      <c r="F121" s="67"/>
+      <c r="G121" s="49"/>
+      <c r="H121" s="67"/>
+      <c r="I121" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J121" s="81" t="n">
         <v>16500</v>
       </c>
       <c r="K121" s="36" t="e">
@@ -7774,36 +7802,36 @@
         <f aca="false">J121-K121-L121</f>
         <v>#REF!</v>
       </c>
-      <c r="N121" s="79" t="s">
+      <c r="N121" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O121" s="26"/>
       <c r="P121" s="26"/>
       <c r="AMJ121" s="0"/>
     </row>
-    <row r="122" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="80" t="n">
+    <row r="122" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="79" t="n">
         <v>44649</v>
       </c>
-      <c r="B122" s="81" t="s">
+      <c r="B122" s="80" t="s">
         <v>393</v>
       </c>
-      <c r="C122" s="81" t="s">
+      <c r="C122" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="D122" s="75" t="s">
+      <c r="D122" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E122" s="68" t="s">
+      <c r="E122" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="F122" s="68"/>
-      <c r="G122" s="50"/>
-      <c r="H122" s="68"/>
-      <c r="I122" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J122" s="82" t="n">
+      <c r="F122" s="67"/>
+      <c r="G122" s="49"/>
+      <c r="H122" s="67"/>
+      <c r="I122" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J122" s="81" t="n">
         <v>16500</v>
       </c>
       <c r="K122" s="36" t="e">
@@ -7815,36 +7843,36 @@
         <f aca="false">J122-K122-L122</f>
         <v>#REF!</v>
       </c>
-      <c r="N122" s="79" t="s">
+      <c r="N122" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O122" s="26"/>
       <c r="P122" s="26"/>
       <c r="AMJ122" s="0"/>
     </row>
-    <row r="123" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="80" t="n">
+    <row r="123" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="79" t="n">
         <v>44649</v>
       </c>
-      <c r="B123" s="81" t="s">
+      <c r="B123" s="80" t="s">
         <v>393</v>
       </c>
-      <c r="C123" s="81" t="s">
+      <c r="C123" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="D123" s="75" t="s">
+      <c r="D123" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E123" s="68" t="s">
+      <c r="E123" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="F123" s="68"/>
-      <c r="G123" s="50"/>
-      <c r="H123" s="68"/>
-      <c r="I123" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J123" s="82" t="n">
+      <c r="F123" s="67"/>
+      <c r="G123" s="49"/>
+      <c r="H123" s="67"/>
+      <c r="I123" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J123" s="81" t="n">
         <v>16500</v>
       </c>
       <c r="K123" s="36" t="e">
@@ -7856,36 +7884,36 @@
         <f aca="false">J123-K123-L123</f>
         <v>#REF!</v>
       </c>
-      <c r="N123" s="79" t="s">
+      <c r="N123" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O123" s="26"/>
       <c r="P123" s="26"/>
       <c r="AMJ123" s="0"/>
     </row>
-    <row r="124" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="80" t="n">
+    <row r="124" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="79" t="n">
         <v>44649</v>
       </c>
-      <c r="B124" s="81" t="s">
+      <c r="B124" s="80" t="s">
         <v>393</v>
       </c>
-      <c r="C124" s="81" t="s">
+      <c r="C124" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="D124" s="75" t="s">
+      <c r="D124" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E124" s="68" t="s">
+      <c r="E124" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="F124" s="68"/>
-      <c r="G124" s="50"/>
-      <c r="H124" s="68"/>
-      <c r="I124" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J124" s="82" t="n">
+      <c r="F124" s="67"/>
+      <c r="G124" s="49"/>
+      <c r="H124" s="67"/>
+      <c r="I124" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J124" s="81" t="n">
         <v>16500</v>
       </c>
       <c r="K124" s="36" t="e">
@@ -7897,36 +7925,36 @@
         <f aca="false">J124-K124-L124</f>
         <v>#REF!</v>
       </c>
-      <c r="N124" s="79" t="s">
+      <c r="N124" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O124" s="26"/>
       <c r="P124" s="26"/>
       <c r="AMJ124" s="0"/>
     </row>
-    <row r="125" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="80" t="n">
+    <row r="125" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="79" t="n">
         <v>44649</v>
       </c>
-      <c r="B125" s="81" t="s">
+      <c r="B125" s="80" t="s">
         <v>393</v>
       </c>
-      <c r="C125" s="81" t="s">
+      <c r="C125" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="D125" s="75" t="s">
+      <c r="D125" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E125" s="68" t="s">
+      <c r="E125" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="F125" s="68"/>
-      <c r="G125" s="50"/>
-      <c r="H125" s="68"/>
-      <c r="I125" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J125" s="82" t="n">
+      <c r="F125" s="67"/>
+      <c r="G125" s="49"/>
+      <c r="H125" s="67"/>
+      <c r="I125" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J125" s="81" t="n">
         <v>16500</v>
       </c>
       <c r="K125" s="36" t="e">
@@ -7938,36 +7966,36 @@
         <f aca="false">J125-K125-L125</f>
         <v>#REF!</v>
       </c>
-      <c r="N125" s="79" t="s">
+      <c r="N125" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O125" s="26"/>
       <c r="P125" s="26"/>
       <c r="AMJ125" s="0"/>
     </row>
-    <row r="126" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="80" t="n">
+    <row r="126" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="79" t="n">
         <v>44649</v>
       </c>
-      <c r="B126" s="81" t="s">
+      <c r="B126" s="80" t="s">
         <v>393</v>
       </c>
-      <c r="C126" s="81" t="s">
+      <c r="C126" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="D126" s="75" t="s">
+      <c r="D126" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E126" s="68" t="s">
+      <c r="E126" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="F126" s="68"/>
-      <c r="G126" s="50"/>
-      <c r="H126" s="68"/>
-      <c r="I126" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J126" s="82" t="n">
+      <c r="F126" s="67"/>
+      <c r="G126" s="49"/>
+      <c r="H126" s="67"/>
+      <c r="I126" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J126" s="81" t="n">
         <v>16500</v>
       </c>
       <c r="K126" s="36" t="e">
@@ -7979,36 +8007,36 @@
         <f aca="false">J126-K126-L126</f>
         <v>#REF!</v>
       </c>
-      <c r="N126" s="79" t="s">
+      <c r="N126" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O126" s="26"/>
       <c r="P126" s="26"/>
       <c r="AMJ126" s="0"/>
     </row>
-    <row r="127" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="80" t="n">
+    <row r="127" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="79" t="n">
         <v>44649</v>
       </c>
-      <c r="B127" s="81" t="s">
+      <c r="B127" s="80" t="s">
         <v>393</v>
       </c>
-      <c r="C127" s="81" t="s">
+      <c r="C127" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="D127" s="75" t="s">
+      <c r="D127" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E127" s="68" t="s">
+      <c r="E127" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="F127" s="68"/>
-      <c r="G127" s="50"/>
-      <c r="H127" s="68"/>
-      <c r="I127" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J127" s="82" t="n">
+      <c r="F127" s="67"/>
+      <c r="G127" s="49"/>
+      <c r="H127" s="67"/>
+      <c r="I127" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J127" s="81" t="n">
         <v>16500</v>
       </c>
       <c r="K127" s="36" t="e">
@@ -8020,36 +8048,36 @@
         <f aca="false">J127-K127-L127</f>
         <v>#REF!</v>
       </c>
-      <c r="N127" s="79" t="s">
+      <c r="N127" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O127" s="26"/>
       <c r="P127" s="26"/>
       <c r="AMJ127" s="0"/>
     </row>
-    <row r="128" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="80" t="n">
+    <row r="128" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="79" t="n">
         <v>44649</v>
       </c>
-      <c r="B128" s="81" t="s">
+      <c r="B128" s="80" t="s">
         <v>393</v>
       </c>
-      <c r="C128" s="81" t="s">
+      <c r="C128" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="D128" s="75" t="s">
+      <c r="D128" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E128" s="68" t="s">
+      <c r="E128" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="F128" s="68"/>
-      <c r="G128" s="50"/>
-      <c r="H128" s="68"/>
-      <c r="I128" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J128" s="82" t="n">
+      <c r="F128" s="67"/>
+      <c r="G128" s="49"/>
+      <c r="H128" s="67"/>
+      <c r="I128" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J128" s="81" t="n">
         <v>16500</v>
       </c>
       <c r="K128" s="36" t="e">
@@ -8061,36 +8089,36 @@
         <f aca="false">J128-K128-L128</f>
         <v>#REF!</v>
       </c>
-      <c r="N128" s="79" t="s">
+      <c r="N128" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O128" s="26"/>
       <c r="P128" s="26"/>
       <c r="AMJ128" s="0"/>
     </row>
-    <row r="129" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="80" t="n">
+    <row r="129" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="79" t="n">
         <v>44649</v>
       </c>
-      <c r="B129" s="81" t="s">
+      <c r="B129" s="80" t="s">
         <v>393</v>
       </c>
-      <c r="C129" s="81" t="s">
+      <c r="C129" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="D129" s="75" t="s">
+      <c r="D129" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E129" s="68" t="s">
+      <c r="E129" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="F129" s="68"/>
-      <c r="G129" s="50"/>
-      <c r="H129" s="68"/>
-      <c r="I129" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J129" s="82" t="n">
+      <c r="F129" s="67"/>
+      <c r="G129" s="49"/>
+      <c r="H129" s="67"/>
+      <c r="I129" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J129" s="81" t="n">
         <v>16500</v>
       </c>
       <c r="K129" s="36" t="e">
@@ -8102,36 +8130,36 @@
         <f aca="false">J129-K129-L129</f>
         <v>#REF!</v>
       </c>
-      <c r="N129" s="79" t="s">
+      <c r="N129" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O129" s="26"/>
       <c r="P129" s="26"/>
       <c r="AMJ129" s="0"/>
     </row>
-    <row r="130" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="80" t="n">
+    <row r="130" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="79" t="n">
         <v>44649</v>
       </c>
-      <c r="B130" s="81" t="s">
+      <c r="B130" s="80" t="s">
         <v>393</v>
       </c>
-      <c r="C130" s="81" t="s">
+      <c r="C130" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="D130" s="75" t="s">
+      <c r="D130" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E130" s="68" t="s">
+      <c r="E130" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="F130" s="68"/>
-      <c r="G130" s="50"/>
-      <c r="H130" s="68"/>
-      <c r="I130" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J130" s="82" t="n">
+      <c r="F130" s="67"/>
+      <c r="G130" s="49"/>
+      <c r="H130" s="67"/>
+      <c r="I130" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J130" s="81" t="n">
         <v>16500</v>
       </c>
       <c r="K130" s="36" t="e">
@@ -8143,36 +8171,36 @@
         <f aca="false">J130-K130-L130</f>
         <v>#REF!</v>
       </c>
-      <c r="N130" s="79" t="s">
+      <c r="N130" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O130" s="26"/>
       <c r="P130" s="26"/>
       <c r="AMJ130" s="0"/>
     </row>
-    <row r="131" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="80" t="n">
+    <row r="131" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="79" t="n">
         <v>44649</v>
       </c>
-      <c r="B131" s="81" t="s">
+      <c r="B131" s="80" t="s">
         <v>393</v>
       </c>
-      <c r="C131" s="81" t="s">
+      <c r="C131" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="D131" s="75" t="s">
+      <c r="D131" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E131" s="68" t="s">
+      <c r="E131" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="F131" s="68"/>
-      <c r="G131" s="50"/>
-      <c r="H131" s="68"/>
-      <c r="I131" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J131" s="82" t="n">
+      <c r="F131" s="67"/>
+      <c r="G131" s="49"/>
+      <c r="H131" s="67"/>
+      <c r="I131" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J131" s="81" t="n">
         <v>16500</v>
       </c>
       <c r="K131" s="36" t="e">
@@ -8184,36 +8212,36 @@
         <f aca="false">J131-K131-L131</f>
         <v>#REF!</v>
       </c>
-      <c r="N131" s="79" t="s">
+      <c r="N131" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O131" s="26"/>
       <c r="P131" s="26"/>
       <c r="AMJ131" s="0"/>
     </row>
-    <row r="132" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="80" t="n">
+    <row r="132" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="79" t="n">
         <v>44649</v>
       </c>
-      <c r="B132" s="81" t="s">
+      <c r="B132" s="80" t="s">
         <v>396</v>
       </c>
-      <c r="C132" s="81" t="s">
+      <c r="C132" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="D132" s="75" t="s">
+      <c r="D132" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E132" s="68" t="s">
+      <c r="E132" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="F132" s="68"/>
-      <c r="G132" s="50"/>
-      <c r="H132" s="68"/>
-      <c r="I132" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J132" s="82" t="n">
+      <c r="F132" s="67"/>
+      <c r="G132" s="49"/>
+      <c r="H132" s="67"/>
+      <c r="I132" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J132" s="81" t="n">
         <f aca="false">13000</f>
         <v>13000</v>
       </c>
@@ -8226,36 +8254,36 @@
         <f aca="false">J132-K132-L132</f>
         <v>#REF!</v>
       </c>
-      <c r="N132" s="79" t="s">
+      <c r="N132" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O132" s="26"/>
       <c r="P132" s="26"/>
       <c r="AMJ132" s="0"/>
     </row>
-    <row r="133" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="80" t="n">
+    <row r="133" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="79" t="n">
         <v>44649</v>
       </c>
-      <c r="B133" s="81" t="s">
+      <c r="B133" s="80" t="s">
         <v>396</v>
       </c>
-      <c r="C133" s="81" t="s">
+      <c r="C133" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="D133" s="75" t="s">
+      <c r="D133" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E133" s="68" t="s">
+      <c r="E133" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="F133" s="68"/>
-      <c r="G133" s="50"/>
-      <c r="H133" s="68"/>
-      <c r="I133" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J133" s="82" t="n">
+      <c r="F133" s="67"/>
+      <c r="G133" s="49"/>
+      <c r="H133" s="67"/>
+      <c r="I133" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J133" s="81" t="n">
         <f aca="false">13000</f>
         <v>13000</v>
       </c>
@@ -8268,36 +8296,36 @@
         <f aca="false">J133-K133-L133</f>
         <v>#REF!</v>
       </c>
-      <c r="N133" s="79" t="s">
+      <c r="N133" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O133" s="26"/>
       <c r="P133" s="26"/>
       <c r="AMJ133" s="0"/>
     </row>
-    <row r="134" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="80" t="n">
+    <row r="134" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="79" t="n">
         <v>44649</v>
       </c>
-      <c r="B134" s="81" t="s">
+      <c r="B134" s="80" t="s">
         <v>396</v>
       </c>
-      <c r="C134" s="81" t="s">
+      <c r="C134" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="D134" s="75" t="s">
+      <c r="D134" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E134" s="68" t="s">
+      <c r="E134" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="F134" s="68"/>
-      <c r="G134" s="50"/>
-      <c r="H134" s="68"/>
-      <c r="I134" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J134" s="82" t="n">
+      <c r="F134" s="67"/>
+      <c r="G134" s="49"/>
+      <c r="H134" s="67"/>
+      <c r="I134" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J134" s="81" t="n">
         <f aca="false">13000</f>
         <v>13000</v>
       </c>
@@ -8310,36 +8338,36 @@
         <f aca="false">J134-K134-L134</f>
         <v>#REF!</v>
       </c>
-      <c r="N134" s="79" t="s">
+      <c r="N134" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O134" s="26"/>
       <c r="P134" s="26"/>
       <c r="AMJ134" s="0"/>
     </row>
-    <row r="135" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="80" t="n">
+    <row r="135" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="79" t="n">
         <v>44649</v>
       </c>
-      <c r="B135" s="81" t="s">
+      <c r="B135" s="80" t="s">
         <v>396</v>
       </c>
-      <c r="C135" s="81" t="s">
+      <c r="C135" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="D135" s="75" t="s">
+      <c r="D135" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E135" s="68" t="s">
+      <c r="E135" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="F135" s="68"/>
-      <c r="G135" s="50"/>
-      <c r="H135" s="68"/>
-      <c r="I135" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J135" s="82" t="n">
+      <c r="F135" s="67"/>
+      <c r="G135" s="49"/>
+      <c r="H135" s="67"/>
+      <c r="I135" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J135" s="81" t="n">
         <f aca="false">13000</f>
         <v>13000</v>
       </c>
@@ -8352,36 +8380,36 @@
         <f aca="false">J135-K135-L135</f>
         <v>#REF!</v>
       </c>
-      <c r="N135" s="79" t="s">
+      <c r="N135" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O135" s="26"/>
       <c r="P135" s="26"/>
       <c r="AMJ135" s="0"/>
     </row>
-    <row r="136" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="80" t="n">
+    <row r="136" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="79" t="n">
         <v>44649</v>
       </c>
-      <c r="B136" s="81" t="s">
+      <c r="B136" s="80" t="s">
         <v>389</v>
       </c>
-      <c r="C136" s="81" t="s">
+      <c r="C136" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="D136" s="75" t="s">
+      <c r="D136" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E136" s="68" t="s">
+      <c r="E136" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="F136" s="68"/>
-      <c r="G136" s="50"/>
-      <c r="H136" s="68"/>
-      <c r="I136" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J136" s="82" t="n">
+      <c r="F136" s="67"/>
+      <c r="G136" s="49"/>
+      <c r="H136" s="67"/>
+      <c r="I136" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J136" s="81" t="n">
         <f aca="false">8500</f>
         <v>8500</v>
       </c>
@@ -8394,36 +8422,36 @@
         <f aca="false">J136-K136-L136</f>
         <v>#REF!</v>
       </c>
-      <c r="N136" s="79" t="s">
+      <c r="N136" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O136" s="26"/>
       <c r="P136" s="26"/>
       <c r="AMJ136" s="0"/>
     </row>
-    <row r="137" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="80" t="n">
+    <row r="137" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="79" t="n">
         <v>44649</v>
       </c>
-      <c r="B137" s="81" t="s">
+      <c r="B137" s="80" t="s">
         <v>389</v>
       </c>
-      <c r="C137" s="81" t="s">
+      <c r="C137" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="D137" s="75" t="s">
+      <c r="D137" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E137" s="68" t="s">
+      <c r="E137" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="F137" s="68"/>
-      <c r="G137" s="50"/>
-      <c r="H137" s="68"/>
-      <c r="I137" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J137" s="82" t="n">
+      <c r="F137" s="67"/>
+      <c r="G137" s="49"/>
+      <c r="H137" s="67"/>
+      <c r="I137" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J137" s="81" t="n">
         <f aca="false">8500</f>
         <v>8500</v>
       </c>
@@ -8436,36 +8464,36 @@
         <f aca="false">J137-K137-L137</f>
         <v>#REF!</v>
       </c>
-      <c r="N137" s="79" t="s">
+      <c r="N137" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O137" s="26"/>
       <c r="P137" s="26"/>
       <c r="AMJ137" s="0"/>
     </row>
-    <row r="138" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="80" t="n">
+    <row r="138" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="79" t="n">
         <v>44649</v>
       </c>
-      <c r="B138" s="81" t="s">
+      <c r="B138" s="80" t="s">
         <v>389</v>
       </c>
-      <c r="C138" s="81" t="s">
+      <c r="C138" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="D138" s="75" t="s">
+      <c r="D138" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E138" s="68" t="s">
+      <c r="E138" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="F138" s="68"/>
-      <c r="G138" s="50"/>
-      <c r="H138" s="68"/>
-      <c r="I138" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J138" s="82" t="n">
+      <c r="F138" s="67"/>
+      <c r="G138" s="49"/>
+      <c r="H138" s="67"/>
+      <c r="I138" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J138" s="81" t="n">
         <f aca="false">8500</f>
         <v>8500</v>
       </c>
@@ -8478,36 +8506,36 @@
         <f aca="false">J138-K138-L138</f>
         <v>#REF!</v>
       </c>
-      <c r="N138" s="79" t="s">
+      <c r="N138" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O138" s="26"/>
       <c r="P138" s="26"/>
       <c r="AMJ138" s="0"/>
     </row>
-    <row r="139" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="80" t="n">
+    <row r="139" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="79" t="n">
         <v>44649</v>
       </c>
-      <c r="B139" s="81" t="s">
+      <c r="B139" s="80" t="s">
         <v>397</v>
       </c>
-      <c r="C139" s="81" t="s">
+      <c r="C139" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="D139" s="75" t="s">
+      <c r="D139" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E139" s="68" t="s">
+      <c r="E139" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="F139" s="68"/>
-      <c r="G139" s="50"/>
-      <c r="H139" s="68"/>
-      <c r="I139" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J139" s="82" t="n">
+      <c r="F139" s="67"/>
+      <c r="G139" s="49"/>
+      <c r="H139" s="67"/>
+      <c r="I139" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J139" s="81" t="n">
         <v>8000</v>
       </c>
       <c r="K139" s="36" t="e">
@@ -8519,36 +8547,36 @@
         <f aca="false">J139-K139-L139</f>
         <v>#REF!</v>
       </c>
-      <c r="N139" s="79" t="s">
+      <c r="N139" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O139" s="26"/>
       <c r="P139" s="26"/>
       <c r="AMJ139" s="0"/>
     </row>
-    <row r="140" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="80" t="n">
+    <row r="140" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="79" t="n">
         <v>44649</v>
       </c>
-      <c r="B140" s="81" t="s">
+      <c r="B140" s="80" t="s">
         <v>398</v>
       </c>
-      <c r="C140" s="81" t="s">
+      <c r="C140" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="D140" s="75" t="s">
+      <c r="D140" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E140" s="68" t="s">
+      <c r="E140" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="F140" s="68"/>
-      <c r="G140" s="50"/>
-      <c r="H140" s="68"/>
-      <c r="I140" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J140" s="82" t="n">
+      <c r="F140" s="67"/>
+      <c r="G140" s="49"/>
+      <c r="H140" s="67"/>
+      <c r="I140" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J140" s="81" t="n">
         <f aca="false">8000</f>
         <v>8000</v>
       </c>
@@ -8561,36 +8589,36 @@
         <f aca="false">J140-K140-L140</f>
         <v>#REF!</v>
       </c>
-      <c r="N140" s="79" t="s">
+      <c r="N140" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O140" s="26"/>
       <c r="P140" s="26"/>
       <c r="AMJ140" s="0"/>
     </row>
-    <row r="141" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="80" t="n">
+    <row r="141" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="79" t="n">
         <v>44649</v>
       </c>
-      <c r="B141" s="81" t="s">
+      <c r="B141" s="80" t="s">
         <v>399</v>
       </c>
-      <c r="C141" s="81" t="s">
+      <c r="C141" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="D141" s="75" t="s">
+      <c r="D141" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E141" s="68" t="s">
+      <c r="E141" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="F141" s="68"/>
-      <c r="G141" s="50"/>
-      <c r="H141" s="68"/>
-      <c r="I141" s="77" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J141" s="82" t="n">
+      <c r="F141" s="67"/>
+      <c r="G141" s="49"/>
+      <c r="H141" s="67"/>
+      <c r="I141" s="76" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J141" s="81" t="n">
         <v>7000</v>
       </c>
       <c r="K141" s="36" t="e">
@@ -8602,33 +8630,33 @@
         <f aca="false">J141-K141-L141</f>
         <v>#REF!</v>
       </c>
-      <c r="N141" s="79" t="s">
+      <c r="N141" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O141" s="26"/>
       <c r="P141" s="26"/>
       <c r="AMJ141" s="0"/>
     </row>
-    <row r="142" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="80" t="n">
+    <row r="142" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="79" t="n">
         <v>44649</v>
       </c>
-      <c r="B142" s="81" t="s">
+      <c r="B142" s="80" t="s">
         <v>392</v>
       </c>
-      <c r="C142" s="81" t="s">
+      <c r="C142" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="D142" s="75" t="s">
+      <c r="D142" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E142" s="68" t="s">
+      <c r="E142" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="F142" s="68"/>
-      <c r="G142" s="50"/>
-      <c r="H142" s="68"/>
-      <c r="I142" s="77" t="n">
+      <c r="F142" s="67"/>
+      <c r="G142" s="49"/>
+      <c r="H142" s="67"/>
+      <c r="I142" s="76" t="n">
         <v>0.143</v>
       </c>
       <c r="J142" s="37" t="n">
@@ -8644,33 +8672,33 @@
         <f aca="false">J142-K142-L142</f>
         <v>#REF!</v>
       </c>
-      <c r="N142" s="79" t="s">
+      <c r="N142" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O142" s="26"/>
       <c r="P142" s="26"/>
       <c r="AMJ142" s="0"/>
     </row>
-    <row r="143" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="80" t="n">
+    <row r="143" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="79" t="n">
         <v>44649</v>
       </c>
-      <c r="B143" s="81" t="s">
+      <c r="B143" s="80" t="s">
         <v>392</v>
       </c>
-      <c r="C143" s="81" t="s">
+      <c r="C143" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="D143" s="75" t="s">
+      <c r="D143" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E143" s="68" t="s">
+      <c r="E143" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="F143" s="68"/>
-      <c r="G143" s="50"/>
-      <c r="H143" s="68"/>
-      <c r="I143" s="77" t="n">
+      <c r="F143" s="67"/>
+      <c r="G143" s="49"/>
+      <c r="H143" s="67"/>
+      <c r="I143" s="76" t="n">
         <v>0.143</v>
       </c>
       <c r="J143" s="37" t="n">
@@ -8686,14 +8714,14 @@
         <f aca="false">J143-K143-L143</f>
         <v>#REF!</v>
       </c>
-      <c r="N143" s="79" t="s">
+      <c r="N143" s="78" t="s">
         <v>375</v>
       </c>
       <c r="O143" s="26"/>
       <c r="P143" s="26"/>
       <c r="AMJ143" s="0"/>
     </row>
-    <row r="144" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="42" t="n">
         <v>42637</v>
       </c>
@@ -8735,14 +8763,14 @@
         <f aca="false">J144-K144-L144</f>
         <v>1098.68031</v>
       </c>
-      <c r="N144" s="83" t="s">
+      <c r="N144" s="82" t="s">
         <v>405</v>
       </c>
       <c r="O144" s="26"/>
       <c r="P144" s="26"/>
       <c r="AMJ144" s="0"/>
     </row>
-    <row r="145" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="42" t="n">
         <v>40493</v>
       </c>
@@ -8773,7 +8801,9 @@
       <c r="J145" s="37" t="n">
         <v>5217.39</v>
       </c>
-      <c r="K145" s="36"/>
+      <c r="K145" s="36" t="n">
+        <v>0</v>
+      </c>
       <c r="L145" s="36" t="n">
         <v>5207.39</v>
       </c>
@@ -8781,7 +8811,7 @@
         <f aca="false">J145-K145-L145</f>
         <v>10</v>
       </c>
-      <c r="N145" s="83" t="s">
+      <c r="N145" s="82" t="s">
         <v>405</v>
       </c>
       <c r="O145" s="26"/>
@@ -8830,7 +8860,7 @@
         <f aca="false">J146-K146-L146</f>
         <v>895.09112</v>
       </c>
-      <c r="N146" s="83" t="s">
+      <c r="N146" s="82" t="s">
         <v>405</v>
       </c>
       <c r="O146" s="26"/>
@@ -8878,7 +8908,7 @@
         <f aca="false">J147-K147-L147</f>
         <v>10</v>
       </c>
-      <c r="N147" s="83" t="s">
+      <c r="N147" s="82" t="s">
         <v>405</v>
       </c>
       <c r="O147" s="26"/>
@@ -8926,7 +8956,7 @@
         <f aca="false">J148-K148-L148</f>
         <v>10</v>
       </c>
-      <c r="N148" s="83" t="s">
+      <c r="N148" s="82" t="s">
         <v>405</v>
       </c>
       <c r="O148" s="26"/>
@@ -8934,7 +8964,7 @@
       <c r="AMJ148" s="0"/>
     </row>
     <row r="149" s="27" customFormat="true" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="72" t="n">
+      <c r="A149" s="71" t="n">
         <v>41382</v>
       </c>
       <c r="B149" s="43" t="s">
@@ -8946,7 +8976,7 @@
       <c r="D149" s="43" t="s">
         <v>422</v>
       </c>
-      <c r="E149" s="84" t="s">
+      <c r="E149" s="83" t="s">
         <v>423</v>
       </c>
       <c r="F149" s="31" t="s">
@@ -8955,7 +8985,7 @@
       <c r="G149" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="H149" s="84" t="s">
+      <c r="H149" s="83" t="s">
         <v>424</v>
       </c>
       <c r="I149" s="34" t="n">
@@ -8974,7 +9004,7 @@
         <f aca="false">J149-K149-L149</f>
         <v>10</v>
       </c>
-      <c r="N149" s="83" t="s">
+      <c r="N149" s="82" t="s">
         <v>405</v>
       </c>
       <c r="O149" s="26"/>
@@ -8985,16 +9015,16 @@
       <c r="A150" s="28" t="n">
         <v>41122</v>
       </c>
-      <c r="B150" s="85" t="s">
+      <c r="B150" s="84" t="s">
         <v>425</v>
       </c>
-      <c r="C150" s="62" t="s">
+      <c r="C150" s="61" t="s">
         <v>426</v>
       </c>
       <c r="D150" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="E150" s="46" t="s">
+      <c r="E150" s="45" t="s">
         <v>428</v>
       </c>
       <c r="F150" s="31" t="s">
@@ -9003,16 +9033,18 @@
       <c r="G150" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="H150" s="46" t="s">
+      <c r="H150" s="45" t="s">
         <v>429</v>
       </c>
       <c r="I150" s="34" t="n">
         <v>0.143</v>
       </c>
-      <c r="J150" s="63" t="n">
+      <c r="J150" s="62" t="n">
         <v>5956.51</v>
       </c>
-      <c r="K150" s="36"/>
+      <c r="K150" s="36" t="n">
+        <v>0</v>
+      </c>
       <c r="L150" s="36" t="n">
         <v>5946.51</v>
       </c>
@@ -9020,7 +9052,7 @@
         <f aca="false">J150-K150-L150</f>
         <v>10</v>
       </c>
-      <c r="N150" s="83" t="str">
+      <c r="N150" s="82" t="str">
         <f aca="false">+N145</f>
         <v>Damage</v>
       </c>
@@ -9029,7 +9061,7 @@
       <c r="AMJ150" s="0"/>
     </row>
     <row r="151" s="27" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="45" t="n">
+      <c r="A151" s="44" t="n">
         <v>43104</v>
       </c>
       <c r="B151" s="29" t="s">
@@ -9041,7 +9073,7 @@
       <c r="D151" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E151" s="46" t="s">
+      <c r="E151" s="45" t="s">
         <v>85</v>
       </c>
       <c r="F151" s="31" t="s">
@@ -9050,7 +9082,7 @@
       <c r="G151" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="H151" s="46" t="s">
+      <c r="H151" s="45" t="s">
         <v>431</v>
       </c>
       <c r="I151" s="34" t="n">
@@ -9070,7 +9102,7 @@
         <f aca="false">J151-K151-L151</f>
         <v>789.38323</v>
       </c>
-      <c r="N151" s="83" t="str">
+      <c r="N151" s="82" t="str">
         <f aca="false">+N150</f>
         <v>Damage</v>
       </c>
@@ -9079,7 +9111,7 @@
       <c r="AMJ151" s="0"/>
     </row>
     <row r="152" s="27" customFormat="true" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="45" t="n">
+      <c r="A152" s="44" t="n">
         <v>41181</v>
       </c>
       <c r="B152" s="29" t="s">
@@ -9091,7 +9123,7 @@
       <c r="D152" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="E152" s="46" t="s">
+      <c r="E152" s="45" t="s">
         <v>433</v>
       </c>
       <c r="F152" s="31" t="s">
@@ -9100,7 +9132,7 @@
       <c r="G152" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="H152" s="46" t="s">
+      <c r="H152" s="45" t="s">
         <v>434</v>
       </c>
       <c r="I152" s="34" t="n">
@@ -9109,7 +9141,9 @@
       <c r="J152" s="35" t="n">
         <v>10869.57</v>
       </c>
-      <c r="K152" s="36"/>
+      <c r="K152" s="36" t="n">
+        <v>0</v>
+      </c>
       <c r="L152" s="37" t="n">
         <v>10859.57</v>
       </c>
@@ -9117,7 +9151,7 @@
         <f aca="false">J152-K152-L152</f>
         <v>10</v>
       </c>
-      <c r="N152" s="83" t="str">
+      <c r="N152" s="82" t="str">
         <f aca="false">+N151</f>
         <v>Damage</v>
       </c>
@@ -9125,33 +9159,33 @@
       <c r="P152" s="26"/>
       <c r="AMJ152" s="0"/>
     </row>
-    <row r="153" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="45" t="n">
+    <row r="153" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="44" t="n">
         <f aca="false">A39</f>
         <v>42878</v>
       </c>
-      <c r="B153" s="86" t="s">
+      <c r="B153" s="85" t="s">
         <v>435</v>
       </c>
-      <c r="C153" s="86" t="str">
+      <c r="C153" s="85" t="str">
         <f aca="false">C39</f>
         <v>FS00001347</v>
       </c>
-      <c r="D153" s="86" t="str">
+      <c r="D153" s="85" t="str">
         <f aca="false">D39</f>
-        <v>Jupiter Trading</v>
-      </c>
-      <c r="E153" s="87" t="str">
+        <v>Jupiter Trading </v>
+      </c>
+      <c r="E153" s="86" t="str">
         <f aca="false">E39</f>
         <v>CPV3022</v>
       </c>
-      <c r="F153" s="87" t="s">
+      <c r="F153" s="86" t="s">
         <v>273</v>
       </c>
       <c r="G153" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="H153" s="46" t="s">
+      <c r="H153" s="45" t="s">
         <v>176</v>
       </c>
       <c r="I153" s="34" t="n">
@@ -9171,7 +9205,7 @@
         <f aca="false">J153-K153-L153</f>
         <v>1673.90559</v>
       </c>
-      <c r="N153" s="83" t="str">
+      <c r="N153" s="82" t="str">
         <f aca="false">+N152</f>
         <v>Damage</v>
       </c>
@@ -9179,12 +9213,12 @@
       <c r="P153" s="26"/>
       <c r="AMJ153" s="0"/>
     </row>
-    <row r="154" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="28" t="n">
         <f aca="false">A39</f>
         <v>42878</v>
       </c>
-      <c r="B154" s="86" t="s">
+      <c r="B154" s="85" t="s">
         <v>436</v>
       </c>
       <c r="C154" s="29" t="s">
@@ -9202,7 +9236,7 @@
       <c r="G154" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="H154" s="46" t="s">
+      <c r="H154" s="45" t="s">
         <v>194</v>
       </c>
       <c r="I154" s="34" t="n">
@@ -9222,7 +9256,7 @@
         <f aca="false">J154-K154-L154</f>
         <v>402.50559</v>
       </c>
-      <c r="N154" s="83" t="str">
+      <c r="N154" s="82" t="str">
         <f aca="false">+N152</f>
         <v>Damage</v>
       </c>
@@ -9231,52 +9265,52 @@
       <c r="AMJ154" s="0"/>
     </row>
     <row r="155" s="27" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="47" t="n">
+      <c r="A155" s="46" t="n">
         <f aca="false">A9</f>
         <v>42985</v>
       </c>
-      <c r="B155" s="88" t="s">
+      <c r="B155" s="87" t="s">
         <v>439</v>
       </c>
-      <c r="C155" s="88" t="str">
+      <c r="C155" s="87" t="str">
         <f aca="false">C9</f>
         <v>FS00004462</v>
       </c>
-      <c r="D155" s="88" t="str">
+      <c r="D155" s="87" t="str">
         <f aca="false">D9</f>
         <v>Cyclops Importer</v>
       </c>
-      <c r="E155" s="89" t="str">
+      <c r="E155" s="88" t="str">
         <f aca="false">E9</f>
         <v>CPV3261</v>
       </c>
-      <c r="F155" s="68" t="s">
+      <c r="F155" s="67" t="s">
         <v>273</v>
       </c>
       <c r="G155" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="H155" s="89" t="s">
+      <c r="H155" s="88" t="s">
         <v>53</v>
       </c>
       <c r="I155" s="34" t="n">
         <v>0.143</v>
       </c>
-      <c r="J155" s="51" t="n">
+      <c r="J155" s="50" t="n">
         <v>6347.83</v>
       </c>
       <c r="K155" s="36" t="n">
         <f aca="false">I155*J155</f>
         <v>907.73969</v>
       </c>
-      <c r="L155" s="82" t="n">
+      <c r="L155" s="81" t="n">
         <v>3475.9</v>
       </c>
       <c r="M155" s="37" t="n">
         <f aca="false">J155-K155-L155</f>
         <v>1964.19031</v>
       </c>
-      <c r="N155" s="83" t="str">
+      <c r="N155" s="82" t="str">
         <f aca="false">+N153</f>
         <v>Damage</v>
       </c>
@@ -9284,7 +9318,7 @@
       <c r="P155" s="26"/>
       <c r="AMJ155" s="0"/>
     </row>
-    <row r="156" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="18" t="n">
         <v>42838</v>
       </c>
@@ -9305,7 +9339,7 @@
       <c r="H156" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="I156" s="90" t="n">
+      <c r="I156" s="89" t="n">
         <v>0.143</v>
       </c>
       <c r="J156" s="23" t="n">
@@ -9329,19 +9363,19 @@
       <c r="P156" s="26"/>
       <c r="AMJ156" s="0"/>
     </row>
-    <row r="157" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="45" t="n">
+    <row r="157" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="44" t="n">
         <v>41338</v>
       </c>
-      <c r="B157" s="86" t="s">
+      <c r="B157" s="85" t="s">
         <v>446</v>
       </c>
-      <c r="C157" s="86"/>
-      <c r="D157" s="86"/>
-      <c r="E157" s="87"/>
+      <c r="C157" s="85"/>
+      <c r="D157" s="85"/>
+      <c r="E157" s="86"/>
       <c r="F157" s="31"/>
       <c r="G157" s="40"/>
-      <c r="H157" s="87" t="s">
+      <c r="H157" s="86" t="s">
         <v>447</v>
       </c>
       <c r="I157" s="34" t="n">
@@ -9350,7 +9384,9 @@
       <c r="J157" s="35" t="n">
         <v>2350</v>
       </c>
-      <c r="K157" s="37"/>
+      <c r="K157" s="36" t="n">
+        <v>0</v>
+      </c>
       <c r="L157" s="37" t="n">
         <v>2340</v>
       </c>
@@ -9366,24 +9402,24 @@
       <c r="AMJ157" s="0"/>
     </row>
     <row r="158" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="45" t="n">
+      <c r="A158" s="44" t="n">
         <v>42733</v>
       </c>
-      <c r="B158" s="86" t="s">
+      <c r="B158" s="85" t="s">
         <v>448</v>
       </c>
-      <c r="C158" s="86" t="s">
+      <c r="C158" s="85" t="s">
         <v>449</v>
       </c>
-      <c r="D158" s="86" t="s">
+      <c r="D158" s="85" t="s">
         <v>442</v>
       </c>
-      <c r="E158" s="87" t="s">
+      <c r="E158" s="86" t="s">
         <v>450</v>
       </c>
       <c r="F158" s="31"/>
       <c r="G158" s="40"/>
-      <c r="H158" s="46" t="s">
+      <c r="H158" s="45" t="s">
         <v>39</v>
       </c>
       <c r="I158" s="34" t="n">
@@ -9417,32 +9453,32 @@
       <c r="B159" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C159" s="62" t="s">
+      <c r="C159" s="61" t="s">
         <v>451</v>
       </c>
       <c r="D159" s="39" t="s">
         <v>452</v>
       </c>
-      <c r="E159" s="64" t="s">
+      <c r="E159" s="63" t="s">
         <v>453</v>
       </c>
       <c r="F159" s="31"/>
       <c r="G159" s="40"/>
-      <c r="H159" s="46" t="str">
+      <c r="H159" s="45" t="str">
         <f aca="false">H50</f>
         <v>STA-COA-001-009</v>
       </c>
       <c r="I159" s="34" t="n">
         <v>0.143</v>
       </c>
-      <c r="J159" s="63" t="n">
+      <c r="J159" s="62" t="n">
         <v>5043.48</v>
       </c>
       <c r="K159" s="37" t="n">
         <f aca="false">J159*I159</f>
         <v>721.21764</v>
       </c>
-      <c r="L159" s="63" t="n">
+      <c r="L159" s="62" t="n">
         <v>2156.90297656833</v>
       </c>
       <c r="M159" s="37" t="n">
@@ -9462,6 +9498,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <autoFilter ref="A1:N159"/>
   <mergeCells count="11">
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
@@ -9482,6 +9519,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/stadia/seed/computer_and_acc.xlsx
+++ b/stadia/seed/computer_and_acc.xlsx
@@ -2135,11 +2135,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L115" activeCellId="0" sqref="L115"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A42" colorId="64" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M44" activeCellId="0" sqref="M44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="33.57"/>
@@ -2163,7 +2163,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="true" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="17" customFormat="true" ht="49.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="M47" s="37" t="n">
         <f aca="false">J47-K47-L47</f>
-        <v>4441.86881545455</v>
+        <v>4441.86881545457</v>
       </c>
       <c r="N47" s="41"/>
       <c r="O47" s="26"/>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="M50" s="37" t="n">
         <f aca="false">J50-K50-L50</f>
-        <v>979.130826666667</v>
+        <v>979.130826666704</v>
       </c>
       <c r="N50" s="41"/>
       <c r="O50" s="26"/>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="M51" s="37" t="n">
         <f aca="false">J51-K51-L51</f>
-        <v>219.165796666666</v>
+        <v>219.165796666699</v>
       </c>
       <c r="N51" s="41"/>
       <c r="O51" s="26"/>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="M56" s="37" t="n">
         <f aca="false">J56-K56-L56</f>
-        <v>1410.12943545454</v>
+        <v>1410.12943545457</v>
       </c>
       <c r="N56" s="41"/>
       <c r="O56" s="26"/>
@@ -4916,7 +4916,7 @@
       </c>
       <c r="M58" s="37" t="n">
         <f aca="false">J58-K58-L58</f>
-        <v>3594.86767142857</v>
+        <v>3594.8676714286</v>
       </c>
       <c r="N58" s="41"/>
       <c r="O58" s="26"/>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="M63" s="37" t="n">
         <f aca="false">J63-K63-L63</f>
-        <v>221.470225454548</v>
+        <v>221.470225454603</v>
       </c>
       <c r="N63" s="41"/>
       <c r="O63" s="26"/>
@@ -5435,7 +5435,7 @@
       </c>
       <c r="M69" s="37" t="n">
         <f aca="false">J69-K69-L69</f>
-        <v>1410.12943545454</v>
+        <v>1410.12943545457</v>
       </c>
       <c r="N69" s="41"/>
       <c r="O69" s="26"/>
@@ -5579,7 +5579,7 @@
       </c>
       <c r="M72" s="37" t="n">
         <f aca="false">J72-K72-L72</f>
-        <v>4755.79676545454</v>
+        <v>4755.79676545457</v>
       </c>
       <c r="N72" s="41"/>
       <c r="O72" s="26"/>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="M81" s="37" t="n">
         <f aca="false">J81-K81-L81</f>
-        <v>3544.02548142857</v>
+        <v>3544.0254814286</v>
       </c>
       <c r="N81" s="66"/>
       <c r="O81" s="26"/>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="M83" s="37" t="n">
         <f aca="false">J83-K83-L83</f>
-        <v>4755.79676545454</v>
+        <v>4755.79676545457</v>
       </c>
       <c r="N83" s="41"/>
       <c r="O83" s="26"/>
@@ -6813,14 +6813,15 @@
       <c r="J98" s="77" t="n">
         <v>14956.52</v>
       </c>
-      <c r="K98" s="36" t="e">
-        <f aca="false">#REF!*I98*J98</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L98" s="77"/>
-      <c r="M98" s="37" t="e">
+      <c r="K98" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" s="37" t="n">
         <f aca="false">J98-K98-L98</f>
-        <v>#REF!</v>
+        <v>14956.52</v>
       </c>
       <c r="N98" s="78" t="s">
         <v>375</v>
@@ -6860,14 +6861,15 @@
       <c r="J99" s="77" t="n">
         <v>35217.39</v>
       </c>
-      <c r="K99" s="36" t="e">
-        <f aca="false">#REF!*I99*J99</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L99" s="77"/>
-      <c r="M99" s="37" t="e">
+      <c r="K99" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" s="37" t="n">
         <f aca="false">J99-K99-L99</f>
-        <v>#REF!</v>
+        <v>35217.39</v>
       </c>
       <c r="N99" s="78" t="s">
         <v>375</v>
@@ -6907,14 +6909,15 @@
       <c r="J100" s="77" t="n">
         <v>35217.39</v>
       </c>
-      <c r="K100" s="36" t="e">
-        <f aca="false">#REF!*I100*J100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L100" s="77"/>
-      <c r="M100" s="37" t="e">
+      <c r="K100" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" s="37" t="n">
         <f aca="false">J100-K100-L100</f>
-        <v>#REF!</v>
+        <v>35217.39</v>
       </c>
       <c r="N100" s="78" t="s">
         <v>375</v>
@@ -6954,14 +6957,15 @@
       <c r="J101" s="81" t="n">
         <v>6869.56</v>
       </c>
-      <c r="K101" s="36" t="e">
-        <f aca="false">#REF!*I101*J101</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L101" s="37"/>
-      <c r="M101" s="37" t="e">
+      <c r="K101" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" s="37" t="n">
         <f aca="false">J101-K101-L101</f>
-        <v>#REF!</v>
+        <v>6869.56</v>
       </c>
       <c r="N101" s="78" t="s">
         <v>375</v>
@@ -6996,14 +7000,15 @@
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
-      <c r="K102" s="36" t="e">
-        <f aca="false">#REF!*I102*J102</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L102" s="36"/>
-      <c r="M102" s="37" t="e">
+      <c r="K102" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" s="37" t="n">
         <f aca="false">J102-K102-L102</f>
-        <v>#REF!</v>
+        <v>16500</v>
       </c>
       <c r="N102" s="78" t="s">
         <v>375</v>
@@ -7038,14 +7043,15 @@
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
-      <c r="K103" s="36" t="e">
-        <f aca="false">#REF!*I103*J103</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L103" s="36"/>
-      <c r="M103" s="37" t="e">
+      <c r="K103" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" s="37" t="n">
         <f aca="false">J103-K103-L103</f>
-        <v>#REF!</v>
+        <v>16500</v>
       </c>
       <c r="N103" s="78" t="s">
         <v>375</v>
@@ -7080,14 +7086,15 @@
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
-      <c r="K104" s="36" t="e">
-        <f aca="false">#REF!*I104*J104</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L104" s="36"/>
-      <c r="M104" s="37" t="e">
+      <c r="K104" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" s="37" t="n">
         <f aca="false">J104-K104-L104</f>
-        <v>#REF!</v>
+        <v>16500</v>
       </c>
       <c r="N104" s="78" t="s">
         <v>375</v>
@@ -7122,14 +7129,15 @@
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
-      <c r="K105" s="36" t="e">
-        <f aca="false">#REF!*I105*J105</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L105" s="36"/>
-      <c r="M105" s="37" t="e">
+      <c r="K105" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" s="37" t="n">
         <f aca="false">J105-K105-L105</f>
-        <v>#REF!</v>
+        <v>16500</v>
       </c>
       <c r="N105" s="78" t="s">
         <v>375</v>
@@ -7164,14 +7172,15 @@
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
-      <c r="K106" s="36" t="e">
-        <f aca="false">#REF!*I106*J106</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L106" s="36"/>
-      <c r="M106" s="37" t="e">
+      <c r="K106" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" s="37" t="n">
         <f aca="false">J106-K106-L106</f>
-        <v>#REF!</v>
+        <v>16500</v>
       </c>
       <c r="N106" s="78" t="s">
         <v>375</v>
@@ -7206,14 +7215,15 @@
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
-      <c r="K107" s="36" t="e">
-        <f aca="false">#REF!*I107*J107</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L107" s="36"/>
-      <c r="M107" s="37" t="e">
+      <c r="K107" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" s="37" t="n">
         <f aca="false">J107-K107-L107</f>
-        <v>#REF!</v>
+        <v>16500</v>
       </c>
       <c r="N107" s="78" t="s">
         <v>375</v>
@@ -7248,14 +7258,15 @@
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
-      <c r="K108" s="36" t="e">
-        <f aca="false">#REF!*I108*J108</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L108" s="36"/>
-      <c r="M108" s="37" t="e">
+      <c r="K108" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" s="37" t="n">
         <f aca="false">J108-K108-L108</f>
-        <v>#REF!</v>
+        <v>16500</v>
       </c>
       <c r="N108" s="78" t="s">
         <v>375</v>
@@ -7290,14 +7301,15 @@
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
-      <c r="K109" s="36" t="e">
-        <f aca="false">#REF!*I109*J109</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L109" s="36"/>
-      <c r="M109" s="37" t="e">
+      <c r="K109" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" s="37" t="n">
         <f aca="false">J109-K109-L109</f>
-        <v>#REF!</v>
+        <v>16500</v>
       </c>
       <c r="N109" s="78" t="s">
         <v>375</v>
@@ -7332,14 +7344,15 @@
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
-      <c r="K110" s="36" t="e">
-        <f aca="false">#REF!*I110*J110</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L110" s="36"/>
-      <c r="M110" s="37" t="e">
+      <c r="K110" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" s="37" t="n">
         <f aca="false">J110-K110-L110</f>
-        <v>#REF!</v>
+        <v>16500</v>
       </c>
       <c r="N110" s="78" t="s">
         <v>375</v>
@@ -7374,14 +7387,15 @@
         <f aca="false">16500</f>
         <v>16500</v>
       </c>
-      <c r="K111" s="36" t="e">
-        <f aca="false">#REF!*I111*J111</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L111" s="36"/>
-      <c r="M111" s="37" t="e">
+      <c r="K111" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" s="37" t="n">
         <f aca="false">J111-K111-L111</f>
-        <v>#REF!</v>
+        <v>16500</v>
       </c>
       <c r="N111" s="78" t="s">
         <v>375</v>
@@ -7416,14 +7430,15 @@
         <f aca="false">8500</f>
         <v>8500</v>
       </c>
-      <c r="K112" s="36" t="e">
-        <f aca="false">#REF!*I112*J112</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L112" s="36"/>
-      <c r="M112" s="37" t="e">
+      <c r="K112" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" s="37" t="n">
         <f aca="false">J112-K112-L112</f>
-        <v>#REF!</v>
+        <v>8500</v>
       </c>
       <c r="N112" s="78" t="s">
         <v>375</v>
@@ -7458,14 +7473,15 @@
         <f aca="false">8500</f>
         <v>8500</v>
       </c>
-      <c r="K113" s="36" t="e">
-        <f aca="false">#REF!*I113*J113</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L113" s="36"/>
-      <c r="M113" s="37" t="e">
+      <c r="K113" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" s="37" t="n">
         <f aca="false">J113-K113-L113</f>
-        <v>#REF!</v>
+        <v>8500</v>
       </c>
       <c r="N113" s="78" t="s">
         <v>375</v>
@@ -7500,14 +7516,15 @@
         <f aca="false">8500</f>
         <v>8500</v>
       </c>
-      <c r="K114" s="36" t="e">
-        <f aca="false">#REF!*I114*J114</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L114" s="36"/>
-      <c r="M114" s="37" t="e">
+      <c r="K114" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" s="37" t="n">
         <f aca="false">J114-K114-L114</f>
-        <v>#REF!</v>
+        <v>8500</v>
       </c>
       <c r="N114" s="78" t="s">
         <v>375</v>
@@ -7542,14 +7559,15 @@
         <f aca="false">16000</f>
         <v>16000</v>
       </c>
-      <c r="K115" s="36" t="e">
-        <f aca="false">#REF!*I115*J115</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L115" s="36"/>
-      <c r="M115" s="37" t="e">
+      <c r="K115" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" s="37" t="n">
         <f aca="false">J115-K115-L115</f>
-        <v>#REF!</v>
+        <v>16000</v>
       </c>
       <c r="N115" s="78" t="s">
         <v>375</v>
@@ -7584,14 +7602,15 @@
         <f aca="false">16000</f>
         <v>16000</v>
       </c>
-      <c r="K116" s="36" t="e">
-        <f aca="false">#REF!*I116*J116</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L116" s="36"/>
-      <c r="M116" s="37" t="e">
+      <c r="K116" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" s="37" t="n">
         <f aca="false">J116-K116-L116</f>
-        <v>#REF!</v>
+        <v>16000</v>
       </c>
       <c r="N116" s="78" t="s">
         <v>375</v>
@@ -7626,14 +7645,15 @@
         <f aca="false">12000</f>
         <v>12000</v>
       </c>
-      <c r="K117" s="36" t="e">
-        <f aca="false">#REF!*I117*J117</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L117" s="36"/>
-      <c r="M117" s="37" t="e">
+      <c r="K117" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" s="37" t="n">
         <f aca="false">J117-K117-L117</f>
-        <v>#REF!</v>
+        <v>12000</v>
       </c>
       <c r="N117" s="78" t="s">
         <v>375</v>
@@ -7668,14 +7688,15 @@
         <f aca="false">12000</f>
         <v>12000</v>
       </c>
-      <c r="K118" s="36" t="e">
-        <f aca="false">#REF!*I118*J118</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L118" s="36"/>
-      <c r="M118" s="37" t="e">
+      <c r="K118" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" s="37" t="n">
         <f aca="false">J118-K118-L118</f>
-        <v>#REF!</v>
+        <v>12000</v>
       </c>
       <c r="N118" s="78" t="s">
         <v>375</v>
@@ -7710,14 +7731,15 @@
         <f aca="false">31304.35</f>
         <v>31304.35</v>
       </c>
-      <c r="K119" s="36" t="e">
-        <f aca="false">#REF!*I119*J119</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L119" s="36"/>
-      <c r="M119" s="37" t="e">
+      <c r="K119" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" s="37" t="n">
         <f aca="false">J119-K119-L119</f>
-        <v>#REF!</v>
+        <v>31304.35</v>
       </c>
       <c r="N119" s="78" t="s">
         <v>375</v>
@@ -7752,14 +7774,15 @@
         <f aca="false">31304.35</f>
         <v>31304.35</v>
       </c>
-      <c r="K120" s="36" t="e">
-        <f aca="false">#REF!*I120*J120</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L120" s="36"/>
-      <c r="M120" s="37" t="e">
+      <c r="K120" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" s="37" t="n">
         <f aca="false">J120-K120-L120</f>
-        <v>#REF!</v>
+        <v>31304.35</v>
       </c>
       <c r="N120" s="78" t="s">
         <v>375</v>
@@ -7793,14 +7816,15 @@
       <c r="J121" s="81" t="n">
         <v>16500</v>
       </c>
-      <c r="K121" s="36" t="e">
-        <f aca="false">#REF!*I121*J121</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L121" s="36"/>
-      <c r="M121" s="37" t="e">
+      <c r="K121" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" s="37" t="n">
         <f aca="false">J121-K121-L121</f>
-        <v>#REF!</v>
+        <v>16500</v>
       </c>
       <c r="N121" s="78" t="s">
         <v>375</v>
@@ -7834,14 +7858,15 @@
       <c r="J122" s="81" t="n">
         <v>16500</v>
       </c>
-      <c r="K122" s="36" t="e">
-        <f aca="false">#REF!*I122*J122</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L122" s="36"/>
-      <c r="M122" s="37" t="e">
+      <c r="K122" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" s="37" t="n">
         <f aca="false">J122-K122-L122</f>
-        <v>#REF!</v>
+        <v>16500</v>
       </c>
       <c r="N122" s="78" t="s">
         <v>375</v>
@@ -7875,14 +7900,15 @@
       <c r="J123" s="81" t="n">
         <v>16500</v>
       </c>
-      <c r="K123" s="36" t="e">
-        <f aca="false">#REF!*I123*J123</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L123" s="36"/>
-      <c r="M123" s="37" t="e">
+      <c r="K123" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" s="37" t="n">
         <f aca="false">J123-K123-L123</f>
-        <v>#REF!</v>
+        <v>16500</v>
       </c>
       <c r="N123" s="78" t="s">
         <v>375</v>
@@ -7916,14 +7942,15 @@
       <c r="J124" s="81" t="n">
         <v>16500</v>
       </c>
-      <c r="K124" s="36" t="e">
-        <f aca="false">#REF!*I124*J124</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L124" s="36"/>
-      <c r="M124" s="37" t="e">
+      <c r="K124" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" s="37" t="n">
         <f aca="false">J124-K124-L124</f>
-        <v>#REF!</v>
+        <v>16500</v>
       </c>
       <c r="N124" s="78" t="s">
         <v>375</v>
@@ -7957,14 +7984,15 @@
       <c r="J125" s="81" t="n">
         <v>16500</v>
       </c>
-      <c r="K125" s="36" t="e">
-        <f aca="false">#REF!*I125*J125</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L125" s="36"/>
-      <c r="M125" s="37" t="e">
+      <c r="K125" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" s="37" t="n">
         <f aca="false">J125-K125-L125</f>
-        <v>#REF!</v>
+        <v>16500</v>
       </c>
       <c r="N125" s="78" t="s">
         <v>375</v>
@@ -7998,14 +8026,15 @@
       <c r="J126" s="81" t="n">
         <v>16500</v>
       </c>
-      <c r="K126" s="36" t="e">
-        <f aca="false">#REF!*I126*J126</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L126" s="36"/>
-      <c r="M126" s="37" t="e">
+      <c r="K126" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" s="37" t="n">
         <f aca="false">J126-K126-L126</f>
-        <v>#REF!</v>
+        <v>16500</v>
       </c>
       <c r="N126" s="78" t="s">
         <v>375</v>
@@ -8039,14 +8068,15 @@
       <c r="J127" s="81" t="n">
         <v>16500</v>
       </c>
-      <c r="K127" s="36" t="e">
-        <f aca="false">#REF!*I127*J127</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L127" s="36"/>
-      <c r="M127" s="37" t="e">
+      <c r="K127" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" s="37" t="n">
         <f aca="false">J127-K127-L127</f>
-        <v>#REF!</v>
+        <v>16500</v>
       </c>
       <c r="N127" s="78" t="s">
         <v>375</v>
@@ -8080,14 +8110,15 @@
       <c r="J128" s="81" t="n">
         <v>16500</v>
       </c>
-      <c r="K128" s="36" t="e">
-        <f aca="false">#REF!*I128*J128</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L128" s="36"/>
-      <c r="M128" s="37" t="e">
+      <c r="K128" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" s="37" t="n">
         <f aca="false">J128-K128-L128</f>
-        <v>#REF!</v>
+        <v>16500</v>
       </c>
       <c r="N128" s="78" t="s">
         <v>375</v>
@@ -8121,14 +8152,15 @@
       <c r="J129" s="81" t="n">
         <v>16500</v>
       </c>
-      <c r="K129" s="36" t="e">
-        <f aca="false">#REF!*I129*J129</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L129" s="36"/>
-      <c r="M129" s="37" t="e">
+      <c r="K129" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" s="37" t="n">
         <f aca="false">J129-K129-L129</f>
-        <v>#REF!</v>
+        <v>16500</v>
       </c>
       <c r="N129" s="78" t="s">
         <v>375</v>
@@ -8162,14 +8194,15 @@
       <c r="J130" s="81" t="n">
         <v>16500</v>
       </c>
-      <c r="K130" s="36" t="e">
-        <f aca="false">#REF!*I130*J130</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L130" s="36"/>
-      <c r="M130" s="37" t="e">
+      <c r="K130" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" s="37" t="n">
         <f aca="false">J130-K130-L130</f>
-        <v>#REF!</v>
+        <v>16500</v>
       </c>
       <c r="N130" s="78" t="s">
         <v>375</v>
@@ -8203,14 +8236,15 @@
       <c r="J131" s="81" t="n">
         <v>16500</v>
       </c>
-      <c r="K131" s="36" t="e">
-        <f aca="false">#REF!*I131*J131</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L131" s="36"/>
-      <c r="M131" s="37" t="e">
+      <c r="K131" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" s="37" t="n">
         <f aca="false">J131-K131-L131</f>
-        <v>#REF!</v>
+        <v>16500</v>
       </c>
       <c r="N131" s="78" t="s">
         <v>375</v>
@@ -8245,14 +8279,15 @@
         <f aca="false">13000</f>
         <v>13000</v>
       </c>
-      <c r="K132" s="36" t="e">
-        <f aca="false">#REF!*I132*J132</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L132" s="36"/>
-      <c r="M132" s="37" t="e">
+      <c r="K132" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" s="37" t="n">
         <f aca="false">J132-K132-L132</f>
-        <v>#REF!</v>
+        <v>13000</v>
       </c>
       <c r="N132" s="78" t="s">
         <v>375</v>
@@ -8287,14 +8322,15 @@
         <f aca="false">13000</f>
         <v>13000</v>
       </c>
-      <c r="K133" s="36" t="e">
-        <f aca="false">#REF!*I133*J133</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L133" s="36"/>
-      <c r="M133" s="37" t="e">
+      <c r="K133" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" s="37" t="n">
         <f aca="false">J133-K133-L133</f>
-        <v>#REF!</v>
+        <v>13000</v>
       </c>
       <c r="N133" s="78" t="s">
         <v>375</v>
@@ -8329,14 +8365,15 @@
         <f aca="false">13000</f>
         <v>13000</v>
       </c>
-      <c r="K134" s="36" t="e">
-        <f aca="false">#REF!*I134*J134</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L134" s="36"/>
-      <c r="M134" s="37" t="e">
+      <c r="K134" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" s="37" t="n">
         <f aca="false">J134-K134-L134</f>
-        <v>#REF!</v>
+        <v>13000</v>
       </c>
       <c r="N134" s="78" t="s">
         <v>375</v>
@@ -8371,14 +8408,15 @@
         <f aca="false">13000</f>
         <v>13000</v>
       </c>
-      <c r="K135" s="36" t="e">
-        <f aca="false">#REF!*I135*J135</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L135" s="36"/>
-      <c r="M135" s="37" t="e">
+      <c r="K135" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" s="37" t="n">
         <f aca="false">J135-K135-L135</f>
-        <v>#REF!</v>
+        <v>13000</v>
       </c>
       <c r="N135" s="78" t="s">
         <v>375</v>
@@ -8413,14 +8451,15 @@
         <f aca="false">8500</f>
         <v>8500</v>
       </c>
-      <c r="K136" s="36" t="e">
-        <f aca="false">#REF!*I136*J136</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L136" s="36"/>
-      <c r="M136" s="37" t="e">
+      <c r="K136" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" s="37" t="n">
         <f aca="false">J136-K136-L136</f>
-        <v>#REF!</v>
+        <v>8500</v>
       </c>
       <c r="N136" s="78" t="s">
         <v>375</v>
@@ -8455,14 +8494,15 @@
         <f aca="false">8500</f>
         <v>8500</v>
       </c>
-      <c r="K137" s="36" t="e">
-        <f aca="false">#REF!*I137*J137</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L137" s="36"/>
-      <c r="M137" s="37" t="e">
+      <c r="K137" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" s="37" t="n">
         <f aca="false">J137-K137-L137</f>
-        <v>#REF!</v>
+        <v>8500</v>
       </c>
       <c r="N137" s="78" t="s">
         <v>375</v>
@@ -8497,14 +8537,15 @@
         <f aca="false">8500</f>
         <v>8500</v>
       </c>
-      <c r="K138" s="36" t="e">
-        <f aca="false">#REF!*I138*J138</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L138" s="36"/>
-      <c r="M138" s="37" t="e">
+      <c r="K138" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" s="37" t="n">
         <f aca="false">J138-K138-L138</f>
-        <v>#REF!</v>
+        <v>8500</v>
       </c>
       <c r="N138" s="78" t="s">
         <v>375</v>
@@ -8538,14 +8579,15 @@
       <c r="J139" s="81" t="n">
         <v>8000</v>
       </c>
-      <c r="K139" s="36" t="e">
-        <f aca="false">#REF!*I139*J139</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L139" s="36"/>
-      <c r="M139" s="37" t="e">
+      <c r="K139" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" s="37" t="n">
         <f aca="false">J139-K139-L139</f>
-        <v>#REF!</v>
+        <v>8000</v>
       </c>
       <c r="N139" s="78" t="s">
         <v>375</v>
@@ -8580,14 +8622,15 @@
         <f aca="false">8000</f>
         <v>8000</v>
       </c>
-      <c r="K140" s="36" t="e">
-        <f aca="false">#REF!*I140*J140</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L140" s="36"/>
-      <c r="M140" s="37" t="e">
+      <c r="K140" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" s="37" t="n">
         <f aca="false">J140-K140-L140</f>
-        <v>#REF!</v>
+        <v>8000</v>
       </c>
       <c r="N140" s="78" t="s">
         <v>375</v>
@@ -8621,14 +8664,15 @@
       <c r="J141" s="81" t="n">
         <v>7000</v>
       </c>
-      <c r="K141" s="36" t="e">
-        <f aca="false">#REF!*I141*J141</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L141" s="36"/>
-      <c r="M141" s="37" t="e">
+      <c r="K141" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" s="37" t="n">
         <f aca="false">J141-K141-L141</f>
-        <v>#REF!</v>
+        <v>7000</v>
       </c>
       <c r="N141" s="78" t="s">
         <v>375</v>
@@ -8663,14 +8707,15 @@
         <f aca="false">31304.35</f>
         <v>31304.35</v>
       </c>
-      <c r="K142" s="36" t="e">
-        <f aca="false">#REF!*I142*J142</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L142" s="36"/>
-      <c r="M142" s="37" t="e">
+      <c r="K142" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" s="37" t="n">
         <f aca="false">J142-K142-L142</f>
-        <v>#REF!</v>
+        <v>31304.35</v>
       </c>
       <c r="N142" s="78" t="s">
         <v>375</v>
@@ -8705,14 +8750,15 @@
         <f aca="false">31304.35</f>
         <v>31304.35</v>
       </c>
-      <c r="K143" s="36" t="e">
-        <f aca="false">#REF!*I143*J143</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L143" s="36"/>
-      <c r="M143" s="37" t="e">
+      <c r="K143" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" s="37" t="n">
         <f aca="false">J143-K143-L143</f>
-        <v>#REF!</v>
+        <v>31304.35</v>
       </c>
       <c r="N143" s="78" t="s">
         <v>375</v>
@@ -8721,7 +8767,7 @@
       <c r="P143" s="26"/>
       <c r="AMJ143" s="0"/>
     </row>
-    <row r="144" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="42" t="n">
         <v>42637</v>
       </c>
@@ -8770,7 +8816,7 @@
       <c r="P144" s="26"/>
       <c r="AMJ144" s="0"/>
     </row>
-    <row r="145" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="42" t="n">
         <v>40493</v>
       </c>
@@ -9159,7 +9205,7 @@
       <c r="P152" s="26"/>
       <c r="AMJ152" s="0"/>
     </row>
-    <row r="153" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="44" t="n">
         <f aca="false">A39</f>
         <v>42878</v>
@@ -9173,7 +9219,7 @@
       </c>
       <c r="D153" s="85" t="str">
         <f aca="false">D39</f>
-        <v>Jupiter Trading </v>
+        <v>Jupiter Trading</v>
       </c>
       <c r="E153" s="86" t="str">
         <f aca="false">E39</f>
@@ -9213,7 +9259,7 @@
       <c r="P153" s="26"/>
       <c r="AMJ153" s="0"/>
     </row>
-    <row r="154" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="28" t="n">
         <f aca="false">A39</f>
         <v>42878</v>
@@ -9318,7 +9364,7 @@
       <c r="P155" s="26"/>
       <c r="AMJ155" s="0"/>
     </row>
-    <row r="156" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="18" t="n">
         <v>42838</v>
       </c>
@@ -9363,7 +9409,7 @@
       <c r="P156" s="26"/>
       <c r="AMJ156" s="0"/>
     </row>
-    <row r="157" s="27" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" s="27" customFormat="true" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="44" t="n">
         <v>41338</v>
       </c>
@@ -9384,7 +9430,7 @@
       <c r="J157" s="35" t="n">
         <v>2350</v>
       </c>
-      <c r="K157" s="36" t="n">
+      <c r="K157" s="37" t="n">
         <v>0</v>
       </c>
       <c r="L157" s="37" t="n">
